--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1180499968626862</v>
+        <v>0.1174941430175261</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08515131377208142</v>
+        <v>0.08644970996706926</v>
       </c>
       <c r="G2" t="n">
-        <v>0.009852951491664317</v>
+        <v>0.03712951075468498</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04044579684775355</v>
+        <v>0.01303800570318956</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03970351968804796</v>
+        <v>0.08755596765973973</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0575857473926619</v>
+        <v>0.06505795305624906</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0288610525372771</v>
+        <v>0.002538811265800658</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02337294276860843</v>
+        <v>0.02817024222071117</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07691325784826065</v>
+        <v>0.02045068951263722</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0006790881482662086</v>
+        <v>0.01431636116374946</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05899849476995735</v>
+        <v>0.04419887778479312</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09712506700971514</v>
+        <v>0.08624869461715774</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.006008459102207076</v>
+        <v>0.03730252517253336</v>
       </c>
       <c r="R2" t="n">
-        <v>0.08233715982419343</v>
+        <v>0.06026559941832518</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05076896722766353</v>
+        <v>0.005983862514180138</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04142529468900755</v>
+        <v>0.03911005750089448</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03239993525236919</v>
+        <v>0.07674472868226453</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01482695992658595</v>
+        <v>0.02234835732531874</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03748393836584923</v>
+        <v>0.05753440433810243</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0231203332441346</v>
+        <v>0.01243945870798954</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0561351270002779</v>
+        <v>0.07764666686285275</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.01411222948037652</v>
+        <v>0.0854357006152016</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07203766424067229</v>
+        <v>0.02099426633429535</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.05065469937236869</v>
+        <v>0.01903954882225985</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0770604820109738</v>
+        <v>0.09004828970706083</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1338370272998094</v>
+        <v>0.1273907854646111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002367573209695628</v>
+        <v>0.03508197762745133</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05891088897120893</v>
+        <v>0.007080702526069074</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09908077063432257</v>
+        <v>0.02026087253127115</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06772622744447587</v>
+        <v>0.07478879332363314</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09249399722368615</v>
+        <v>0.06486495335103377</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001073641308082833</v>
+        <v>0.01781768355579028</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0804063458112987</v>
+        <v>0.01275347423214731</v>
       </c>
       <c r="M3" t="n">
-        <v>0.10058471412536</v>
+        <v>0.07892053759962693</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03212124410968741</v>
+        <v>0.08207051859354196</v>
       </c>
       <c r="O3" t="n">
-        <v>9.422665576316793e-05</v>
+        <v>0.00443407933192579</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0339490037827003</v>
+        <v>0.0265054672659909</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00705108494332814</v>
+        <v>0.008661203877099297</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02918187909918054</v>
+        <v>0.07138353184765925</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08581484736158325</v>
+        <v>0.08962280193813235</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01745127030553134</v>
+        <v>0.08836597268929963</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01901108671626749</v>
+        <v>0.07966825376227563</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04706290071057246</v>
+        <v>0.02550278145210768</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0590884962194058</v>
+        <v>0.008931148070790025</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0003449076275712179</v>
+        <v>0.01065252343514847</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.05003712726562528</v>
+        <v>0.02942958862913345</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.003690594707326612</v>
+        <v>0.06587697390708359</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.006604597040668206</v>
+        <v>0.01507617544267579</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.1058525747266581</v>
+        <v>0.08224998501011328</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1046688713764745</v>
+        <v>0.05789602178717095</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.125413996868499</v>
+        <v>0.1246109057726598</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07226670744440086</v>
+        <v>0.07340801585448485</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02492960488105</v>
+        <v>0.01237863122852003</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02346570217726318</v>
+        <v>0.02595861355690226</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0268413100642995</v>
+        <v>0.03970507972097749</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04068808947324438</v>
+        <v>0.02795588184264555</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004082170842248123</v>
+        <v>0.005628790686601737</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007246950874384219</v>
+        <v>0.007719779153286955</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02259318857959274</v>
+        <v>0.02431440633134053</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02370716677496779</v>
+        <v>0.01067342777143429</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06646235618120108</v>
+        <v>0.1131944688982714</v>
       </c>
       <c r="P4" t="n">
-        <v>0.06987000355314353</v>
+        <v>0.08032593544085678</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05436411630491807</v>
+        <v>0.02189869177727569</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02170225022989548</v>
+        <v>0.04241547051431439</v>
       </c>
       <c r="S4" t="n">
-        <v>0.06056432055816691</v>
+        <v>0.05704530369739257</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05938663046587008</v>
+        <v>0.1019847088077998</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08609458278613426</v>
+        <v>0.03973813105696376</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01473531665041283</v>
+        <v>0.004408407776636511</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002459455986128273</v>
+        <v>0.05014020765305845</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06280017454416449</v>
+        <v>0.1062011221245339</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.06033628891084988</v>
+        <v>0.07896012904943174</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.08763317908639315</v>
+        <v>0.0008354531156096577</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.007796162584715421</v>
+        <v>0.02765248762020741</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.09997427104655587</v>
+        <v>0.04745685632145413</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.04317398359396259</v>
+        <v>0.03737708007872329</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1340059923459803</v>
+        <v>0.134791631468394</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0294390958282716</v>
+        <v>0.01213538988830862</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006732900964028222</v>
+        <v>0.01837117030046559</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06656062373304193</v>
+        <v>0.0984082547717488</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08709207507652654</v>
+        <v>0.0830823388981807</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02529528156331338</v>
+        <v>0.000330494467162594</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04361440443024171</v>
+        <v>0.02180071718349596</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08581505472073216</v>
+        <v>0.03851527608777431</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06081085469589138</v>
+        <v>0.02566239595330112</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00521139305633523</v>
+        <v>0.03662689378993678</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02276245857850754</v>
+        <v>0.01521998338910418</v>
       </c>
       <c r="P5" t="n">
-        <v>0.06122486359939415</v>
+        <v>0.004825104994100588</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05147876667408253</v>
+        <v>0.05725285419224921</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01617257372155166</v>
+        <v>0.02521784799346708</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08919106678154248</v>
+        <v>0.07387867346156418</v>
       </c>
       <c r="T5" t="n">
-        <v>0.04607316542259286</v>
+        <v>0.09796045934785043</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08102336326052241</v>
+        <v>0.08596120531361531</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03007525688841182</v>
+        <v>0.0120321344239844</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01793668309687415</v>
+        <v>0.08786026792570391</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01927997041705613</v>
+        <v>0.0146850287914811</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0504307328462621</v>
+        <v>0.02223255735412095</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001154719502065793</v>
+        <v>0.05000712377286929</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.02690229775663767</v>
+        <v>0.01200653490866699</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.07572239738611664</v>
+        <v>0.1059272927908479</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.05397027831046705</v>
+        <v>0.02783906061740409</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.12625984689818</v>
+        <v>0.1276946136747197</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0584999797353671</v>
+        <v>0.04336135700584549</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01630001714694043</v>
+        <v>0.008039550849593645</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01349931382255723</v>
+        <v>0.03299648433409542</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05830977054219846</v>
+        <v>0.01010858973530809</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0115317681026003</v>
+        <v>0.00457295241384812</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001976882852961616</v>
+        <v>0.01735094928667224</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002219488315443146</v>
+        <v>0.007923793474583263</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01080038711945806</v>
+        <v>0.03384604570110672</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03075565615945363</v>
+        <v>0.03935262332899955</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07570097355883636</v>
+        <v>0.07769896512035836</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08559752126429002</v>
+        <v>0.01925838269006874</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03747888234405891</v>
+        <v>0.0007868796640640163</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05062903537305159</v>
+        <v>0.01693427660605386</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05487929829817922</v>
+        <v>0.091167453219172</v>
       </c>
       <c r="T6" t="n">
-        <v>0.08524392086031353</v>
+        <v>0.07775986051688454</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0781478439057512</v>
+        <v>0.1064562682396377</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01189397561098776</v>
+        <v>0.0007918215113934531</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0832832087637362</v>
+        <v>0.09020118339396621</v>
       </c>
       <c r="X6" t="n">
-        <v>0.06555742012756899</v>
+        <v>0.08808865302768858</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04766879251855091</v>
+        <v>0.08050095472967723</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.06934875246172729</v>
+        <v>0.0825259245026741</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.04260598300250374</v>
+        <v>0.01800279012077359</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01006866759736304</v>
+        <v>0.05227424052753498</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2130691610022854</v>
+        <v>-0.2091252553237655</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1458790118994309</v>
+        <v>0.1431748601311177</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08203031997612117</v>
+        <v>0.09419514175232147</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01850782617795755</v>
+        <v>0.03609607149848587</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03244600849552046</v>
+        <v>0.06675200287213075</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1002736880981134</v>
+        <v>0.08945803324434341</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04099004376608206</v>
+        <v>0.0375275725144824</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01225038109189001</v>
+        <v>0.003236105476613154</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07235213011809623</v>
+        <v>0.06279397004168909</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01599747265255988</v>
+        <v>0.02417100004300492</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01347284748388892</v>
+        <v>0.006106581021760255</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01244838674594962</v>
+        <v>0.02349448641331813</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01330039744523771</v>
+        <v>0.05687768282909487</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05111580750940348</v>
+        <v>0.07038840041351066</v>
       </c>
       <c r="R7" t="n">
-        <v>0.03208773318910433</v>
+        <v>0.02926065312374228</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001973747127192568</v>
+        <v>0.08516468741193746</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02953997635902422</v>
+        <v>0.006181765101424188</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01342678191576855</v>
+        <v>0.0138189223028909</v>
       </c>
       <c r="V7" t="n">
-        <v>0.01798685536669605</v>
+        <v>0.006318580754589571</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02972831626588779</v>
+        <v>0.03666142923085013</v>
       </c>
       <c r="X7" t="n">
-        <v>0.08524433067372059</v>
+        <v>0.04279955344148809</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.05913042748825487</v>
+        <v>0.01960890116663182</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.07779247647651674</v>
+        <v>0.0442669852642562</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.08734423188692393</v>
+        <v>0.07090437831737401</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1005598136900899</v>
+        <v>0.07391709576406025</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.2304018703624147</v>
+        <v>-0.2220480266321454</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1715447380939999</v>
+        <v>0.1650102386883059</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05749186170263339</v>
+        <v>0.08746023112222111</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02066602175677294</v>
+        <v>0.01022023478874324</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07504965294394109</v>
+        <v>0.01109772704642498</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06794657291260722</v>
+        <v>0.0950660072266707</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04131629236971308</v>
+        <v>0.01963907895661414</v>
       </c>
       <c r="K8" t="n">
-        <v>0.008277784015910703</v>
+        <v>0.01096901266202859</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003553724523476543</v>
+        <v>0.01112712860304838</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01782213364442585</v>
+        <v>0.004016423948119521</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01233337359866164</v>
+        <v>0.014277161155034</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03413839874631988</v>
+        <v>0.008206130567668776</v>
       </c>
       <c r="P8" t="n">
-        <v>0.04278050688118159</v>
+        <v>0.08419796081500402</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06745583091944517</v>
+        <v>0.07787174908026094</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0722522969324477</v>
+        <v>0.09944919907160335</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05632708299980913</v>
+        <v>0.06818750626127432</v>
       </c>
       <c r="T8" t="n">
-        <v>0.007449548345391985</v>
+        <v>0.02703962502786544</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07644271940798102</v>
+        <v>0.03401045567307726</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01547469544747834</v>
+        <v>0.0004960085526539088</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04962640476362739</v>
+        <v>0.05062829171332798</v>
       </c>
       <c r="X8" t="n">
-        <v>0.07898010306787241</v>
+        <v>0.08311129636838929</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.07409669709165158</v>
+        <v>0.02030225280122547</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.05229855519000085</v>
+        <v>0.03058346940602117</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01319819763032388</v>
+        <v>0.05955308608002806</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.05502154510832664</v>
+        <v>0.09248996307269512</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.3171790054228874</v>
+        <v>-0.3170313006696792</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1793064386141659</v>
+        <v>0.1650102386883059</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05917871094771116</v>
+        <v>0.08746023112222111</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01967803678084932</v>
+        <v>0.01022023478874324</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07502552959043786</v>
+        <v>0.01109772704642498</v>
       </c>
       <c r="I9" t="n">
-        <v>0.077025433788041</v>
+        <v>0.0950660072266707</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01402513253669739</v>
+        <v>0.01963907895661414</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0320494770216697</v>
+        <v>0.01096901266202859</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04041406697705231</v>
+        <v>0.01112712860304838</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0162382415613019</v>
+        <v>0.004016423948119521</v>
       </c>
       <c r="N9" t="n">
-        <v>0.006728647850940666</v>
+        <v>0.014277161155034</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002174256633397475</v>
+        <v>0.008206130567668776</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02675021827987871</v>
+        <v>0.08419796081500402</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.08473418478667281</v>
+        <v>0.07787174908026094</v>
       </c>
       <c r="R9" t="n">
-        <v>0.06794761146747377</v>
+        <v>0.09944919907160335</v>
       </c>
       <c r="S9" t="n">
-        <v>0.05295936756189525</v>
+        <v>0.06818750626127432</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02376925989587464</v>
+        <v>0.02703962502786544</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06630060541423338</v>
+        <v>0.03401045567307726</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01712806756929566</v>
+        <v>0.0004960085526539088</v>
       </c>
       <c r="W9" t="n">
-        <v>0.07185893769084242</v>
+        <v>0.05062829171332798</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01587478223352349</v>
+        <v>0.08311129636838929</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.07155703050641496</v>
+        <v>0.02030225280122547</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01171297769687616</v>
+        <v>0.03058346940602117</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.05802629548788286</v>
+        <v>0.05955308608002806</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.08884312772103688</v>
+        <v>0.09248996307269512</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.3908625842326581</v>
+        <v>-0.3170313006696792</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2489579442289432</v>
+        <v>0.2513291667980746</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01531647271944598</v>
+        <v>0.03085991872000466</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001459604030529979</v>
+        <v>0.0364402061236915</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05140141924718875</v>
+        <v>0.02426415839304132</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05515358913311398</v>
+        <v>0.05322716083601187</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03534174853546957</v>
+        <v>0.06861447152185396</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08000594722120061</v>
+        <v>0.02682235776465684</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03238971732579592</v>
+        <v>0.0129218890015046</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001633999402352322</v>
+        <v>0.011013319391176</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01019998917762215</v>
+        <v>0.005805809572319221</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03095096782422966</v>
+        <v>0.0860656482570549</v>
       </c>
       <c r="P10" t="n">
-        <v>0.10331857374985</v>
+        <v>0.03880989260836737</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01149017639238217</v>
+        <v>0.01882497109755125</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08926849282093828</v>
+        <v>0.08745680246034691</v>
       </c>
       <c r="S10" t="n">
-        <v>0.06241683980182489</v>
+        <v>0.07029321516692792</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05405035803410736</v>
+        <v>0.02089979803410919</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08584699960574024</v>
+        <v>0.08790575823643158</v>
       </c>
       <c r="V10" t="n">
-        <v>0.007181374877575895</v>
+        <v>0.001212680639798851</v>
       </c>
       <c r="W10" t="n">
-        <v>0.05786527527991273</v>
+        <v>0.01436278132572027</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04921726016278171</v>
+        <v>0.03658369881227259</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.06316234278753684</v>
+        <v>0.09508021220229065</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0664397705665343</v>
+        <v>0.09577603143432867</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.004324563112550248</v>
+        <v>0.002253718299558514</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.03156451819131631</v>
+        <v>0.07450550010098128</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.0642383054949016</v>
+        <v>-0.03871236763991465</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.4905460463653362</v>
+        <v>0.3958317702046043</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03712696900937497</v>
+        <v>0.0478778925432527</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01648410360108979</v>
+        <v>0.02683546684425776</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002284362586180193</v>
+        <v>0.09221453687559759</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03204455775871529</v>
+        <v>0.0909798915985696</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07804633137874901</v>
+        <v>0.04382748984639272</v>
       </c>
       <c r="K11" t="n">
-        <v>0.008217231662348003</v>
+        <v>0.0005222873716088756</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01717857029302101</v>
+        <v>0.07999530684101709</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0077517230828784</v>
+        <v>0.02479243563993344</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1199577620360243</v>
+        <v>0.05706136652815423</v>
       </c>
       <c r="O11" t="n">
-        <v>0.009581116331718658</v>
+        <v>0.01347415163302032</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02205063469906328</v>
+        <v>0.04269765820732862</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01469664294730671</v>
+        <v>0.001855151486413486</v>
       </c>
       <c r="R11" t="n">
-        <v>0.005525615123349278</v>
+        <v>0.08965610921042555</v>
       </c>
       <c r="S11" t="n">
-        <v>0.005842409070546528</v>
+        <v>0.04592714642179407</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02730826795155034</v>
+        <v>0.007038543719719942</v>
       </c>
       <c r="U11" t="n">
-        <v>0.004241213957818657</v>
+        <v>0.08095035148172236</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1417062282722086</v>
+        <v>0.1048624788560604</v>
       </c>
       <c r="W11" t="n">
-        <v>0.08715515940678296</v>
+        <v>0.0692526402809764</v>
       </c>
       <c r="X11" t="n">
-        <v>0.08559792560388883</v>
+        <v>0.03132103113377313</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1334404952495925</v>
+        <v>0.007304541006627321</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0285650382914678</v>
+        <v>0.03337184921554506</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.09368156217106717</v>
+        <v>0.005057865653994895</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.02151607951525776</v>
+        <v>0.003123807603814292</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1539956642537198</v>
+        <v>0.1024499995755935</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2591606179514129</v>
+        <v>0.2663720344155708</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08752568554549253</v>
+        <v>0.1013209855302458</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00844935963098385</v>
+        <v>0.005696212425205681</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06118003014941885</v>
+        <v>0.007189435899630751</v>
       </c>
       <c r="I12" t="n">
-        <v>0.12792702942372</v>
+        <v>0.03118283816767037</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01470641542036346</v>
+        <v>0.02193702601568159</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01913403811586212</v>
+        <v>0.02064351543112431</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01374123153904243</v>
+        <v>0.05763851340679063</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05815496250285338</v>
+        <v>0.01763956977184467</v>
       </c>
       <c r="N12" t="n">
-        <v>0.007893667895260373</v>
+        <v>0.03584138730458827</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01427000857463849</v>
+        <v>0.005631981842805531</v>
       </c>
       <c r="P12" t="n">
-        <v>0.08244108161457635</v>
+        <v>0.09103143504228015</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.06745483957697952</v>
+        <v>0.04543629892751937</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1270328271772487</v>
+        <v>0.09167899040453077</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07859106729515358</v>
+        <v>0.08089949765432293</v>
       </c>
       <c r="T12" t="n">
-        <v>0.001121980635062829</v>
+        <v>0.001935027700010154</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02772101640904347</v>
+        <v>0.0708678471291514</v>
       </c>
       <c r="V12" t="n">
-        <v>0.02116055498032489</v>
+        <v>0.01932273848078142</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1104941910443753</v>
+        <v>0.03718625017470429</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01980767372992714</v>
+        <v>0.1070636859917715</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.005981364552135719</v>
+        <v>0.04286111628888822</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.02249558844192877</v>
+        <v>0.02078088218303622</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.003625035597626431</v>
+        <v>0.007747065501240754</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01909035014798184</v>
+        <v>0.07846769872617514</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2112878166540634</v>
+        <v>0.2294762811821734</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3253703219072179</v>
+        <v>0.3480181499624119</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01131420162760213</v>
+        <v>0.02804501402570166</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04342173421375957</v>
+        <v>0.03493337336075319</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09054187537250329</v>
+        <v>0.06167262418681921</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1013524040966528</v>
+        <v>0.03317752306588131</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04275758832257309</v>
+        <v>0.0633208981509614</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02762345116345401</v>
+        <v>0.01515351077673022</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02038368547314409</v>
+        <v>0.08542415603287853</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01661532019167892</v>
+        <v>0.02828649824869331</v>
       </c>
       <c r="N13" t="n">
-        <v>0.07827210088877962</v>
+        <v>0.09394535588283966</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02598938615645437</v>
+        <v>0.004132226698451777</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01992475350655862</v>
+        <v>0.06374561412865784</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.007415423155475873</v>
+        <v>0.00684913424415375</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05422404250143301</v>
+        <v>0.02349372360361451</v>
       </c>
       <c r="S13" t="n">
-        <v>0.02782926826860715</v>
+        <v>0.00360420497111902</v>
       </c>
       <c r="T13" t="n">
-        <v>0.00110375908053283</v>
+        <v>0.01763492214877633</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08997366132237329</v>
+        <v>0.01108268094624217</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0927242493883601</v>
+        <v>0.1068233554010513</v>
       </c>
       <c r="W13" t="n">
-        <v>0.009749293965682514</v>
+        <v>0.03833070606275066</v>
       </c>
       <c r="X13" t="n">
-        <v>0.02521712686916252</v>
+        <v>0.06729250429327249</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.03191608677970688</v>
+        <v>0.005788116682232984</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1144165437106215</v>
+        <v>0.1086114784491649</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0266154597365801</v>
+        <v>0.002444623100943866</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.04061858420830384</v>
+        <v>0.09620775553831011</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2854466618239246</v>
+        <v>0.2495538211982775</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2662774755970312</v>
+        <v>0.2658248691338698</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03632029838905113</v>
+        <v>0.04913833063595488</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007392396387080593</v>
+        <v>0.03430998468230226</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04126914827988468</v>
+        <v>0.06634637738135095</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08290597190731507</v>
+        <v>0.07395937617108411</v>
       </c>
       <c r="J14" t="n">
-        <v>0.005228001862894063</v>
+        <v>0.01568167290985043</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03922593530951677</v>
+        <v>0.02093942079050858</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03649605794065199</v>
+        <v>0.006944864426774786</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04568595506734733</v>
+        <v>0.06521199111747132</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0113191225695116</v>
+        <v>0.02080184236775182</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01350081276395327</v>
+        <v>0.02352566913322441</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01711790826501561</v>
+        <v>0.01385861213044383</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09231862623829723</v>
+        <v>0.0272022297960319</v>
       </c>
       <c r="R14" t="n">
-        <v>0.04438752218889768</v>
+        <v>0.07486556138108913</v>
       </c>
       <c r="S14" t="n">
-        <v>0.08093357290803992</v>
+        <v>0.06795908768643293</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02835128366298352</v>
+        <v>0.02761144119314559</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05307144464193047</v>
+        <v>0.06045746608610107</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0008602159391844763</v>
+        <v>0.0009633636618076731</v>
       </c>
       <c r="W14" t="n">
-        <v>0.08962986070024037</v>
+        <v>0.08430457380600692</v>
       </c>
       <c r="X14" t="n">
-        <v>0.07979097832556561</v>
+        <v>0.03175081661985123</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.06872365785648737</v>
+        <v>0.05670318476775844</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0776805211152467</v>
+        <v>0.08271128932043262</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.006014239735266763</v>
+        <v>0.02048082365774263</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.04177646794563762</v>
+        <v>0.07427202027688237</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.05235083516712086</v>
+        <v>-0.03017017207258434</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3351387660728398</v>
+        <v>0.3269423546293942</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02498277230919419</v>
+        <v>0.05896840974364939</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006143637411467701</v>
+        <v>0.03080115195990375</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01636703859080415</v>
+        <v>0.02828278307141069</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05293969546727095</v>
+        <v>0.0007838169945322179</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0771424351856957</v>
+        <v>0.01973396489243293</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01759072561565342</v>
+        <v>0.09859195599788433</v>
       </c>
       <c r="L15" t="n">
-        <v>0.068944502524641</v>
+        <v>0.01346687551083169</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00347318568900294</v>
+        <v>0.03096609480364079</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03225810103693741</v>
+        <v>0.07682530520253146</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01736149442102143</v>
+        <v>0.08483632296941028</v>
       </c>
       <c r="P15" t="n">
-        <v>0.02715721152767503</v>
+        <v>0.01849403646664757</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.04461577489507662</v>
+        <v>0.005007799199527728</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01844977021290715</v>
+        <v>0.1181680539583749</v>
       </c>
       <c r="S15" t="n">
-        <v>0.05566312985728607</v>
+        <v>0.04841211198206948</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1000699385324299</v>
+        <v>0.02740315948414165</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04940686941776905</v>
+        <v>0.04829535648990394</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1108807322220301</v>
+        <v>0.1204740905475097</v>
       </c>
       <c r="W15" t="n">
-        <v>0.008479409231795593</v>
+        <v>0.006128012583326649</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01291097936462575</v>
+        <v>0.04349570739509954</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.007674460051684652</v>
+        <v>0.006516789077232982</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.08371326419509126</v>
+        <v>0.04777054581551608</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.1143868778497713</v>
+        <v>0.01608387174267327</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.04938799439016853</v>
+        <v>0.0504937841117492</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01191570676216974</v>
+        <v>0.02778604058698072</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2773615519312796</v>
+        <v>0.277706456140528</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04208107142283733</v>
+        <v>0.02366876926708508</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02248492940668007</v>
+        <v>0.1039297288803616</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00189949835816879</v>
+        <v>0.03809616720154394</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06881482734952069</v>
+        <v>0.1073518584161702</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01768048518509891</v>
+        <v>0.01637926980751512</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02131374320697779</v>
+        <v>0.03788728555532029</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04995890909159682</v>
+        <v>0.000844129661437433</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05401726378996804</v>
+        <v>0.05007507687397162</v>
       </c>
       <c r="N16" t="n">
-        <v>0.006375515848150995</v>
+        <v>0.001596315577379639</v>
       </c>
       <c r="O16" t="n">
-        <v>0.07815538060808234</v>
+        <v>0.02550453706332287</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06542348973287168</v>
+        <v>0.03036921632498026</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.04341005516044195</v>
+        <v>0.004309225787565287</v>
       </c>
       <c r="R16" t="n">
-        <v>0.06270995817132503</v>
+        <v>0.0980079090476046</v>
       </c>
       <c r="S16" t="n">
-        <v>0.06578687827116225</v>
+        <v>0.03874800815436698</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01739391184050406</v>
+        <v>0.009852421530513761</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03810520969242344</v>
+        <v>0.02395960972178567</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01239555005046038</v>
+        <v>0.01698862006481493</v>
       </c>
       <c r="W16" t="n">
-        <v>0.08114753385012519</v>
+        <v>0.1014115115470619</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01906162954967065</v>
+        <v>0.03780963035798949</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.06324868961721127</v>
+        <v>0.06126192550184514</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.07620075834805615</v>
+        <v>0.08827475250971997</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01553528773357445</v>
+        <v>0.02462713086015191</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.07679942371509177</v>
+        <v>0.05904690028749229</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1354932115094685</v>
+        <v>0.1355966335908791</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3642599011358691</v>
+        <v>0.3199056365437734</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09115604633241266</v>
+        <v>0.09673762576431238</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01095071883968422</v>
+        <v>0.009462505877558499</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1085278998492474</v>
+        <v>0.0009678779424203821</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005965039111165697</v>
+        <v>0.02181016134366912</v>
       </c>
       <c r="J17" t="n">
-        <v>0.10042002841396</v>
+        <v>0.03069925411041944</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06484603127548394</v>
+        <v>0.01647679878989056</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01225342315665899</v>
+        <v>0.01598841552606413</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002887958006052649</v>
+        <v>0.002851011746202615</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01461538442310253</v>
+        <v>0.02130866257004149</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04289886245099646</v>
+        <v>0.004148426004774288</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01326453516208136</v>
+        <v>0.07405541401990143</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.08059127235830457</v>
+        <v>0.02583702342055996</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01976492677996593</v>
+        <v>0.0673011954840113</v>
       </c>
       <c r="S17" t="n">
-        <v>0.09748255684349572</v>
+        <v>0.04781604674745811</v>
       </c>
       <c r="T17" t="n">
-        <v>0.03616910958532389</v>
+        <v>0.03995222420378659</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03877693954042653</v>
+        <v>0.1233357216939406</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1152769710451193</v>
+        <v>0.1184210060945455</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01422656463634538</v>
+        <v>0.001065033022740486</v>
       </c>
       <c r="X17" t="n">
-        <v>0.005979785744602376</v>
+        <v>0.1158649389633943</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.002665821440785189</v>
+        <v>0.03050240915946987</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1102792885329523</v>
+        <v>0.005786578477528713</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.001121882406296701</v>
+        <v>0.008601783241305944</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.009878954065536174</v>
+        <v>0.1210098857960042</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2170624804638703</v>
+        <v>0.2117962621619358</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1768477969035123</v>
+        <v>0.1751081896779382</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04821872988409513</v>
+        <v>0.03100408833021757</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0551005712676407</v>
+        <v>0.01057558901252189</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06190125196952433</v>
+        <v>0.02329329566558371</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0599916035582945</v>
+        <v>0.0851020013186525</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01681725287821519</v>
+        <v>0.01337442849675039</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0168120376272979</v>
+        <v>0.0002610257037588725</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003907166191931526</v>
+        <v>0.05999543843927151</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02785101929241775</v>
+        <v>0.002246935280290594</v>
       </c>
       <c r="N18" t="n">
-        <v>0.02706737642471507</v>
+        <v>0.05244371778741339</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04005970378173428</v>
+        <v>0.04178058524329241</v>
       </c>
       <c r="P18" t="n">
-        <v>0.08517033478227556</v>
+        <v>0.06116430487280466</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.005264506460826604</v>
+        <v>0.04221667666368042</v>
       </c>
       <c r="R18" t="n">
-        <v>0.09191704583778006</v>
+        <v>0.08017271084239778</v>
       </c>
       <c r="S18" t="n">
-        <v>0.08254334776702089</v>
+        <v>0.08612772646020943</v>
       </c>
       <c r="T18" t="n">
-        <v>0.01255458589566332</v>
+        <v>0.04164113935157003</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02155536581356154</v>
+        <v>0.07204236571202824</v>
       </c>
       <c r="V18" t="n">
-        <v>0.01411987851937791</v>
+        <v>0.0115783011617335</v>
       </c>
       <c r="W18" t="n">
-        <v>0.07541889015242276</v>
+        <v>0.07763583688778428</v>
       </c>
       <c r="X18" t="n">
-        <v>0.08895874932310963</v>
+        <v>0.04268872743988091</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.07929380748245257</v>
+        <v>0.06859491029385756</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.03882413273802891</v>
+        <v>0.07850505406335057</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.02359214881489811</v>
+        <v>0.0007117527097128233</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.02306049353671609</v>
+        <v>0.01684338826323686</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.05848574625803327</v>
+        <v>0.04696762116437764</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.2116221346621193</v>
+        <v>0.2255276318642324</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09674971339206215</v>
+        <v>0.04104063511142043</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007426638508757685</v>
+        <v>0.1125324446811835</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07878318407815522</v>
+        <v>0.07824278270493408</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01120368683162654</v>
+        <v>0.002500078599409327</v>
       </c>
       <c r="J19" t="n">
-        <v>0.08247898563960901</v>
+        <v>0.07771953432904513</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02923038143670316</v>
+        <v>0.007518782833767785</v>
       </c>
       <c r="L19" t="n">
-        <v>0.028813879171973</v>
+        <v>0.001643097062236558</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0047526511145932</v>
+        <v>0.03744107962169596</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0103268942154445</v>
+        <v>0.0003132495978329172</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0119706159785229</v>
+        <v>0.02839877630553988</v>
       </c>
       <c r="P19" t="n">
-        <v>0.07827536312852876</v>
+        <v>0.0006021407963043152</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03912579065253338</v>
+        <v>0.00300388508584991</v>
       </c>
       <c r="R19" t="n">
-        <v>0.03610087740396883</v>
+        <v>0.05871070041592297</v>
       </c>
       <c r="S19" t="n">
-        <v>0.05775544878690083</v>
+        <v>0.1408413628267514</v>
       </c>
       <c r="T19" t="n">
-        <v>0.00609855965068481</v>
+        <v>0.008140583427442156</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08535218913328717</v>
+        <v>0.0620885259001118</v>
       </c>
       <c r="V19" t="n">
-        <v>0.08929926485041792</v>
+        <v>0.1360233489852199</v>
       </c>
       <c r="W19" t="n">
-        <v>0.08230714314202342</v>
+        <v>0.03904446853340983</v>
       </c>
       <c r="X19" t="n">
-        <v>0.01028243401903197</v>
+        <v>0.03600452555379993</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01396582710696538</v>
+        <v>0.004529070394034177</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.04201719114564093</v>
+        <v>0.03951663049733201</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.06596817902443736</v>
+        <v>0.04131728852442729</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.03171510158813208</v>
+        <v>0.04282700821232847</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.08440542966628488</v>
+        <v>0.09050917415670517</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1438670847909618</v>
+        <v>0.1461576388535602</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07839953333649922</v>
+        <v>0.03725835013364235</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03813322721847896</v>
+        <v>0.0433877033966269</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01710136788459051</v>
+        <v>0.05341247610208621</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06671467840806335</v>
+        <v>0.03325639663759211</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004005806811720885</v>
+        <v>0.007831155143577857</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001577412662966991</v>
+        <v>0.004799707260444501</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01797800937513568</v>
+        <v>0.02364212717186987</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06716813820226246</v>
+        <v>0.01645033987849219</v>
       </c>
       <c r="N20" t="n">
-        <v>0.03082242491403106</v>
+        <v>0.02608332458354709</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01741027163819576</v>
+        <v>0.05346083164170305</v>
       </c>
       <c r="P20" t="n">
-        <v>0.080324950693711</v>
+        <v>0.03616475572020272</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.04142534899592482</v>
+        <v>0.02427523006384238</v>
       </c>
       <c r="R20" t="n">
-        <v>0.08867097372400905</v>
+        <v>0.1021633166088968</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0681752263994204</v>
+        <v>0.08762353649817813</v>
       </c>
       <c r="T20" t="n">
-        <v>0.005781371664680813</v>
+        <v>0.01790790918450125</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09039062932663712</v>
+        <v>0.04150745145965045</v>
       </c>
       <c r="V20" t="n">
-        <v>0.002036289785146421</v>
+        <v>0.04301498427851436</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07010474809537687</v>
+        <v>0.07349435727957102</v>
       </c>
       <c r="X20" t="n">
-        <v>0.05523387340331822</v>
+        <v>0.1018168071582698</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.05646333090349642</v>
+        <v>0.06622728459340441</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.02424998027280233</v>
+        <v>0.09088789356799531</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.008330529022198148</v>
+        <v>0.009138168543337061</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.06950187726133347</v>
+        <v>0.006195893094054292</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.1375251046685008</v>
+        <v>-0.1347105740814278</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1916292919266478</v>
+        <v>0.1824331585755122</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01127529759431048</v>
+        <v>0.1179559265959038</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04955998852585479</v>
+        <v>0.02812991317001163</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06973502305092356</v>
+        <v>0.006078512403904029</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0149038256148027</v>
+        <v>0.03617855107651518</v>
       </c>
       <c r="J21" t="n">
-        <v>0.07550511233877184</v>
+        <v>0.07371157595681005</v>
       </c>
       <c r="K21" t="n">
-        <v>0.06229099751818624</v>
+        <v>0.07628805147261788</v>
       </c>
       <c r="L21" t="n">
-        <v>0.03188227793460099</v>
+        <v>0.1182116098841005</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03828806119239592</v>
+        <v>0.01036986278017228</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0447393232290768</v>
+        <v>0.002309331903413777</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01847234761458228</v>
+        <v>0.01411815539728167</v>
       </c>
       <c r="P21" t="n">
-        <v>0.05223604996991166</v>
+        <v>0.02060030770617089</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.005583089455178936</v>
+        <v>0.005134974811530899</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1076959121969241</v>
+        <v>0.07985084244324697</v>
       </c>
       <c r="S21" t="n">
-        <v>0.09166978628001481</v>
+        <v>0.04610164701640991</v>
       </c>
       <c r="T21" t="n">
-        <v>0.008863956217106785</v>
+        <v>0.0008636659586538086</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03286746424186516</v>
+        <v>0.0007793640658761784</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1201475510095684</v>
+        <v>0.04652471694820887</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01282162227408102</v>
+        <v>0.0576775755412897</v>
       </c>
       <c r="X21" t="n">
-        <v>0.002177458487390534</v>
+        <v>0.01693997444720647</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01859152230131202</v>
+        <v>0.01723833227327968</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.02495183524908179</v>
+        <v>0.1102379382620693</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.03264158037371509</v>
+        <v>0.02920216950037571</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.07309991733034402</v>
+        <v>0.08549700038495089</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.1989456082763125</v>
+        <v>-0.1814274514808068</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1863623106699698</v>
+        <v>0.1819780830072208</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09461643988519447</v>
+        <v>0.1050950697293083</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06420098573632003</v>
+        <v>0.01155088341921145</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02954250796511948</v>
+        <v>0.02392948723915081</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1116551974193911</v>
+        <v>0.004724546239743453</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00656020836304893</v>
+        <v>0.0005815233275303562</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0588012979311922</v>
+        <v>0.03702532120266067</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00832903693164418</v>
+        <v>0.008232777515624023</v>
       </c>
       <c r="M22" t="n">
-        <v>0.06725302623095088</v>
+        <v>0.007351088743196806</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01024646149526598</v>
+        <v>0.005558608640454007</v>
       </c>
       <c r="O22" t="n">
-        <v>0.06226781390128926</v>
+        <v>0.06729767581797313</v>
       </c>
       <c r="P22" t="n">
-        <v>0.02716773843671571</v>
+        <v>0.1060381943658419</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.00618453846807886</v>
+        <v>0.04915587176506359</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1176211763789632</v>
+        <v>0.08401786871171997</v>
       </c>
       <c r="S22" t="n">
-        <v>0.05519090318956382</v>
+        <v>0.01211386823830618</v>
       </c>
       <c r="T22" t="n">
-        <v>0.001161857118291758</v>
+        <v>0.02779213113205245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07732567173942889</v>
+        <v>0.07891149847626698</v>
       </c>
       <c r="V22" t="n">
-        <v>0.008239730642119908</v>
+        <v>0.003879627156491022</v>
       </c>
       <c r="W22" t="n">
-        <v>0.03920355913781211</v>
+        <v>0.101042613829175</v>
       </c>
       <c r="X22" t="n">
-        <v>0.01066998855777818</v>
+        <v>0.06673184371755135</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05075405462816315</v>
+        <v>0.03102985631238252</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.05387367150655662</v>
+        <v>0.08551369449387941</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.03445682560973597</v>
+        <v>0.07505851579333608</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.004677308727375113</v>
+        <v>0.007367434133080573</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.07371939896445261</v>
+        <v>0.05261901734284584</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.1923372039774199</v>
+        <v>0.2080625529540479</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02915068821048418</v>
+        <v>0.1178601361505055</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01466084110618437</v>
+        <v>0.001057507413059189</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09699470142307241</v>
+        <v>0.05229366926375328</v>
       </c>
       <c r="I23" t="n">
-        <v>0.07172546576087134</v>
+        <v>0.01243134499791892</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06269214820887649</v>
+        <v>0.006122991711017513</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02621183164644404</v>
+        <v>0.06834168942988714</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001495179939502409</v>
+        <v>0.01501157091426647</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0008154283285022741</v>
+        <v>0.00870770344241141</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01823090982635588</v>
+        <v>0.007585777544869782</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1053601855096663</v>
+        <v>0.04606895021643514</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03062821670244921</v>
+        <v>0.01467539664840851</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.001880250302828177</v>
+        <v>0.001382034284902274</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1090799732712053</v>
+        <v>0.005195467831497745</v>
       </c>
       <c r="S23" t="n">
-        <v>0.060340031286047</v>
+        <v>0.0668083402480833</v>
       </c>
       <c r="T23" t="n">
-        <v>0.005063148290647784</v>
+        <v>0.06017985096857307</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03100711294014859</v>
+        <v>0.09730991081938085</v>
       </c>
       <c r="V23" t="n">
-        <v>0.02762528074925545</v>
+        <v>0.09810278241791755</v>
       </c>
       <c r="W23" t="n">
-        <v>0.1195199910444066</v>
+        <v>0.0787613964841435</v>
       </c>
       <c r="X23" t="n">
-        <v>0.009149864432807566</v>
+        <v>0.02647853240628899</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02600523485353612</v>
+        <v>0.02578315947248818</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.05901599405273568</v>
+        <v>0.1158349428004051</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.003650456673615507</v>
+        <v>0.01670392338390947</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.08969706544035734</v>
+        <v>0.05730292114987696</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.06057677284927157</v>
+        <v>0.06932501484196557</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1785280048971969</v>
+        <v>0.1828947346278395</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05598457949689931</v>
+        <v>0.07707835133427078</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01276165246576902</v>
+        <v>0.0006406785200034895</v>
       </c>
       <c r="H24" t="n">
-        <v>0.05505250156779697</v>
+        <v>0.05802990564180875</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01416708492508007</v>
+        <v>0.04824658690651393</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01029427438825517</v>
+        <v>0.00701005667033594</v>
       </c>
       <c r="K24" t="n">
-        <v>0.009249263988325677</v>
+        <v>0.002787670616319662</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01228207120691562</v>
+        <v>0.01666617985487887</v>
       </c>
       <c r="M24" t="n">
-        <v>0.06553465509144964</v>
+        <v>0.06312383144819347</v>
       </c>
       <c r="N24" t="n">
-        <v>0.02153161095960995</v>
+        <v>0.01714742262996899</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0456233784300694</v>
+        <v>0.08038200799249202</v>
       </c>
       <c r="P24" t="n">
-        <v>0.06180422343255247</v>
+        <v>0.06388578468642227</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01839792845309628</v>
+        <v>0.05364384928518523</v>
       </c>
       <c r="R24" t="n">
-        <v>0.04863586301628534</v>
+        <v>0.06129994359542527</v>
       </c>
       <c r="S24" t="n">
-        <v>0.09598145510453136</v>
+        <v>0.06439122856514294</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01608852641743433</v>
+        <v>0.01230252387357806</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06235342881604795</v>
+        <v>0.03612353872762496</v>
       </c>
       <c r="V24" t="n">
-        <v>0.03297195479474719</v>
+        <v>0.03459653059362968</v>
       </c>
       <c r="W24" t="n">
-        <v>0.1037864655665371</v>
+        <v>0.07831755019241143</v>
       </c>
       <c r="X24" t="n">
-        <v>0.06419958337611702</v>
+        <v>0.06766176645086597</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.03430542568142213</v>
+        <v>0.02612867503517535</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.09360802487886553</v>
+        <v>0.07224586798705725</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.0599751626020498</v>
+        <v>0.04442023032075251</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.005410885340142637</v>
+        <v>0.01386981907194331</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1357448601189251</v>
+        <v>0.1226723250289478</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1976765671223779</v>
+        <v>0.1941739011472666</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0542023001202921</v>
+        <v>0.1013640399876424</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03470279662456423</v>
+        <v>0.03139422487497322</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01852837361018806</v>
+        <v>0.04541241187736338</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02568244510265335</v>
+        <v>0.03864079175485962</v>
       </c>
       <c r="J25" t="n">
-        <v>0.07037598390587295</v>
+        <v>0.02756978837267822</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04708709087125052</v>
+        <v>0.08024080940443301</v>
       </c>
       <c r="L25" t="n">
-        <v>0.006262841402194386</v>
+        <v>0.03621125554323722</v>
       </c>
       <c r="M25" t="n">
-        <v>0.05301438541747146</v>
+        <v>0.03036933336045901</v>
       </c>
       <c r="N25" t="n">
-        <v>1.241451514122215e-05</v>
+        <v>0.0008042112578141403</v>
       </c>
       <c r="O25" t="n">
-        <v>0.07173774689989315</v>
+        <v>0.0375251957995887</v>
       </c>
       <c r="P25" t="n">
-        <v>0.04611225468691207</v>
+        <v>0.0781901141339056</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.005389020565732865</v>
+        <v>0.02170202907672878</v>
       </c>
       <c r="R25" t="n">
-        <v>0.02781957424601043</v>
+        <v>0.04382549707917695</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08573002870911353</v>
+        <v>0.1004920707022596</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02617319625901283</v>
+        <v>0.01420385655393414</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08561561738258648</v>
+        <v>0.09243171096864984</v>
       </c>
       <c r="V25" t="n">
-        <v>0.04379986601571088</v>
+        <v>0.01940277130525327</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1075930149261942</v>
+        <v>0.07070932751128552</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01721890581610936</v>
+        <v>0.07096080034684001</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.008582403383553009</v>
+        <v>0.002244918434390457</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.05505663846654601</v>
+        <v>0.008207483682783323</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01897942336674435</v>
+        <v>0.004363667284750837</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.09032367770625251</v>
+        <v>0.04373369068699264</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1723176973454368</v>
+        <v>0.1493077044021539</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1858043296416285</v>
+        <v>0.1918214674302343</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0004483911338472072</v>
+        <v>0.03059985970969207</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04513475126363083</v>
+        <v>0.0005371603398685274</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07137183654151626</v>
+        <v>0.009690889742788795</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04491126583828055</v>
+        <v>0.01122107546240016</v>
       </c>
       <c r="J26" t="n">
-        <v>0.003672325725015842</v>
+        <v>0.01341750982743994</v>
       </c>
       <c r="K26" t="n">
-        <v>0.02473003818553224</v>
+        <v>0.0353702186895467</v>
       </c>
       <c r="L26" t="n">
-        <v>0.006944906017948138</v>
+        <v>0.04043889156229015</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07269128325056302</v>
+        <v>0.06397913128841842</v>
       </c>
       <c r="N26" t="n">
-        <v>0.007905333142547922</v>
+        <v>0.07509478522142589</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01501139533258987</v>
+        <v>0.04597424342792251</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1087577990598287</v>
+        <v>0.03549298051720541</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.02172162740638478</v>
+        <v>0.01753293281061594</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1095060432493268</v>
+        <v>0.1061450992139303</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1134328420624857</v>
+        <v>0.08388133385867443</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01981602033918248</v>
+        <v>0.0003150584559706832</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09446902307207912</v>
+        <v>0.08351517040442787</v>
       </c>
       <c r="V26" t="n">
-        <v>0.03572165243108305</v>
+        <v>0.01543889558295573</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01689995308118123</v>
+        <v>0.04640863334868093</v>
       </c>
       <c r="X26" t="n">
-        <v>0.05660783401923587</v>
+        <v>0.02641785502701554</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.01407589094830051</v>
+        <v>0.06918925648925826</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.0620259420222703</v>
+        <v>0.09695099911076333</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.02904363950762329</v>
+        <v>0.06446931013286353</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.02510020636954645</v>
+        <v>0.02791870977584495</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.03215492251122477</v>
+        <v>0.01306939669855223</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2108429419387772</v>
+        <v>0.2181442187929341</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06670468474691357</v>
+        <v>0.0853503606579397</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0577217633293553</v>
+        <v>0.06375168492604856</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01940856799551594</v>
+        <v>0.02343197776187856</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04142399524552742</v>
+        <v>0.0249531739831391</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1048288170264008</v>
+        <v>0.0121429090968646</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05310561472627796</v>
+        <v>0.08052677164101285</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02510707137323237</v>
+        <v>0.01675749937773063</v>
       </c>
       <c r="M27" t="n">
-        <v>0.009710302452805202</v>
+        <v>0.01856302736429499</v>
       </c>
       <c r="N27" t="n">
-        <v>0.001673503669631917</v>
+        <v>0.01257571515071033</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0392911679227548</v>
+        <v>0.06975900931307337</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02598986342009601</v>
+        <v>0.03018191148644908</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.007620334424554222</v>
+        <v>0.006657950775583914</v>
       </c>
       <c r="R27" t="n">
-        <v>0.07441274190601496</v>
+        <v>0.0178283802752062</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02569708517873676</v>
+        <v>0.0161444784124034</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02466438272439163</v>
+        <v>0.04208714329188205</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0919402662204104</v>
+        <v>0.08282253056343271</v>
       </c>
       <c r="V27" t="n">
-        <v>0.00457762559496798</v>
+        <v>0.005424382560203076</v>
       </c>
       <c r="W27" t="n">
-        <v>0.08590257825449983</v>
+        <v>0.06838941820089194</v>
       </c>
       <c r="X27" t="n">
-        <v>0.05527118664826604</v>
+        <v>0.04809735161833253</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.004589397778906126</v>
+        <v>0.03375331778969467</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.1044374934918884</v>
+        <v>0.07857916004522308</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.007070405125013098</v>
+        <v>0.08395771083511411</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.06885115074383902</v>
+        <v>0.07826413487289051</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.03590416970653101</v>
+        <v>0.03943618632810681</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1918372416855048</v>
+        <v>0.1884578944397022</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05793941910751513</v>
+        <v>0.09089126133864903</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03119929531678773</v>
+        <v>0.01114521335516311</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03645752827076711</v>
+        <v>0.07652347123051861</v>
       </c>
       <c r="I28" t="n">
-        <v>0.001524705504573314</v>
+        <v>0.03554280238281977</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01694438415854559</v>
+        <v>0.04761917023613911</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04505149127417397</v>
+        <v>0.0178852464712556</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05709900757670804</v>
+        <v>0.001399589901084819</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04022938490281257</v>
+        <v>0.07212364894731556</v>
       </c>
       <c r="N28" t="n">
-        <v>0.005866475169485971</v>
+        <v>0.01270394588245006</v>
       </c>
       <c r="O28" t="n">
-        <v>0.07038045650968311</v>
+        <v>0.06287401542447311</v>
       </c>
       <c r="P28" t="n">
-        <v>0.0891422856357912</v>
+        <v>0.08197304009913842</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.06680190517614508</v>
+        <v>0.02284418108638568</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06489075578045109</v>
+        <v>0.06511725069050073</v>
       </c>
       <c r="S28" t="n">
-        <v>0.08750007875371461</v>
+        <v>0.06704644326146192</v>
       </c>
       <c r="T28" t="n">
-        <v>0.03194165818399487</v>
+        <v>0.01502066925528255</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09286087662887982</v>
+        <v>0.03551827591488525</v>
       </c>
       <c r="V28" t="n">
-        <v>0.002462269466802414</v>
+        <v>0.001059388939467766</v>
       </c>
       <c r="W28" t="n">
-        <v>0.05414484383652238</v>
+        <v>0.08182757704328888</v>
       </c>
       <c r="X28" t="n">
-        <v>0.05768613526607176</v>
+        <v>0.01684561812923838</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.002599415323453137</v>
+        <v>0.04131599174080228</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.04315686709154408</v>
+        <v>0.04835665949482356</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.03485244114573221</v>
+        <v>0.08155440450990546</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.00926831991984492</v>
+        <v>0.01281213466495036</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1746260698393683</v>
+        <v>0.1664323537527924</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2279191418083777</v>
+        <v>0.2161545292013436</v>
       </c>
       <c r="F29" t="n">
-        <v>0.004967538610957712</v>
+        <v>0.06244220529184848</v>
       </c>
       <c r="G29" t="n">
-        <v>0.005360179573518187</v>
+        <v>0.06797323390673872</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0314091610226845</v>
+        <v>0.01680578950994877</v>
       </c>
       <c r="I29" t="n">
-        <v>0.05297809935216984</v>
+        <v>0.0672725998541459</v>
       </c>
       <c r="J29" t="n">
-        <v>0.05973769473544221</v>
+        <v>0.04134219474390809</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1129707905875488</v>
+        <v>0.09679875497707142</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03118562338615738</v>
+        <v>0.005923429020230107</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01646726825074109</v>
+        <v>0.005615874648953989</v>
       </c>
       <c r="N29" t="n">
-        <v>0.02570483557677931</v>
+        <v>0.04224314299288982</v>
       </c>
       <c r="O29" t="n">
-        <v>0.03165085419744352</v>
+        <v>0.06863575052245792</v>
       </c>
       <c r="P29" t="n">
-        <v>0.02433852253556792</v>
+        <v>0.008225579941061972</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.006573094826825165</v>
+        <v>0.0116675338541637</v>
       </c>
       <c r="R29" t="n">
-        <v>0.005808202846434856</v>
+        <v>0.04215093551171318</v>
       </c>
       <c r="S29" t="n">
-        <v>0.04841505112596451</v>
+        <v>0.1110211619415744</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1106022032738382</v>
+        <v>0.05185755007626921</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1028482742123383</v>
+        <v>0.006986863979671209</v>
       </c>
       <c r="V29" t="n">
-        <v>0.007462418045165929</v>
+        <v>0.009282697727491076</v>
       </c>
       <c r="W29" t="n">
-        <v>0.07470610131753179</v>
+        <v>0.09186842481094325</v>
       </c>
       <c r="X29" t="n">
-        <v>0.03405640607345253</v>
+        <v>0.0584482727603255</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.05581455598910926</v>
+        <v>0.008167384331358923</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.1100414972575585</v>
+        <v>0.05059481795685646</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.004419770639700222</v>
+        <v>0.04478711326894061</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.04248185656307031</v>
+        <v>0.02988868837143738</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.1878357634955112</v>
+        <v>0.1787430016161869</v>
       </c>
     </row>
     <row r="30">
@@ -3255,79 +3255,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1399244927491788</v>
+        <v>0.1404082895556819</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02098343390845938</v>
+        <v>0.04064723775770091</v>
       </c>
       <c r="G30" t="n">
-        <v>0.003521992467512682</v>
+        <v>0.006918006589597985</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03394063541967931</v>
+        <v>0.05228314422359177</v>
       </c>
       <c r="I30" t="n">
-        <v>0.009941923234900001</v>
+        <v>0.01892804246092684</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01013686707355926</v>
+        <v>0.02294468977206064</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01545050257854543</v>
+        <v>0.00049126365551213</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01588639287476494</v>
+        <v>0.02728019824561296</v>
       </c>
       <c r="M30" t="n">
-        <v>0.05154166632305193</v>
+        <v>0.0103572886576843</v>
       </c>
       <c r="N30" t="n">
-        <v>9.986375723455202e-05</v>
+        <v>0.03889157663352504</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03652654354097484</v>
+        <v>0.08474105727746518</v>
       </c>
       <c r="P30" t="n">
-        <v>0.05174972133189709</v>
+        <v>0.02192253071039006</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02148671011415795</v>
+        <v>0.07155817719991106</v>
       </c>
       <c r="R30" t="n">
-        <v>0.07462403194309922</v>
+        <v>0.09581477688401746</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1131402479145308</v>
+        <v>0.08685678401157802</v>
       </c>
       <c r="T30" t="n">
-        <v>0.08576630893514132</v>
+        <v>0.05044522728236662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07759727569188453</v>
+        <v>0.07367936414243317</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01748861677198085</v>
+        <v>0.03207275676547035</v>
       </c>
       <c r="W30" t="n">
-        <v>0.05392078333406815</v>
+        <v>0.1101601356218165</v>
       </c>
       <c r="X30" t="n">
-        <v>0.116951080766514</v>
+        <v>0.004720588781962055</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.00234815660923773</v>
+        <v>0.01681642496489759</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.09400672061990679</v>
+        <v>0.002185364626208236</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.05912186455898204</v>
+        <v>0.1247781574544873</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.03376866022991722</v>
+        <v>0.005507206280783824</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.01443776551525761</v>
+        <v>0.0175873875460136</v>
       </c>
     </row>
     <row r="31">
@@ -3350,79 +3350,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1598361963542329</v>
+        <v>0.1524053823674601</v>
       </c>
       <c r="F31" t="n">
-        <v>0.02818038416795812</v>
+        <v>0.09291668479828037</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02409078853697803</v>
+        <v>0.02738199292793578</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04464115191477285</v>
+        <v>0.01989854919151183</v>
       </c>
       <c r="I31" t="n">
-        <v>0.004905093459983848</v>
+        <v>0.08074946221237651</v>
       </c>
       <c r="J31" t="n">
-        <v>0.06077092339723329</v>
+        <v>0.01693484454698976</v>
       </c>
       <c r="K31" t="n">
-        <v>0.09415135056089731</v>
+        <v>0.06542417362945695</v>
       </c>
       <c r="L31" t="n">
-        <v>0.06733998814554659</v>
+        <v>0.06091903359134744</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04857427091425322</v>
+        <v>0.003351431481189091</v>
       </c>
       <c r="N31" t="n">
-        <v>0.00717785888146163</v>
+        <v>0.004246070058052464</v>
       </c>
       <c r="O31" t="n">
-        <v>0.09470911608675606</v>
+        <v>0.05745799663375189</v>
       </c>
       <c r="P31" t="n">
-        <v>0.07096223627212685</v>
+        <v>0.0860085147745496</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.02592015663447384</v>
+        <v>0.01086855434276926</v>
       </c>
       <c r="R31" t="n">
-        <v>0.03485409852175557</v>
+        <v>0.05816273396170482</v>
       </c>
       <c r="S31" t="n">
-        <v>0.06488664381979964</v>
+        <v>0.08671140773216388</v>
       </c>
       <c r="T31" t="n">
-        <v>0.05408248627636367</v>
+        <v>0.005321742687972169</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08793244709537423</v>
+        <v>0.05053766909092107</v>
       </c>
       <c r="V31" t="n">
-        <v>0.04902393615951674</v>
+        <v>0.02621309465172688</v>
       </c>
       <c r="W31" t="n">
-        <v>0.06787524893746004</v>
+        <v>0.07247522223917946</v>
       </c>
       <c r="X31" t="n">
-        <v>0.005966443773160611</v>
+        <v>0.05384795190494607</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.01949087883227478</v>
+        <v>0.0004894945432441337</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.002867601769094541</v>
+        <v>0.04521387892593125</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.04053840958251259</v>
+        <v>0.04204300372556458</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.001058486260246141</v>
+        <v>0.03282649234843483</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.04576065315158552</v>
+        <v>0.005230933186639667</v>
       </c>
     </row>
     <row r="32">
@@ -3445,79 +3445,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1247622882551867</v>
+        <v>0.1256869053682919</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01012930580333208</v>
+        <v>0.01867868394926331</v>
       </c>
       <c r="G32" t="n">
-        <v>0.005995423842437213</v>
+        <v>0.0001588712187954402</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01595445620978523</v>
+        <v>0.05341752726561633</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01959717704504868</v>
+        <v>0.01327283333422023</v>
       </c>
       <c r="J32" t="n">
-        <v>0.06635058280556112</v>
+        <v>0.05084518844154994</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02929868256355812</v>
+        <v>0.0339626527803419</v>
       </c>
       <c r="L32" t="n">
-        <v>0.002091502123859497</v>
+        <v>0.002622849811705594</v>
       </c>
       <c r="M32" t="n">
-        <v>0.05974007634174317</v>
+        <v>0.06063678383600053</v>
       </c>
       <c r="N32" t="n">
-        <v>0.02063313577650351</v>
+        <v>0.05691165670348437</v>
       </c>
       <c r="O32" t="n">
-        <v>0.02661488797216644</v>
+        <v>0.001762568268416967</v>
       </c>
       <c r="P32" t="n">
-        <v>0.01228995116657262</v>
+        <v>0.08224740154958093</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.1123151111762733</v>
+        <v>0.09727239048475898</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1135359949097512</v>
+        <v>0.09439500696348328</v>
       </c>
       <c r="S32" t="n">
-        <v>0.08554197088974692</v>
+        <v>0.08453596812106469</v>
       </c>
       <c r="T32" t="n">
-        <v>0.06275984976255322</v>
+        <v>0.02708759600240017</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0692671411698117</v>
+        <v>0.02546228522748875</v>
       </c>
       <c r="V32" t="n">
-        <v>0.0002521158666660917</v>
+        <v>0.002819571103575936</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0504132055565603</v>
+        <v>0.04214259782388693</v>
       </c>
       <c r="X32" t="n">
-        <v>0.04676488893700608</v>
+        <v>0.05097335013742669</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.01416818884423286</v>
+        <v>0.07979881201149965</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.08722139238481096</v>
+        <v>0.0957081038353973</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.08332321761744552</v>
+        <v>0.01038098245855716</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.00574174123457427</v>
+        <v>0.01490631867148505</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.037967813702754</v>
+        <v>0.01110160209664757</v>
       </c>
     </row>
     <row r="33">
@@ -3540,79 +3540,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1552098788623109</v>
+        <v>0.1396261302118292</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0335429248886745</v>
+        <v>0.01841419440294274</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08465105480339309</v>
+        <v>0.003937854738486659</v>
       </c>
       <c r="H33" t="n">
-        <v>0.03793286819531476</v>
+        <v>0.01887588128865568</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05663247217735579</v>
+        <v>0.100860413467909</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005964310356855493</v>
+        <v>0.0349184048225142</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1081727003563989</v>
+        <v>0.09944135354239179</v>
       </c>
       <c r="L33" t="n">
-        <v>0.08037186133195247</v>
+        <v>0.02279545523978825</v>
       </c>
       <c r="M33" t="n">
-        <v>0.009375621629689905</v>
+        <v>0.07360600603799668</v>
       </c>
       <c r="N33" t="n">
-        <v>0.02806310260251319</v>
+        <v>0.01287718970717098</v>
       </c>
       <c r="O33" t="n">
-        <v>0.09036095892406849</v>
+        <v>0.02218132869554344</v>
       </c>
       <c r="P33" t="n">
-        <v>0.03912792333331293</v>
+        <v>0.06153014296483317</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.02847951440509315</v>
+        <v>0.05968460530608404</v>
       </c>
       <c r="R33" t="n">
-        <v>0.007058291914328875</v>
+        <v>0.03520901016313421</v>
       </c>
       <c r="S33" t="n">
-        <v>0.009707885371265941</v>
+        <v>0.09416946538132399</v>
       </c>
       <c r="T33" t="n">
-        <v>0.01229927640653437</v>
+        <v>0.07274676845339619</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06519790795054209</v>
+        <v>0.1052883328476107</v>
       </c>
       <c r="V33" t="n">
-        <v>0.000258335456485071</v>
+        <v>0.007101247223335874</v>
       </c>
       <c r="W33" t="n">
-        <v>0.1007306636404741</v>
+        <v>0.06113343323846569</v>
       </c>
       <c r="X33" t="n">
-        <v>0.06340064831450606</v>
+        <v>0.02077017589754895</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.01662875886612981</v>
+        <v>0.000895508555609256</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.001600730401866369</v>
+        <v>0.01615828567623092</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.06768402203056081</v>
+        <v>0.02440801287221378</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.05275816664268373</v>
+        <v>0.03299692947681354</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.02027796163869253</v>
+        <v>0.0361957371914133</v>
       </c>
     </row>
     <row r="34">
@@ -3635,79 +3635,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1334208554104667</v>
+        <v>0.1343116529568051</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0196581035257795</v>
+        <v>0.07160954976596223</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05468012457075241</v>
+        <v>0.01822087938439977</v>
       </c>
       <c r="H34" t="n">
-        <v>0.08869488500383757</v>
+        <v>0.02390283653930491</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01649397821944768</v>
+        <v>0.006714602330833336</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02240602366693354</v>
+        <v>0.02179467364765014</v>
       </c>
       <c r="K34" t="n">
-        <v>0.007402098560482173</v>
+        <v>0.003268839235317656</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0199374239476824</v>
+        <v>0.05759150936979779</v>
       </c>
       <c r="M34" t="n">
-        <v>0.08199895224339265</v>
+        <v>0.07998666324976765</v>
       </c>
       <c r="N34" t="n">
-        <v>0.01492581308451871</v>
+        <v>0.007655526990587134</v>
       </c>
       <c r="O34" t="n">
-        <v>0.05155859037658064</v>
+        <v>0.03450182609990121</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0172163161556848</v>
+        <v>0.01564949581786513</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.07171472076694894</v>
+        <v>0.07977731919779529</v>
       </c>
       <c r="R34" t="n">
-        <v>0.08364750324347667</v>
+        <v>0.07898149934940288</v>
       </c>
       <c r="S34" t="n">
-        <v>0.0335954816479394</v>
+        <v>0.04151008369143347</v>
       </c>
       <c r="T34" t="n">
-        <v>0.01674802766803893</v>
+        <v>0.05614167187612026</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03450951623408945</v>
+        <v>0.05497131766023335</v>
       </c>
       <c r="V34" t="n">
-        <v>0.00501578478662905</v>
+        <v>0.0496325855475145</v>
       </c>
       <c r="W34" t="n">
-        <v>0.008821502261200409</v>
+        <v>0.01940365128523189</v>
       </c>
       <c r="X34" t="n">
-        <v>0.07162642270541104</v>
+        <v>0.0716561707940908</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.03104923602885877</v>
+        <v>0.05198331458591518</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.08955947778556879</v>
+        <v>0.06107703895688898</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.08086254846740695</v>
+        <v>0.06633816909318273</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.07787746904933936</v>
+        <v>0.02763077553080383</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.09187574162106939</v>
+        <v>0.1045133421858203</v>
       </c>
     </row>
     <row r="35">
@@ -3730,79 +3730,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1582649160764804</v>
+        <v>0.1557176298683254</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01180692972629728</v>
+        <v>0.001936801089025938</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01001792906074373</v>
+        <v>0.09606738969528068</v>
       </c>
       <c r="H35" t="n">
-        <v>0.004664128230917801</v>
+        <v>0.06610115548759894</v>
       </c>
       <c r="I35" t="n">
-        <v>0.04964488689643735</v>
+        <v>0.08571507920843431</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1065245714337841</v>
+        <v>0.05679956589782824</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0113151977366704</v>
+        <v>0.08042429354478532</v>
       </c>
       <c r="L35" t="n">
-        <v>0.02042858272466027</v>
+        <v>0.06117963069508583</v>
       </c>
       <c r="M35" t="n">
-        <v>0.06155729423788217</v>
+        <v>0.01391914819123934</v>
       </c>
       <c r="N35" t="n">
-        <v>0.02161569129242976</v>
+        <v>0.01169774618395768</v>
       </c>
       <c r="O35" t="n">
-        <v>0.01797857239608814</v>
+        <v>0.03890862046985226</v>
       </c>
       <c r="P35" t="n">
-        <v>0.1022028081209773</v>
+        <v>0.0004055343564546574</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.03433677799028313</v>
+        <v>0.04245988416587113</v>
       </c>
       <c r="R35" t="n">
-        <v>0.02236994404064309</v>
+        <v>0.06538441231155805</v>
       </c>
       <c r="S35" t="n">
-        <v>0.09045568790456623</v>
+        <v>0.09911988464945087</v>
       </c>
       <c r="T35" t="n">
-        <v>0.02274759218139431</v>
+        <v>0.03959187725292748</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06465547956050946</v>
+        <v>0.02962402191420392</v>
       </c>
       <c r="V35" t="n">
-        <v>0.07337538988594391</v>
+        <v>0.05053651235088827</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1155387866390726</v>
+        <v>0.0680812919731949</v>
       </c>
       <c r="X35" t="n">
-        <v>0.02961022898795998</v>
+        <v>0.0002183028715803935</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.05165427092791446</v>
+        <v>0.00430228369486929</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.02257622283756859</v>
+        <v>0.01904887838695501</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.02379087376680438</v>
+        <v>0.009091521312131666</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.03113215342045155</v>
+        <v>0.05938616429682582</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.1387458011146659</v>
+        <v>0.1550642366618276</v>
       </c>
     </row>
     <row r="36">
@@ -3825,79 +3825,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1425878283793441</v>
+        <v>0.1430336475752194</v>
       </c>
       <c r="F36" t="n">
-        <v>0.09886980453181143</v>
+        <v>0.01315323800903525</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01488742805759074</v>
+        <v>0.04510468553775928</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03146340176729615</v>
+        <v>0.001915702398355942</v>
       </c>
       <c r="I36" t="n">
-        <v>0.00972816123103141</v>
+        <v>0.007484014848190826</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01075396448446187</v>
+        <v>0.01329045940066668</v>
       </c>
       <c r="K36" t="n">
-        <v>0.03343201493956082</v>
+        <v>0.001111085790454408</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0002260524419862012</v>
+        <v>0.03802617118258915</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06270934682931312</v>
+        <v>0.04857264964342441</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0448303502281285</v>
+        <v>0.08614799666970961</v>
       </c>
       <c r="O36" t="n">
-        <v>0.001970854099281809</v>
+        <v>0.09649559487516153</v>
       </c>
       <c r="P36" t="n">
-        <v>0.08729565974122094</v>
+        <v>0.001300371773933741</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.07813139205545827</v>
+        <v>0.06483808976430097</v>
       </c>
       <c r="R36" t="n">
-        <v>0.03886644546092496</v>
+        <v>0.09763367596875826</v>
       </c>
       <c r="S36" t="n">
-        <v>0.06388944016411424</v>
+        <v>0.08996262218775955</v>
       </c>
       <c r="T36" t="n">
-        <v>0.001002423334624891</v>
+        <v>0.05768912472679149</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1009346987039925</v>
+        <v>0.06190207444121025</v>
       </c>
       <c r="V36" t="n">
-        <v>0.02310963658206261</v>
+        <v>0.004508000084647733</v>
       </c>
       <c r="W36" t="n">
-        <v>0.05548080437408147</v>
+        <v>0.04849992631242485</v>
       </c>
       <c r="X36" t="n">
-        <v>0.08042339092459676</v>
+        <v>0.08156231809157168</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.02105525020634458</v>
+        <v>0.009036752962809641</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.01214364201975405</v>
+        <v>0.023090575707525</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.08173578687802685</v>
+        <v>0.07303199508313592</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.0470600509443358</v>
+        <v>0.03564287453978374</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.01181988858828563</v>
+        <v>-0.02455152958931067</v>
       </c>
     </row>
     <row r="37">
@@ -3920,79 +3920,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1493478069165988</v>
+        <v>0.1608000509915114</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01638259284002234</v>
+        <v>8.520222229803968e-05</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03736282327037805</v>
+        <v>0.07468593465975595</v>
       </c>
       <c r="H37" t="n">
-        <v>0.007871020626445381</v>
+        <v>0.01682233099604153</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01164123828104223</v>
+        <v>0.07582816491257356</v>
       </c>
       <c r="J37" t="n">
-        <v>0.02356606921941994</v>
+        <v>0.006257431142388549</v>
       </c>
       <c r="K37" t="n">
-        <v>0.006137110368935801</v>
+        <v>0.003293334380988236</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0536716940882383</v>
+        <v>0.06509572691219075</v>
       </c>
       <c r="M37" t="n">
-        <v>0.00398083663536508</v>
+        <v>0.08356076813907681</v>
       </c>
       <c r="N37" t="n">
-        <v>0.007895409653017963</v>
+        <v>0.04161408545008411</v>
       </c>
       <c r="O37" t="n">
-        <v>0.006315304381803942</v>
+        <v>0.02783373204774719</v>
       </c>
       <c r="P37" t="n">
-        <v>0.08190153234579756</v>
+        <v>0.08835047425760863</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.09890525422211906</v>
+        <v>0.02250210051739253</v>
       </c>
       <c r="R37" t="n">
-        <v>0.08714701504830116</v>
+        <v>0.08314814820954612</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1029240255662544</v>
+        <v>0.08668577934220738</v>
       </c>
       <c r="T37" t="n">
-        <v>0.08752317929640231</v>
+        <v>0.08887129185969893</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0955861078625634</v>
+        <v>0.009824573466222872</v>
       </c>
       <c r="V37" t="n">
-        <v>0.08774742693776989</v>
+        <v>0.0694063077860782</v>
       </c>
       <c r="W37" t="n">
-        <v>0.06141563290685204</v>
+        <v>0.03233657249439619</v>
       </c>
       <c r="X37" t="n">
-        <v>0.06308141939595992</v>
+        <v>0.00216135926790783</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02520387527173143</v>
+        <v>0.04673060423605946</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01758148698039833</v>
+        <v>0.01653197390257908</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.002459897580767591</v>
+        <v>0.05467526313456553</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01369904722041388</v>
+        <v>0.003698840662592564</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.001642920779408315</v>
+        <v>-0.005798861160164953</v>
       </c>
     </row>
     <row r="38">
@@ -4015,79 +4015,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1711176848845015</v>
+        <v>0.1717276360747435</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06488888554513618</v>
+        <v>0.07898808167489345</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03188777464959634</v>
+        <v>0.07321843187131798</v>
       </c>
       <c r="H38" t="n">
-        <v>0.03113599224199773</v>
+        <v>0.01348688969895697</v>
       </c>
       <c r="I38" t="n">
-        <v>0.001070935992983654</v>
+        <v>0.001610008423878113</v>
       </c>
       <c r="J38" t="n">
-        <v>0.02604473894214101</v>
+        <v>0.03309956802758379</v>
       </c>
       <c r="K38" t="n">
-        <v>0.007713407736690143</v>
+        <v>0.03985523844233823</v>
       </c>
       <c r="L38" t="n">
-        <v>0.006289433584947345</v>
+        <v>0.02919051540754044</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01188173621722617</v>
+        <v>0.06530412025099545</v>
       </c>
       <c r="N38" t="n">
-        <v>0.05703425588253132</v>
+        <v>0.05216078325033042</v>
       </c>
       <c r="O38" t="n">
-        <v>0.09305532336485074</v>
+        <v>0.03964369880826589</v>
       </c>
       <c r="P38" t="n">
-        <v>0.04988855567788288</v>
+        <v>0.05357337499517855</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.05780762397246612</v>
+        <v>0.01390429218594529</v>
       </c>
       <c r="R38" t="n">
-        <v>0.08559196664425466</v>
+        <v>0.07758215278214993</v>
       </c>
       <c r="S38" t="n">
-        <v>0.07952817359884723</v>
+        <v>0.07830837438929382</v>
       </c>
       <c r="T38" t="n">
-        <v>0.08668821300711956</v>
+        <v>0.01373346825462956</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01856810125165291</v>
+        <v>0.06771097642010936</v>
       </c>
       <c r="V38" t="n">
-        <v>0.002484287581482759</v>
+        <v>0.0278859874773456</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0598569473787279</v>
+        <v>0.05108926949208805</v>
       </c>
       <c r="X38" t="n">
-        <v>0.08635065774913622</v>
+        <v>0.07002450542067799</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.0004021883949438926</v>
+        <v>0.01803029558089171</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.09035494405282815</v>
+        <v>0.01299145878438902</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.04912543565776712</v>
+        <v>0.07058250875040059</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.002350420874790065</v>
+        <v>0.01802599961079975</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.0282866243494616</v>
+        <v>-0.03111867945447207</v>
       </c>
     </row>
     <row r="39">
@@ -4110,79 +4110,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.1784492016139971</v>
+        <v>0.181869276857337</v>
       </c>
       <c r="F39" t="n">
-        <v>0.07523542364211874</v>
+        <v>0.07697476911688959</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03774048566402561</v>
+        <v>0.05261545696357522</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01935522356764644</v>
+        <v>0.02173544264306196</v>
       </c>
       <c r="I39" t="n">
-        <v>0.07309424558999672</v>
+        <v>0.01393404968608021</v>
       </c>
       <c r="J39" t="n">
-        <v>0.05157549804784133</v>
+        <v>0.09868428315145852</v>
       </c>
       <c r="K39" t="n">
-        <v>0.01755517430506091</v>
+        <v>0.0815572932877206</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02201411687400903</v>
+        <v>0.0006221937233273899</v>
       </c>
       <c r="M39" t="n">
-        <v>0.06758820522396411</v>
+        <v>0.08827256305000945</v>
       </c>
       <c r="N39" t="n">
-        <v>0.01354338759124861</v>
+        <v>0.03801803444829262</v>
       </c>
       <c r="O39" t="n">
-        <v>0.01469849260244656</v>
+        <v>0.008290231896248819</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0007882156589941826</v>
+        <v>0.05386610285642601</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0303469860637003</v>
+        <v>0.004380078031567774</v>
       </c>
       <c r="R39" t="n">
-        <v>0.02277137721516856</v>
+        <v>0.09038472523311501</v>
       </c>
       <c r="S39" t="n">
-        <v>0.09101998426834763</v>
+        <v>0.09889770449572623</v>
       </c>
       <c r="T39" t="n">
-        <v>0.08713429185418262</v>
+        <v>0.03150588330018735</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02726968933024955</v>
+        <v>0.06435874119328686</v>
       </c>
       <c r="V39" t="n">
-        <v>0.08923658378347622</v>
+        <v>0.07298865653967757</v>
       </c>
       <c r="W39" t="n">
-        <v>0.04370642196977572</v>
+        <v>0.03470784727887845</v>
       </c>
       <c r="X39" t="n">
-        <v>0.08878151276874661</v>
+        <v>0.0100683290609524</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0005219583732745369</v>
+        <v>0.02462063403392198</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.08457678233220872</v>
+        <v>0.01895558045682388</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.03691287231618734</v>
+        <v>0.004222284906744395</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.004533070957330033</v>
+        <v>0.01033911464602779</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.03929409151502726</v>
+        <v>-0.0394331035231104</v>
       </c>
     </row>
     <row r="40">
@@ -4205,79 +4205,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.2001403602928902</v>
+        <v>0.1977937898610522</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03242895412904796</v>
+        <v>0.01644815915917325</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05691030142930417</v>
+        <v>0.06548027477983905</v>
       </c>
       <c r="H40" t="n">
-        <v>0.08383541749221667</v>
+        <v>0.003015924015323428</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0003432939712180557</v>
+        <v>0.06132330290073361</v>
       </c>
       <c r="J40" t="n">
-        <v>0.03576405454769396</v>
+        <v>0.004206602349824466</v>
       </c>
       <c r="K40" t="n">
-        <v>0.06453613842109956</v>
+        <v>0.0002286831741290672</v>
       </c>
       <c r="L40" t="n">
-        <v>0.00842132745788492</v>
+        <v>0.006073655233550209</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06226452822062964</v>
+        <v>0.07419189480648195</v>
       </c>
       <c r="N40" t="n">
-        <v>8.998856213385375e-05</v>
+        <v>0.01546656856449767</v>
       </c>
       <c r="O40" t="n">
-        <v>0.01102969333422077</v>
+        <v>0.03972778882436932</v>
       </c>
       <c r="P40" t="n">
-        <v>0.06579848707272663</v>
+        <v>0.01102865802863652</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.0305209865505509</v>
+        <v>0.004182435923288262</v>
       </c>
       <c r="R40" t="n">
-        <v>0.06168579343858323</v>
+        <v>0.08508605416755753</v>
       </c>
       <c r="S40" t="n">
-        <v>0.07467948594361894</v>
+        <v>0.05488424074034828</v>
       </c>
       <c r="T40" t="n">
-        <v>0.06296116337106727</v>
+        <v>0.04013168182206155</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08934877443915898</v>
+        <v>0.05293656129732244</v>
       </c>
       <c r="V40" t="n">
-        <v>0.004107988161230313</v>
+        <v>0.04652025876489793</v>
       </c>
       <c r="W40" t="n">
-        <v>0.02141407233644535</v>
+        <v>0.06844459724289276</v>
       </c>
       <c r="X40" t="n">
-        <v>0.0323907672943392</v>
+        <v>0.08139642792070008</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.01778029299992954</v>
+        <v>0.08812457860091642</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.08586828616880213</v>
+        <v>0.08677618821629586</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.07212130979908345</v>
+        <v>0.07764496361323904</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.02569889485901456</v>
+        <v>0.01668049985392119</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.1275066581138738</v>
+        <v>0.1134933648714189</v>
       </c>
     </row>
     <row r="41">
@@ -4300,79 +4300,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2073843328537647</v>
+        <v>0.2026935304704136</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0777931414331042</v>
+        <v>0.08507381965016571</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04560435441204663</v>
+        <v>0.006348310484116903</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0320783002812286</v>
+        <v>0.03161644462165927</v>
       </c>
       <c r="I41" t="n">
-        <v>0.05604081403200206</v>
+        <v>0.004260766405134897</v>
       </c>
       <c r="J41" t="n">
-        <v>0.02794032933688745</v>
+        <v>0.01194585845505176</v>
       </c>
       <c r="K41" t="n">
-        <v>0.03063465086436282</v>
+        <v>0.05242620707560423</v>
       </c>
       <c r="L41" t="n">
-        <v>0.00450622259720033</v>
+        <v>0.0220804922026654</v>
       </c>
       <c r="M41" t="n">
-        <v>0.06656914838583901</v>
+        <v>0.06879938430686183</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0007133883143116127</v>
+        <v>0.02002485539396903</v>
       </c>
       <c r="O41" t="n">
-        <v>0.03927031084985438</v>
+        <v>0.06784920951564495</v>
       </c>
       <c r="P41" t="n">
-        <v>0.06564124709946302</v>
+        <v>0.08242770617321719</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.005431581589154429</v>
+        <v>0.01179034557075998</v>
       </c>
       <c r="R41" t="n">
-        <v>0.0747783177670366</v>
+        <v>0.0370730511759348</v>
       </c>
       <c r="S41" t="n">
-        <v>0.06894427324725771</v>
+        <v>0.09294978044823818</v>
       </c>
       <c r="T41" t="n">
-        <v>0.06637050956475239</v>
+        <v>0.09026060146273465</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03168897949458535</v>
+        <v>0.08067945482272688</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0732192691135333</v>
+        <v>0.02403567943479854</v>
       </c>
       <c r="W41" t="n">
-        <v>0.04220261185054419</v>
+        <v>0.01877203193578022</v>
       </c>
       <c r="X41" t="n">
-        <v>0.02598758684602508</v>
+        <v>0.09053796645059116</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.02094295198254527</v>
+        <v>0.001547354772145386</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.04201810504797356</v>
+        <v>0.06378857161476201</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.07616979185708332</v>
+        <v>0.03177696320848211</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.02545411403320862</v>
+        <v>0.003935144818954837</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.1390762791676045</v>
+        <v>0.1409621644333986</v>
       </c>
     </row>
     <row r="42">
@@ -4395,79 +4395,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1875153556195817</v>
+        <v>0.1875283265354875</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07533598770391912</v>
+        <v>0.06125184411843297</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05493194266880908</v>
+        <v>0.07286859218368602</v>
       </c>
       <c r="H42" t="n">
-        <v>0.03815946215370791</v>
+        <v>0.05882883616505329</v>
       </c>
       <c r="I42" t="n">
-        <v>0.006974471849619104</v>
+        <v>0.06062925445214242</v>
       </c>
       <c r="J42" t="n">
-        <v>0.03406986543680334</v>
+        <v>0.006852789379764542</v>
       </c>
       <c r="K42" t="n">
-        <v>0.03017405516657485</v>
+        <v>0.05206913147754232</v>
       </c>
       <c r="L42" t="n">
-        <v>0.01496866251627186</v>
+        <v>0.01825305224724723</v>
       </c>
       <c r="M42" t="n">
-        <v>0.03872182095072463</v>
+        <v>0.05062799631238488</v>
       </c>
       <c r="N42" t="n">
-        <v>0.01236130304160306</v>
+        <v>0.02090511678070043</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0512661060367402</v>
+        <v>0.1069192156509311</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0150412801482986</v>
+        <v>0.008627392226282825</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.03806552131411018</v>
+        <v>0.005525927909039908</v>
       </c>
       <c r="R42" t="n">
-        <v>0.00628151480329523</v>
+        <v>0.05613570694273174</v>
       </c>
       <c r="S42" t="n">
-        <v>0.06406129768830554</v>
+        <v>0.08160424692847211</v>
       </c>
       <c r="T42" t="n">
-        <v>0.01677116571208356</v>
+        <v>0.0207059005616808</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09319174405547086</v>
+        <v>0.05293690273735979</v>
       </c>
       <c r="V42" t="n">
-        <v>0.08867011912635568</v>
+        <v>0.02861987688256288</v>
       </c>
       <c r="W42" t="n">
-        <v>0.07623773225968512</v>
+        <v>0.009511479384824995</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0869183560120806</v>
+        <v>0.115130608617122</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.0001218385842582364</v>
+        <v>0.009047698022967487</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.09459307806521371</v>
+        <v>0.08845153128330717</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.0592026580807878</v>
+        <v>0.01330773514059612</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.003880016625281693</v>
+        <v>0.001189164595167191</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.04612794489409121</v>
+        <v>0.04307247894072651</v>
       </c>
     </row>
     <row r="43">
@@ -4490,79 +4490,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2036595250657803</v>
+        <v>0.1995699909725167</v>
       </c>
       <c r="F43" t="n">
-        <v>0.08338228116535688</v>
+        <v>0.1137357549213965</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01392412370996226</v>
+        <v>0.006575786536109325</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05721203719942446</v>
+        <v>0.05379757243585236</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01056493799906313</v>
+        <v>0.02664569942900994</v>
       </c>
       <c r="J43" t="n">
-        <v>0.09902629326941484</v>
+        <v>0.06144270571278186</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03004054006352569</v>
+        <v>0.02913200243336979</v>
       </c>
       <c r="L43" t="n">
-        <v>0.01045087566515876</v>
+        <v>0.003714562501638128</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0023152479695062</v>
+        <v>0.00779880880598327</v>
       </c>
       <c r="N43" t="n">
-        <v>0.002824109430064175</v>
+        <v>0.001984620621692656</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0123834823005308</v>
+        <v>0.007391875576726641</v>
       </c>
       <c r="P43" t="n">
-        <v>0.04165309068277518</v>
+        <v>0.06203550863018881</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.05705817584473158</v>
+        <v>0.004459969007465169</v>
       </c>
       <c r="R43" t="n">
-        <v>0.02686998580591552</v>
+        <v>0.09466092311085772</v>
       </c>
       <c r="S43" t="n">
-        <v>0.06006883494093954</v>
+        <v>0.09482634797793853</v>
       </c>
       <c r="T43" t="n">
-        <v>0.07188973929208496</v>
+        <v>0.05464905634859941</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01657935605985112</v>
+        <v>0.008942513733277455</v>
       </c>
       <c r="V43" t="n">
-        <v>0.1019649442017023</v>
+        <v>0.05604278199060689</v>
       </c>
       <c r="W43" t="n">
-        <v>0.05357705016341099</v>
+        <v>0.07419625119431443</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0042251327859852</v>
+        <v>0.001097461108652881</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.02287778369250537</v>
+        <v>0.08515748318625653</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.07972311370724884</v>
+        <v>0.01848587415956864</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.1035503012357967</v>
+        <v>0.1308277392333266</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.03783856281504563</v>
+        <v>0.002398701344386542</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.03278455006717646</v>
+        <v>0.04919240017730598</v>
       </c>
     </row>
     <row r="44">
@@ -4585,79 +4585,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.172527955055346</v>
+        <v>0.1721996529097578</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07531473155571423</v>
+        <v>0.09310489615581503</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02412128612032257</v>
+        <v>0.008304477789051485</v>
       </c>
       <c r="H44" t="n">
-        <v>0.008360409405645614</v>
+        <v>0.03775051441392455</v>
       </c>
       <c r="I44" t="n">
-        <v>0.03347335033019071</v>
+        <v>0.04392074274143967</v>
       </c>
       <c r="J44" t="n">
-        <v>0.05519813762964777</v>
+        <v>0.004765909003013924</v>
       </c>
       <c r="K44" t="n">
-        <v>0.03624792723058971</v>
+        <v>0.05488597449825882</v>
       </c>
       <c r="L44" t="n">
-        <v>0.02169956920713922</v>
+        <v>0.005517443588283581</v>
       </c>
       <c r="M44" t="n">
-        <v>0.05538960367051346</v>
+        <v>0.04754055494077623</v>
       </c>
       <c r="N44" t="n">
-        <v>0.008154054587464907</v>
+        <v>0.02488906411182962</v>
       </c>
       <c r="O44" t="n">
-        <v>0.07352282665547155</v>
+        <v>0.08145516016578873</v>
       </c>
       <c r="P44" t="n">
-        <v>0.009637374622656382</v>
+        <v>0.1007096366419119</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01425536484647396</v>
+        <v>0.02987689943267055</v>
       </c>
       <c r="R44" t="n">
-        <v>0.07565560234312013</v>
+        <v>0.08936181913098824</v>
       </c>
       <c r="S44" t="n">
-        <v>0.1033178697998464</v>
+        <v>0.08363754248578721</v>
       </c>
       <c r="T44" t="n">
-        <v>0.002554282459305412</v>
+        <v>0.0377952337593451</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06854956835743592</v>
+        <v>0.08897121082522512</v>
       </c>
       <c r="V44" t="n">
-        <v>0.03276679212770379</v>
+        <v>0.01021273330167728</v>
       </c>
       <c r="W44" t="n">
-        <v>0.06413358901351998</v>
+        <v>0.01189774711513808</v>
       </c>
       <c r="X44" t="n">
-        <v>0.09148727401267036</v>
+        <v>0.05918760570180082</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.03376336519430908</v>
+        <v>0.0006578562727489957</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.09015164989244098</v>
+        <v>0.02466453134461158</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.01855562192134124</v>
+        <v>0.04633055263970416</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.003689749016476556</v>
+        <v>0.0145618939402095</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.004842882352703869</v>
+        <v>0.007254000188639382</v>
       </c>
     </row>
     <row r="45">
@@ -4680,79 +4680,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.198490256232429</v>
+        <v>0.1882357730780445</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1525101096456064</v>
+        <v>0.09052578217843955</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03669996966578031</v>
+        <v>0.02425247768982754</v>
       </c>
       <c r="H45" t="n">
-        <v>0.00278949632628064</v>
+        <v>0.09755549676246883</v>
       </c>
       <c r="I45" t="n">
-        <v>0.008010893749652149</v>
+        <v>0.05877462416847217</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02126760298469072</v>
+        <v>0.0275428955175811</v>
       </c>
       <c r="K45" t="n">
-        <v>0.007070411345677933</v>
+        <v>0.00784430165554998</v>
       </c>
       <c r="L45" t="n">
-        <v>0.001616876698620776</v>
+        <v>0.004881643989518051</v>
       </c>
       <c r="M45" t="n">
-        <v>0.05683844200637503</v>
+        <v>0.001147460985752846</v>
       </c>
       <c r="N45" t="n">
-        <v>0.04963306115982966</v>
+        <v>0.009060239417023958</v>
       </c>
       <c r="O45" t="n">
-        <v>0.07676496959177127</v>
+        <v>0.08140465772692539</v>
       </c>
       <c r="P45" t="n">
-        <v>0.007630676081195504</v>
+        <v>0.02317698184830938</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.03872235067444757</v>
+        <v>0.01297766012521205</v>
       </c>
       <c r="R45" t="n">
-        <v>0.03724521719734593</v>
+        <v>0.05387575501503635</v>
       </c>
       <c r="S45" t="n">
-        <v>0.009910593836321112</v>
+        <v>0.005376509238517651</v>
       </c>
       <c r="T45" t="n">
-        <v>0.07164003218566747</v>
+        <v>0.04326322071826069</v>
       </c>
       <c r="U45" t="n">
-        <v>0.002542047494997954</v>
+        <v>0.05579364051915231</v>
       </c>
       <c r="V45" t="n">
-        <v>0.08296555271327805</v>
+        <v>0.08065783020708255</v>
       </c>
       <c r="W45" t="n">
-        <v>0.03291115828390098</v>
+        <v>0.008989719477530734</v>
       </c>
       <c r="X45" t="n">
-        <v>0.04046250777277787</v>
+        <v>0.01558194875101233</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.134045330926883</v>
+        <v>0.1002130992018167</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.08054588023632754</v>
+        <v>0.07418352893123011</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.01360701901702675</v>
+        <v>0.1035379452580436</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.03456980040554535</v>
+        <v>0.0193825806172363</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.03939272525100181</v>
+        <v>0.03211203376219979</v>
       </c>
     </row>
     <row r="46">
@@ -4775,79 +4775,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1382969713597948</v>
+        <v>0.1362961238521452</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09510550638361485</v>
+        <v>0.07799460106889657</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06667910831096066</v>
+        <v>0.06843463863308354</v>
       </c>
       <c r="H46" t="n">
-        <v>0.005516564882803668</v>
+        <v>0.04791156289239788</v>
       </c>
       <c r="I46" t="n">
-        <v>0.009938163492950186</v>
+        <v>0.0400690011865197</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01930669381577468</v>
+        <v>0.01347396569532313</v>
       </c>
       <c r="K46" t="n">
-        <v>0.04392753039479905</v>
+        <v>0.01447589529248364</v>
       </c>
       <c r="L46" t="n">
-        <v>0.02942068271543121</v>
+        <v>0.04720682573537335</v>
       </c>
       <c r="M46" t="n">
-        <v>0.05860465771223477</v>
+        <v>0.06011531579127522</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0003855745727930442</v>
+        <v>0.02606630242114734</v>
       </c>
       <c r="O46" t="n">
-        <v>0.00324380857742988</v>
+        <v>0.0323172575966342</v>
       </c>
       <c r="P46" t="n">
-        <v>0.09302580981387468</v>
+        <v>0.09347671768027967</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.03046967684407229</v>
+        <v>0.01070675781104004</v>
       </c>
       <c r="R46" t="n">
-        <v>0.00730507230034787</v>
+        <v>0.05256071124488046</v>
       </c>
       <c r="S46" t="n">
-        <v>0.08469812099508386</v>
+        <v>0.06930021941403475</v>
       </c>
       <c r="T46" t="n">
-        <v>0.01841409762746985</v>
+        <v>0.002121507439434516</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07666660641549446</v>
+        <v>0.08909676909572946</v>
       </c>
       <c r="V46" t="n">
-        <v>0.04657340610258852</v>
+        <v>0.00072284305728689</v>
       </c>
       <c r="W46" t="n">
-        <v>0.02970183828248529</v>
+        <v>0.05839817029828891</v>
       </c>
       <c r="X46" t="n">
-        <v>0.08415171130191657</v>
+        <v>0.09149769150457661</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.01815756103212741</v>
+        <v>0.01675410881258487</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.07896760091398922</v>
+        <v>0.06205009274025407</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.07863626947941782</v>
+        <v>0.02021040565475151</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.02110393803234022</v>
+        <v>0.005038638933723572</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.01281031148901046</v>
+        <v>-0.04015776746095814</v>
       </c>
     </row>
     <row r="47">
@@ -4870,79 +4870,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1601139434445826</v>
+        <v>0.154757643054842</v>
       </c>
       <c r="F47" t="n">
-        <v>0.05838753805634183</v>
+        <v>0.1100534644375484</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02759747152274821</v>
+        <v>0.028914960711083</v>
       </c>
       <c r="H47" t="n">
-        <v>0.02492593777449402</v>
+        <v>0.00150084473053192</v>
       </c>
       <c r="I47" t="n">
-        <v>0.06881899118386814</v>
+        <v>0.006964317262583403</v>
       </c>
       <c r="J47" t="n">
-        <v>0.05790467825098952</v>
+        <v>0.0568768507256399</v>
       </c>
       <c r="K47" t="n">
-        <v>0.09004973549665021</v>
+        <v>0.06013560051928997</v>
       </c>
       <c r="L47" t="n">
-        <v>0.003431562107799826</v>
+        <v>0.03553768785630704</v>
       </c>
       <c r="M47" t="n">
-        <v>0.07241652684025587</v>
+        <v>0.08535321315720577</v>
       </c>
       <c r="N47" t="n">
-        <v>0.002953527838724219</v>
+        <v>3.929552177515429e-05</v>
       </c>
       <c r="O47" t="n">
-        <v>0.09609307685770541</v>
+        <v>0.05508433970513233</v>
       </c>
       <c r="P47" t="n">
-        <v>0.04824928521568353</v>
+        <v>0.02706578790482923</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.07749684933807859</v>
+        <v>0.1262660950524002</v>
       </c>
       <c r="R47" t="n">
-        <v>0.01545169543426888</v>
+        <v>0.02129605008886377</v>
       </c>
       <c r="S47" t="n">
-        <v>0.01384145935457103</v>
+        <v>0.01179485165357323</v>
       </c>
       <c r="T47" t="n">
-        <v>0.02067225100076927</v>
+        <v>0.002245690670531235</v>
       </c>
       <c r="U47" t="n">
-        <v>0.02544297050642508</v>
+        <v>0.01393220442024299</v>
       </c>
       <c r="V47" t="n">
-        <v>0.06135041800270963</v>
+        <v>0.1122210201282901</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01464302533496521</v>
+        <v>0.03018496683548347</v>
       </c>
       <c r="X47" t="n">
-        <v>0.007033206674387785</v>
+        <v>0.04206192483571907</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.07739327650480439</v>
+        <v>0.05476941911544631</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.0327880256554484</v>
+        <v>0.05168911190606305</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.01226809842978375</v>
+        <v>0.05682270738169214</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.09079039261852714</v>
+        <v>0.009189595379768104</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.06043334597627056</v>
+        <v>-0.02065584211507861</v>
       </c>
     </row>
     <row r="48">
@@ -4965,79 +4965,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1120264147845975</v>
+        <v>0.1112869183247465</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03955363766669383</v>
+        <v>0.07178094655987351</v>
       </c>
       <c r="G48" t="n">
-        <v>0.009015693988965659</v>
+        <v>0.06644308602242908</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01356584076460201</v>
+        <v>0.04310458277234695</v>
       </c>
       <c r="I48" t="n">
-        <v>0.003169931267417601</v>
+        <v>0.02688518124137623</v>
       </c>
       <c r="J48" t="n">
-        <v>0.04761727854548403</v>
+        <v>0.00842186291866753</v>
       </c>
       <c r="K48" t="n">
-        <v>0.044260048327501</v>
+        <v>0.01343159226169597</v>
       </c>
       <c r="L48" t="n">
-        <v>0.05795500439630624</v>
+        <v>0.01496577131032215</v>
       </c>
       <c r="M48" t="n">
-        <v>0.08359515903949633</v>
+        <v>0.1012014972429822</v>
       </c>
       <c r="N48" t="n">
-        <v>0.003043531133016857</v>
+        <v>0.0004477008934100832</v>
       </c>
       <c r="O48" t="n">
-        <v>0.07201380881789009</v>
+        <v>0.02025428175921931</v>
       </c>
       <c r="P48" t="n">
-        <v>0.05229754216178125</v>
+        <v>0.08683237785534927</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.03843851084045099</v>
+        <v>0.01583951402932856</v>
       </c>
       <c r="R48" t="n">
-        <v>0.02939110225329714</v>
+        <v>0.05784063538286834</v>
       </c>
       <c r="S48" t="n">
-        <v>0.02345819217440605</v>
+        <v>0.05632863589692595</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0642249655306701</v>
+        <v>0.01812759585901655</v>
       </c>
       <c r="U48" t="n">
-        <v>0.07934086143890826</v>
+        <v>0.04298406888617359</v>
       </c>
       <c r="V48" t="n">
-        <v>0.004351755838089742</v>
+        <v>0.01488991808046658</v>
       </c>
       <c r="W48" t="n">
-        <v>0.05525895555206767</v>
+        <v>0.09861735196336556</v>
       </c>
       <c r="X48" t="n">
-        <v>0.07696360002266578</v>
+        <v>0.07294019710126774</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.0329483155075577</v>
+        <v>0.04167713340217657</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.08661285932588589</v>
+        <v>0.08581195984331151</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.04047561405547851</v>
+        <v>0.03718346459872354</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.04244779135136724</v>
+        <v>0.003990644118703391</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.1199453471123918</v>
+        <v>-0.1084693622622364</v>
       </c>
     </row>
     <row r="49">
@@ -5060,79 +5060,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1220530545550145</v>
+        <v>0.1189064334880289</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1122848901840195</v>
+        <v>0.05437868079186186</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01729499553785247</v>
+        <v>0.09927931571268635</v>
       </c>
       <c r="H49" t="n">
-        <v>0.001311155483432592</v>
+        <v>0.005402562503422887</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0006359072975558465</v>
+        <v>0.004643615104551403</v>
       </c>
       <c r="J49" t="n">
-        <v>0.01139424611278422</v>
+        <v>0.01719313261782583</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04751227316892875</v>
+        <v>0.06972763229885169</v>
       </c>
       <c r="L49" t="n">
-        <v>0.04016247886783166</v>
+        <v>0.01837615870187402</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1021626896687878</v>
+        <v>0.09592841830483001</v>
       </c>
       <c r="N49" t="n">
-        <v>0.01483264613139542</v>
+        <v>0.02800937319307348</v>
       </c>
       <c r="O49" t="n">
-        <v>0.1106641275102125</v>
+        <v>0.03812981357169545</v>
       </c>
       <c r="P49" t="n">
-        <v>0.04093905279914446</v>
+        <v>0.0262001152123452</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.07160725072024839</v>
+        <v>0.09009719621174234</v>
       </c>
       <c r="R49" t="n">
-        <v>0.07396009116483106</v>
+        <v>0.01860314878196081</v>
       </c>
       <c r="S49" t="n">
-        <v>0.01167332907818717</v>
+        <v>0.009957848812634966</v>
       </c>
       <c r="T49" t="n">
-        <v>0.06221806232622377</v>
+        <v>0.04355842365115947</v>
       </c>
       <c r="U49" t="n">
-        <v>0.004470420272653875</v>
+        <v>0.03895720342939491</v>
       </c>
       <c r="V49" t="n">
-        <v>0.06186907774503356</v>
+        <v>0.0140961793364496</v>
       </c>
       <c r="W49" t="n">
-        <v>0.005151513106175091</v>
+        <v>0.02291955928070993</v>
       </c>
       <c r="X49" t="n">
-        <v>0.03053165783259018</v>
+        <v>0.0619743528382189</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.1100215617623547</v>
+        <v>0.1107803138031323</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0259611156290814</v>
+        <v>0.04488897631970862</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.01399575459578706</v>
+        <v>0.05454424675129652</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.02934570300488855</v>
+        <v>0.03235373277057353</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.1373421530910223</v>
+        <v>-0.1122169959382314</v>
       </c>
     </row>
     <row r="50">
@@ -5155,79 +5155,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1207387986762773</v>
+        <v>0.1206609525164125</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0464236530124473</v>
+        <v>0.07819437309695637</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05452755046969489</v>
+        <v>0.01553532472409436</v>
       </c>
       <c r="H50" t="n">
-        <v>0.02281398768456408</v>
+        <v>0.03400213920468537</v>
       </c>
       <c r="I50" t="n">
-        <v>0.03927832005966545</v>
+        <v>0.02681340588505488</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1038159687928992</v>
+        <v>0.09014630144103784</v>
       </c>
       <c r="K50" t="n">
-        <v>0.005545198934016653</v>
+        <v>0.009203215683888105</v>
       </c>
       <c r="L50" t="n">
-        <v>0.02445026228031672</v>
+        <v>0.009964679589941603</v>
       </c>
       <c r="M50" t="n">
-        <v>0.06294088904399425</v>
+        <v>0.0947622482548955</v>
       </c>
       <c r="N50" t="n">
-        <v>0.01869829826972742</v>
+        <v>0.001653515265176952</v>
       </c>
       <c r="O50" t="n">
-        <v>0.01970738800567443</v>
+        <v>0.06899246332637167</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0664911631654571</v>
+        <v>0.09826430647638658</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.03747007115036798</v>
+        <v>0.09569424856457256</v>
       </c>
       <c r="R50" t="n">
-        <v>0.01141528549665287</v>
+        <v>0.002395018828304361</v>
       </c>
       <c r="S50" t="n">
-        <v>0.0008255278569924951</v>
+        <v>0.03019321407368211</v>
       </c>
       <c r="T50" t="n">
-        <v>0.02982375876906547</v>
+        <v>0.009823989093189659</v>
       </c>
       <c r="U50" t="n">
-        <v>0.07797398538240788</v>
+        <v>0.03467153592587893</v>
       </c>
       <c r="V50" t="n">
-        <v>0.0324807662197384</v>
+        <v>0.01805568587636526</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1010216059418812</v>
+        <v>0.06136418928012979</v>
       </c>
       <c r="X50" t="n">
-        <v>0.100823222773856</v>
+        <v>0.04186522690367531</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.006456901164357269</v>
+        <v>0.001393859725249468</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.06745713355670832</v>
+        <v>0.03541197359161365</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.04402269491879365</v>
+        <v>0.05346631530311638</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.02553636705072104</v>
+        <v>0.08813276988573344</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.09640818062120669</v>
+        <v>0.1088196670903853</v>
       </c>
     </row>
     <row r="51">
@@ -5250,79 +5250,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1328922578224954</v>
+        <v>0.1283224776448562</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08700210103309508</v>
+        <v>0.1046977985154228</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02792493857640571</v>
+        <v>0.001682204983536067</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01010995062901727</v>
+        <v>0.03547757408077113</v>
       </c>
       <c r="I51" t="n">
-        <v>0.001844478829135907</v>
+        <v>0.002576434221504218</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01961554597473145</v>
+        <v>0.09709704321472999</v>
       </c>
       <c r="K51" t="n">
-        <v>0.001386748675767747</v>
+        <v>0.01598478258071399</v>
       </c>
       <c r="L51" t="n">
-        <v>0.07338617822723605</v>
+        <v>0.0115876633756769</v>
       </c>
       <c r="M51" t="n">
-        <v>0.08511777660578036</v>
+        <v>0.06557649662731992</v>
       </c>
       <c r="N51" t="n">
-        <v>0.0009392860965096386</v>
+        <v>0.02112136780582758</v>
       </c>
       <c r="O51" t="n">
-        <v>0.02409311480204898</v>
+        <v>0.02846820306962292</v>
       </c>
       <c r="P51" t="n">
-        <v>0.01172205537967632</v>
+        <v>0.002185411999217507</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.05477768534479534</v>
+        <v>0.05960114794886022</v>
       </c>
       <c r="R51" t="n">
-        <v>0.07206926177789857</v>
+        <v>0.06109243488345809</v>
       </c>
       <c r="S51" t="n">
-        <v>0.04649715050318467</v>
+        <v>0.02629417915976563</v>
       </c>
       <c r="T51" t="n">
-        <v>0.02177395773962171</v>
+        <v>0.01240021717974511</v>
       </c>
       <c r="U51" t="n">
-        <v>0.00910198285564404</v>
+        <v>0.02397600073749321</v>
       </c>
       <c r="V51" t="n">
-        <v>0.06634044526635299</v>
+        <v>0.03553590481765305</v>
       </c>
       <c r="W51" t="n">
-        <v>0.08563868925082592</v>
+        <v>0.1351878690748265</v>
       </c>
       <c r="X51" t="n">
-        <v>0.08024163000392084</v>
+        <v>0.0705456062350006</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.02733166076767536</v>
+        <v>0.1114301736928324</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.09051001228722011</v>
+        <v>0.02283781752158099</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.02397239878944532</v>
+        <v>0.005794682528295457</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.07860295058401057</v>
+        <v>0.0488489857461458</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1518109202005102</v>
+        <v>0.1185356089760428</v>
       </c>
     </row>
     <row r="52">
@@ -5345,79 +5345,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1175247699153628</v>
+        <v>0.1203257397044963</v>
       </c>
       <c r="F52" t="n">
-        <v>0.006474794545696915</v>
+        <v>0.003420636013351071</v>
       </c>
       <c r="G52" t="n">
-        <v>0.08877849425973741</v>
+        <v>0.02897240795540123</v>
       </c>
       <c r="H52" t="n">
-        <v>0.003917200574420259</v>
+        <v>0.043242274911254</v>
       </c>
       <c r="I52" t="n">
-        <v>0.008168222367757732</v>
+        <v>0.03894218827632967</v>
       </c>
       <c r="J52" t="n">
-        <v>0.07587531494201341</v>
+        <v>0.04461055962234184</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02924180805635239</v>
+        <v>0.01440597970841318</v>
       </c>
       <c r="L52" t="n">
-        <v>0.01924859139202258</v>
+        <v>0.02024056511668186</v>
       </c>
       <c r="M52" t="n">
-        <v>0.09195602845098252</v>
+        <v>0.0544909610151196</v>
       </c>
       <c r="N52" t="n">
-        <v>0.01864878740620589</v>
+        <v>0.006017862038931858</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0770201861684036</v>
+        <v>0.0516996559422794</v>
       </c>
       <c r="P52" t="n">
-        <v>0.04635069314536765</v>
+        <v>0.0577512939699553</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.07673412167457741</v>
+        <v>0.08081779957817017</v>
       </c>
       <c r="R52" t="n">
-        <v>0.0244470784006484</v>
+        <v>0.006432927028914305</v>
       </c>
       <c r="S52" t="n">
-        <v>0.02476104829288643</v>
+        <v>0.04654777326790342</v>
       </c>
       <c r="T52" t="n">
-        <v>0.02877475080881865</v>
+        <v>0.06189839134556228</v>
       </c>
       <c r="U52" t="n">
-        <v>0.06481465125871019</v>
+        <v>0.07674064933600044</v>
       </c>
       <c r="V52" t="n">
-        <v>0.008243747698056667</v>
+        <v>0.0324343175286274</v>
       </c>
       <c r="W52" t="n">
-        <v>0.08832782226315071</v>
+        <v>0.08649948410595121</v>
       </c>
       <c r="X52" t="n">
-        <v>0.06811319506251592</v>
+        <v>0.0696391447836523</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.05424870619971775</v>
+        <v>0.05785806041616789</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.01703918668355883</v>
+        <v>0.03350620113611152</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.02487644077563766</v>
+        <v>0.02173586106612495</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.05393912957276095</v>
+        <v>0.06209500583675508</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.07463255645573691</v>
+        <v>0.07675877230262534</v>
       </c>
     </row>
     <row r="53">
@@ -5440,79 +5440,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1337431115683321</v>
+        <v>0.1352862600476086</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07799822484327887</v>
+        <v>0.06968443591304491</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04512443922506805</v>
+        <v>0.01073100229691308</v>
       </c>
       <c r="H53" t="n">
-        <v>0.006578369383784088</v>
+        <v>0.06916429495881181</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01079831541243896</v>
+        <v>0.01571077193982538</v>
       </c>
       <c r="J53" t="n">
-        <v>0.01536462795629063</v>
+        <v>0.002701742301115254</v>
       </c>
       <c r="K53" t="n">
-        <v>0.002401484523354503</v>
+        <v>0.01740228534854995</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0318545930707251</v>
+        <v>0.04035237796954834</v>
       </c>
       <c r="M53" t="n">
-        <v>0.08730186345659903</v>
+        <v>0.1024694727733093</v>
       </c>
       <c r="N53" t="n">
-        <v>0.02080152094134554</v>
+        <v>0.004080304658341408</v>
       </c>
       <c r="O53" t="n">
-        <v>0.08724098228561307</v>
+        <v>0.01096269418366637</v>
       </c>
       <c r="P53" t="n">
-        <v>0.003466002881735887</v>
+        <v>0.0663303135670464</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02660288685195812</v>
+        <v>0.05410534641561965</v>
       </c>
       <c r="R53" t="n">
-        <v>0.04021951759906495</v>
+        <v>0.08784163488596784</v>
       </c>
       <c r="S53" t="n">
-        <v>0.002537787285202672</v>
+        <v>0.01067508792039551</v>
       </c>
       <c r="T53" t="n">
-        <v>0.05353798214457468</v>
+        <v>0.03269117084482324</v>
       </c>
       <c r="U53" t="n">
-        <v>0.06455982661178487</v>
+        <v>0.03537303585655988</v>
       </c>
       <c r="V53" t="n">
-        <v>0.03598254139329518</v>
+        <v>0.0194299791922767</v>
       </c>
       <c r="W53" t="n">
-        <v>0.06730829204541942</v>
+        <v>0.06479459595118477</v>
       </c>
       <c r="X53" t="n">
-        <v>0.09871823808392716</v>
+        <v>0.05033293509355276</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1001413618892443</v>
+        <v>0.08108008172841083</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.06942115382229205</v>
+        <v>0.09995809177379544</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.0212411252527901</v>
+        <v>0.001669288749341894</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.03079886304021287</v>
+        <v>0.0524590556778993</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.08760438691242108</v>
+        <v>0.05606922361620155</v>
       </c>
     </row>
     <row r="54">
@@ -5535,79 +5535,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1211988899805066</v>
+        <v>0.1225285117451796</v>
       </c>
       <c r="F54" t="n">
-        <v>0.02934257320488717</v>
+        <v>0.0245082816678057</v>
       </c>
       <c r="G54" t="n">
-        <v>0.001916579610762672</v>
+        <v>0.002581194016443045</v>
       </c>
       <c r="H54" t="n">
-        <v>0.03914052913880437</v>
+        <v>0.1029283666534669</v>
       </c>
       <c r="I54" t="n">
-        <v>0.08315089565391234</v>
+        <v>0.02526996388258787</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01950663197052222</v>
+        <v>0.0433577524814151</v>
       </c>
       <c r="K54" t="n">
-        <v>0.002832107816690737</v>
+        <v>0.005851272295652006</v>
       </c>
       <c r="L54" t="n">
-        <v>0.01120667828367352</v>
+        <v>0.03275921687784179</v>
       </c>
       <c r="M54" t="n">
-        <v>0.07905499349031944</v>
+        <v>0.07057976200723923</v>
       </c>
       <c r="N54" t="n">
-        <v>0.01361874737891327</v>
+        <v>0.009402923435788173</v>
       </c>
       <c r="O54" t="n">
-        <v>0.06893584225835317</v>
+        <v>0.01018040957650163</v>
       </c>
       <c r="P54" t="n">
-        <v>0.0851874672568613</v>
+        <v>0.1000700219779109</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.0900930435352091</v>
+        <v>0.108230981176037</v>
       </c>
       <c r="R54" t="n">
-        <v>0.0203505354889541</v>
+        <v>0.01523635850427854</v>
       </c>
       <c r="S54" t="n">
-        <v>0.04184758888342499</v>
+        <v>0.04010167144629416</v>
       </c>
       <c r="T54" t="n">
-        <v>0.07292049411410276</v>
+        <v>0.03031897129802635</v>
       </c>
       <c r="U54" t="n">
-        <v>0.06362529232152299</v>
+        <v>0.06621201255575865</v>
       </c>
       <c r="V54" t="n">
-        <v>0.009772996999847509</v>
+        <v>0.01923607787756144</v>
       </c>
       <c r="W54" t="n">
-        <v>0.07445463036157077</v>
+        <v>0.05687087195982553</v>
       </c>
       <c r="X54" t="n">
-        <v>0.0803412825800756</v>
+        <v>0.04099771608993284</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.07399765380880352</v>
+        <v>0.0560386468714728</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.01204251712779532</v>
+        <v>0.02197785774416451</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.004724870517043515</v>
+        <v>0.0872501314262807</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.02193604819794979</v>
+        <v>0.03003953817771518</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.06752402333296398</v>
+        <v>-0.08980706975416811</v>
       </c>
     </row>
     <row r="55">
@@ -5630,79 +5630,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1396626938499437</v>
+        <v>0.1264389149453866</v>
       </c>
       <c r="F55" t="n">
-        <v>0.09759720016876937</v>
+        <v>0.04132955839032478</v>
       </c>
       <c r="G55" t="n">
-        <v>0.007651803682649612</v>
+        <v>0.001208230480234945</v>
       </c>
       <c r="H55" t="n">
-        <v>0.008453015118985852</v>
+        <v>0.03815985687537075</v>
       </c>
       <c r="I55" t="n">
-        <v>0.05455842524871764</v>
+        <v>0.04194671417445188</v>
       </c>
       <c r="J55" t="n">
-        <v>0.01949155048550286</v>
+        <v>0.009103614950159534</v>
       </c>
       <c r="K55" t="n">
-        <v>0.01253056627313249</v>
+        <v>0.002627516613853242</v>
       </c>
       <c r="L55" t="n">
-        <v>0.03028031995198436</v>
+        <v>0.01056395044859028</v>
       </c>
       <c r="M55" t="n">
-        <v>0.06755170375014374</v>
+        <v>0.07252112019701491</v>
       </c>
       <c r="N55" t="n">
-        <v>0.01324699056647559</v>
+        <v>0.01660294857144754</v>
       </c>
       <c r="O55" t="n">
-        <v>0.06610392697995807</v>
+        <v>0.09000598894906094</v>
       </c>
       <c r="P55" t="n">
-        <v>0.02214736107698537</v>
+        <v>0.07491542068852862</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.03247942100062846</v>
+        <v>0.02191141564583807</v>
       </c>
       <c r="R55" t="n">
-        <v>0.02777492262184571</v>
+        <v>0.05637438943405073</v>
       </c>
       <c r="S55" t="n">
-        <v>0.07167526764641169</v>
+        <v>0.0263013128637863</v>
       </c>
       <c r="T55" t="n">
-        <v>0.03954769587891955</v>
+        <v>0.08747847084374451</v>
       </c>
       <c r="U55" t="n">
-        <v>0.001513912837429045</v>
+        <v>0.02128453646996017</v>
       </c>
       <c r="V55" t="n">
-        <v>0.04991593666424901</v>
+        <v>0.00156262600167717</v>
       </c>
       <c r="W55" t="n">
-        <v>0.1175880745828805</v>
+        <v>0.09146730718931552</v>
       </c>
       <c r="X55" t="n">
-        <v>0.06753739290946424</v>
+        <v>0.04808566269187377</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.006181726454758878</v>
+        <v>0.08854080013324576</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.08315872059798196</v>
+        <v>0.04203257310686756</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.01475711527113155</v>
+        <v>0.08019002871380167</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.08825695023099442</v>
+        <v>0.03578595656680141</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.09850635365612453</v>
+        <v>-0.06639405042339429</v>
       </c>
     </row>
     <row r="56">
@@ -5725,79 +5725,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.1974676284201339</v>
+        <v>0.1999231776456484</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01620950300681254</v>
+        <v>0.08156821803801827</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05024087400510993</v>
+        <v>0.0718402122523967</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01403702047549579</v>
+        <v>0.02220067240514276</v>
       </c>
       <c r="I56" t="n">
-        <v>0.04458542842965334</v>
+        <v>0.003682734281775303</v>
       </c>
       <c r="J56" t="n">
-        <v>0.01076447366011655</v>
+        <v>0.01893582405180505</v>
       </c>
       <c r="K56" t="n">
-        <v>0.01586316285141778</v>
+        <v>0.03699806059937769</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0003588688989315438</v>
+        <v>0.02297253995470855</v>
       </c>
       <c r="M56" t="n">
-        <v>0.03177611779596702</v>
+        <v>0.05033030034785078</v>
       </c>
       <c r="N56" t="n">
-        <v>0.004319959412098414</v>
+        <v>0.00340375713673805</v>
       </c>
       <c r="O56" t="n">
-        <v>0.01448588145836499</v>
+        <v>0.001679679158226101</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0112763625450638</v>
+        <v>0.07536769537008947</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.1115172696423348</v>
+        <v>0.08829333027481215</v>
       </c>
       <c r="R56" t="n">
-        <v>0.09260882504499959</v>
+        <v>0.06310457122514901</v>
       </c>
       <c r="S56" t="n">
-        <v>0.05660197983956797</v>
+        <v>0.05609380894856696</v>
       </c>
       <c r="T56" t="n">
-        <v>0.003279510311532508</v>
+        <v>0.05260292614090759</v>
       </c>
       <c r="U56" t="n">
-        <v>0.09843227342822593</v>
+        <v>0.09116937797738245</v>
       </c>
       <c r="V56" t="n">
-        <v>0.001869192614776525</v>
+        <v>0.0007599759220132494</v>
       </c>
       <c r="W56" t="n">
-        <v>0.08217428533889727</v>
+        <v>0.04773268346572089</v>
       </c>
       <c r="X56" t="n">
-        <v>0.05558305195872097</v>
+        <v>0.05641737310789702</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.08753613683879415</v>
+        <v>0.05750081176247968</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.06910291560819419</v>
+        <v>0.0270382614735847</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.05145212824972154</v>
+        <v>0.06694160973810599</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.07592477858520259</v>
+        <v>0.003365576367251745</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.03179899750697017</v>
+        <v>0.08235434986677462</v>
       </c>
     </row>
     <row r="57">
@@ -5820,79 +5820,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2175152008627254</v>
+        <v>0.2140243913139787</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1006688245074064</v>
+        <v>0.0946508315782663</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07568426137449513</v>
+        <v>0.006238435562673684</v>
       </c>
       <c r="H57" t="n">
-        <v>0.02721576799586634</v>
+        <v>0.05632263942110952</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01933963440754161</v>
+        <v>0.03337698838316661</v>
       </c>
       <c r="J57" t="n">
-        <v>0.03748781387258182</v>
+        <v>0.005595763761340274</v>
       </c>
       <c r="K57" t="n">
-        <v>0.01192528236747859</v>
+        <v>0.02075397807547517</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0326508347097681</v>
+        <v>0.01991338233274953</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0999799551869473</v>
+        <v>0.09186431917740383</v>
       </c>
       <c r="N57" t="n">
-        <v>0.03743647605289731</v>
+        <v>0.002363254621231765</v>
       </c>
       <c r="O57" t="n">
-        <v>0.06843609775428718</v>
+        <v>0.0876130842917402</v>
       </c>
       <c r="P57" t="n">
-        <v>0.06022913718100602</v>
+        <v>0.05551038227867192</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.03572665084900248</v>
+        <v>0.02346193200406835</v>
       </c>
       <c r="R57" t="n">
-        <v>0.06999865515891258</v>
+        <v>0.03289142536965397</v>
       </c>
       <c r="S57" t="n">
-        <v>0.004223068176419439</v>
+        <v>0.05965706575856641</v>
       </c>
       <c r="T57" t="n">
-        <v>0.02758549449950868</v>
+        <v>0.0721868784080015</v>
       </c>
       <c r="U57" t="n">
-        <v>0.01811662603873832</v>
+        <v>2.733681669811093e-05</v>
       </c>
       <c r="V57" t="n">
-        <v>0.02752929243553887</v>
+        <v>0.03002871083944508</v>
       </c>
       <c r="W57" t="n">
-        <v>0.004540903441295163</v>
+        <v>0.0500957998736594</v>
       </c>
       <c r="X57" t="n">
-        <v>0.04300110409105022</v>
+        <v>0.08452022801223864</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.0986339628219715</v>
+        <v>0.09016795963421659</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.04565646459446882</v>
+        <v>0.03367599631740645</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.03210540392275885</v>
+        <v>0.04691033145484262</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.02182828856005939</v>
+        <v>0.00217327602737414</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.08955081892552955</v>
+        <v>0.100509991874999</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Auto Recurrence/input 30/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1174941430175261</v>
+        <v>0.1175215739246166</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08644970996706926</v>
+        <v>0.04080046002795789</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03712951075468498</v>
+        <v>0.005530141291736697</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01303800570318956</v>
+        <v>0.03661982003393926</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08755596765973973</v>
+        <v>0.05125738326467662</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06505795305624906</v>
+        <v>0.04051641618787696</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002538811265800658</v>
+        <v>0.009197171051065059</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02817024222071117</v>
+        <v>0.01262468785431727</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02045068951263722</v>
+        <v>0.00912928001636332</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01431636116374946</v>
+        <v>0.04781801842144347</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04419887778479312</v>
+        <v>0.09408339685746821</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08624869461715774</v>
+        <v>0.05546778552854235</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03730252517253336</v>
+        <v>0.04296545951528735</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06026559941832518</v>
+        <v>0.08660068636884961</v>
       </c>
       <c r="S2" t="n">
-        <v>0.005983862514180138</v>
+        <v>0.02774189579707823</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03911005750089448</v>
+        <v>0.03579949523704934</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07674472868226453</v>
+        <v>0.08560553288043429</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02234835732531874</v>
+        <v>0.01409657107463574</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05753440433810243</v>
+        <v>0.09380817818426215</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01243945870798954</v>
+        <v>0.05330557365211518</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.07764666686285275</v>
+        <v>0.06710300811825298</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0854357006152016</v>
+        <v>0.06430345675264738</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.02099426633429535</v>
+        <v>0.01452095360243184</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01903954882225985</v>
+        <v>0.01110462828156885</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.09004828970706083</v>
+        <v>0.08694235855969235</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1273907854646111</v>
+        <v>0.1288341905202197</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03508197762745133</v>
+        <v>0.0219551272811402</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007080702526069074</v>
+        <v>0.008079782337991883</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02026087253127115</v>
+        <v>0.05966545976531626</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07478879332363314</v>
+        <v>0.07641083130163834</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06486495335103377</v>
+        <v>0.004115747752474889</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01781768355579028</v>
+        <v>0.01786360457542245</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01275347423214731</v>
+        <v>0.0214291091715328</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07892053759962693</v>
+        <v>0.08496907668606508</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08207051859354196</v>
+        <v>0.02469264760862233</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00443407933192579</v>
+        <v>0.03871880865288422</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0265054672659909</v>
+        <v>0.04146058961956153</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.008661203877099297</v>
+        <v>0.05537038378926085</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07138353184765925</v>
+        <v>0.02129861266859865</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08962280193813235</v>
+        <v>0.09002408715563885</v>
       </c>
       <c r="T3" t="n">
-        <v>0.08836597268929963</v>
+        <v>0.07366779744149034</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07966825376227563</v>
+        <v>0.06951090276602248</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02550278145210768</v>
+        <v>0.07825329007166547</v>
       </c>
       <c r="W3" t="n">
-        <v>0.008931148070790025</v>
+        <v>0.03946667066761789</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01065252343514847</v>
+        <v>0.01796081738988703</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.02942958862913345</v>
+        <v>0.06379916911743098</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.06587697390708359</v>
+        <v>0.02329125552191934</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.01507617544267579</v>
+        <v>0.0007450921659711466</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.08224998501011328</v>
+        <v>0.06725113649184693</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.05789602178717095</v>
+        <v>0.07233998577375519</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1246109057726598</v>
+        <v>0.1243079587309908</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07340801585448485</v>
+        <v>0.03497869768630454</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01237863122852003</v>
+        <v>0.02747949301366389</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02595861355690226</v>
+        <v>0.06528456004842491</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03970507972097749</v>
+        <v>0.0764777286037271</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02795588184264555</v>
+        <v>0.02173054272308874</v>
       </c>
       <c r="K4" t="n">
-        <v>0.005628790686601737</v>
+        <v>0.0108577074032385</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007719779153286955</v>
+        <v>0.03204733032180317</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02431440633134053</v>
+        <v>0.01262158748525375</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01067342777143429</v>
+        <v>0.01063567177001259</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1131944688982714</v>
+        <v>0.08234531864511885</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08032593544085678</v>
+        <v>0.1030642961849787</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02189869177727569</v>
+        <v>0.04311880514848617</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04241547051431439</v>
+        <v>0.06939253924432778</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05704530369739257</v>
+        <v>0.04058086357917293</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1019847088077998</v>
+        <v>0.04066876330326276</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03973813105696376</v>
+        <v>0.04707980926850473</v>
       </c>
       <c r="V4" t="n">
-        <v>0.004408407776636511</v>
+        <v>0.01339248223554209</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05014020765305845</v>
+        <v>0.03487913245201098</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1062011221245339</v>
+        <v>0.006107095095505661</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07896012904943174</v>
+        <v>0.08930380235176372</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0008354531156096577</v>
+        <v>0.08121232546372756</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02765248762020741</v>
+        <v>0.01087773949576544</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04745685632145413</v>
+        <v>0.0458637084763153</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.03737708007872329</v>
+        <v>0.03999289774323695</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.134791631468394</v>
+        <v>0.1354491890894339</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01213538988830862</v>
+        <v>0.05516998287443283</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01837117030046559</v>
+        <v>0.01349968630334151</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0984082547717488</v>
+        <v>0.06298444978320981</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0830823388981807</v>
+        <v>0.08557966682556775</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000330494467162594</v>
+        <v>0.07420781306885833</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02180071718349596</v>
+        <v>0.0002315207945666322</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03851527608777431</v>
+        <v>0.07485956854831581</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02566239595330112</v>
+        <v>0.002698907626941428</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03662689378993678</v>
+        <v>0.01544900152933081</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01521998338910418</v>
+        <v>0.04130326199285222</v>
       </c>
       <c r="P5" t="n">
-        <v>0.004825104994100588</v>
+        <v>0.004144686455873188</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05725285419224921</v>
+        <v>0.004958469776595914</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02521784799346708</v>
+        <v>0.01527016095945367</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07387867346156418</v>
+        <v>0.09201197407650154</v>
       </c>
       <c r="T5" t="n">
-        <v>0.09796045934785043</v>
+        <v>0.06813033852858262</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08596120531361531</v>
+        <v>0.07958976906129701</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0120321344239844</v>
+        <v>0.06232674162318573</v>
       </c>
       <c r="W5" t="n">
-        <v>0.08786026792570391</v>
+        <v>0.01180454183277764</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0146850287914811</v>
+        <v>0.02798775734301369</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02223255735412095</v>
+        <v>0.06511201338424778</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.05000712377286929</v>
+        <v>0.004139489798811308</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01200653490866699</v>
+        <v>0.04953089577653065</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1059272927908479</v>
+        <v>0.0890093020357121</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.02783906061740409</v>
+        <v>0.005111523360389024</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1276946136747197</v>
+        <v>0.1265184434485772</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04336135700584549</v>
+        <v>0.03605223191365028</v>
       </c>
       <c r="G6" t="n">
-        <v>0.008039550849593645</v>
+        <v>0.008335356379068955</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03299648433409542</v>
+        <v>0.02096668726554402</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01010858973530809</v>
+        <v>0.05787790442129379</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00457295241384812</v>
+        <v>0.02181184096394305</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01735094928667224</v>
+        <v>0.03060921775757364</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007923793474583263</v>
+        <v>0.02587258955196306</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03384604570110672</v>
+        <v>0.006258815854946276</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03935262332899955</v>
+        <v>0.05033310065901214</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07769896512035836</v>
+        <v>0.09155283059056794</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01925838269006874</v>
+        <v>0.09838751183346905</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0007868796640640163</v>
+        <v>0.0179196279390018</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01693427660605386</v>
+        <v>0.006816940399133363</v>
       </c>
       <c r="S6" t="n">
-        <v>0.091167453219172</v>
+        <v>0.07713753384146121</v>
       </c>
       <c r="T6" t="n">
-        <v>0.07775986051688454</v>
+        <v>0.08999640925575722</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1064562682396377</v>
+        <v>0.06528765053330168</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0007918215113934531</v>
+        <v>0.01771422121978432</v>
       </c>
       <c r="W6" t="n">
-        <v>0.09020118339396621</v>
+        <v>0.08222967129394722</v>
       </c>
       <c r="X6" t="n">
-        <v>0.08808865302768858</v>
+        <v>0.05800648193815622</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.08050095472967723</v>
+        <v>0.05766791642498238</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0825259245026741</v>
+        <v>0.07074428480567628</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01800279012077359</v>
+        <v>0.0005922576876348775</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.05227424052753498</v>
+        <v>0.007828917470130984</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2091252553237655</v>
+        <v>-0.2276319691856447</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.1431748601311177</v>
+        <v>0.1519119058411756</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09419514175232147</v>
+        <v>0.0497008029501008</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03609607149848587</v>
+        <v>0.06367261141345451</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06675200287213075</v>
+        <v>0.01912266685529162</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08945803324434341</v>
+        <v>0.1059172243264472</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0375275725144824</v>
+        <v>0.02897292627375568</v>
       </c>
       <c r="K7" t="n">
-        <v>0.003236105476613154</v>
+        <v>0.006820097686793461</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06279397004168909</v>
+        <v>0.03636263162912649</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02417100004300492</v>
+        <v>0.009577060654101436</v>
       </c>
       <c r="N7" t="n">
-        <v>0.006106581021760255</v>
+        <v>0.007504062510225205</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02349448641331813</v>
+        <v>0.01140418656779627</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05687768282909487</v>
+        <v>0.01433553608824029</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07038840041351066</v>
+        <v>0.1059034578888583</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02926065312374228</v>
+        <v>0.0662138683061953</v>
       </c>
       <c r="S7" t="n">
-        <v>0.08516468741193746</v>
+        <v>0.0497108075781</v>
       </c>
       <c r="T7" t="n">
-        <v>0.006181765101424188</v>
+        <v>0.08068696788353254</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0138189223028909</v>
+        <v>0.004524986973874375</v>
       </c>
       <c r="V7" t="n">
-        <v>0.006318580754589571</v>
+        <v>0.01071742638783379</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03666142923085013</v>
+        <v>0.03580332518389996</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04279955344148809</v>
+        <v>0.02362309115344327</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01960890116663182</v>
+        <v>0.1029279101818336</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0442669852642562</v>
+        <v>0.0020273431379067</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.07090437831737401</v>
+        <v>0.05701154593512438</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.07391709576406025</v>
+        <v>0.1074594624340647</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.2220480266321454</v>
+        <v>-0.1900678173357139</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1650102386883059</v>
+        <v>0.1609750335305558</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08746023112222111</v>
+        <v>0.07075646667751768</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01022023478874324</v>
+        <v>0.008702933656341645</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01109772704642498</v>
+        <v>0.09934210269163644</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0950660072266707</v>
+        <v>0.05205583421334081</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01963907895661414</v>
+        <v>0.03154077434878245</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01096901266202859</v>
+        <v>0.0005930418980134994</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01112712860304838</v>
+        <v>0.004281183969927777</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004016423948119521</v>
+        <v>0.005055802586382408</v>
       </c>
       <c r="N8" t="n">
-        <v>0.014277161155034</v>
+        <v>0.01885349160158942</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008206130567668776</v>
+        <v>0.03257497589536958</v>
       </c>
       <c r="P8" t="n">
-        <v>0.08419796081500402</v>
+        <v>0.05629734801182557</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.07787174908026094</v>
+        <v>0.005485680366509569</v>
       </c>
       <c r="R8" t="n">
-        <v>0.09944919907160335</v>
+        <v>0.08788038255895808</v>
       </c>
       <c r="S8" t="n">
-        <v>0.06818750626127432</v>
+        <v>0.03877314417754911</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02703962502786544</v>
+        <v>0.003454994962071464</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03401045567307726</v>
+        <v>0.05977524046619858</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0004960085526539088</v>
+        <v>0.0004294771278986478</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05062829171332798</v>
+        <v>0.09548993487006704</v>
       </c>
       <c r="X8" t="n">
-        <v>0.08311129636838929</v>
+        <v>0.1006113514803572</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02030225280122547</v>
+        <v>0.07251138425575057</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.03058346940602117</v>
+        <v>0.06614206499948294</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.05955308608002806</v>
+        <v>0.02682283279296976</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.09248996307269512</v>
+        <v>0.06256955639145971</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.3170313006696792</v>
+        <v>-0.2819368714087576</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1650102386883059</v>
+        <v>0.1864551208346968</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08746023112222111</v>
+        <v>0.02860856099399391</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01022023478874324</v>
+        <v>0.03908281729662365</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01109772704642498</v>
+        <v>0.05458020246716411</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0950660072266707</v>
+        <v>0.0939785161981443</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01963907895661414</v>
+        <v>0.01920470997400333</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01096901266202859</v>
+        <v>0.02172241902010674</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01112712860304838</v>
+        <v>0.04437836963505098</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004016423948119521</v>
+        <v>0.03801838531774611</v>
       </c>
       <c r="N9" t="n">
-        <v>0.014277161155034</v>
+        <v>0.009817879412286812</v>
       </c>
       <c r="O9" t="n">
-        <v>0.008206130567668776</v>
+        <v>0.03850491304702371</v>
       </c>
       <c r="P9" t="n">
-        <v>0.08419796081500402</v>
+        <v>0.04608344418086631</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07787174908026094</v>
+        <v>0.06653267838312257</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09944919907160335</v>
+        <v>0.04053514658548901</v>
       </c>
       <c r="S9" t="n">
-        <v>0.06818750626127432</v>
+        <v>0.05665037504743768</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02703962502786544</v>
+        <v>0.05171190586020796</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03401045567307726</v>
+        <v>0.02756094552511437</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0004960085526539088</v>
+        <v>0.005684344380149239</v>
       </c>
       <c r="W9" t="n">
-        <v>0.05062829171332798</v>
+        <v>0.05288597771809614</v>
       </c>
       <c r="X9" t="n">
-        <v>0.08311129636838929</v>
+        <v>0.04553074245988169</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02030225280122547</v>
+        <v>0.0599437511620406</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.03058346940602117</v>
+        <v>0.009494146050153265</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.05955308608002806</v>
+        <v>0.04798419699423125</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.09248996307269512</v>
+        <v>0.1015055722910661</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.3170313006696792</v>
+        <v>-0.3941028475273671</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2513291667980746</v>
+        <v>0.2564410632121779</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03085991872000466</v>
+        <v>0.07222059666477834</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0364402061236915</v>
+        <v>0.02005013710788555</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02426415839304132</v>
+        <v>0.002499922257892397</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05322716083601187</v>
+        <v>0.09125321439367476</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06861447152185396</v>
+        <v>0.06870048380825317</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02682235776465684</v>
+        <v>0.04144901700760133</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0129218890015046</v>
+        <v>0.0153162799976503</v>
       </c>
       <c r="M10" t="n">
-        <v>0.011013319391176</v>
+        <v>0.01015853678580846</v>
       </c>
       <c r="N10" t="n">
-        <v>0.005805809572319221</v>
+        <v>0.001122310551262881</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0860656482570549</v>
+        <v>0.044406247492939</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03880989260836737</v>
+        <v>0.05446612204004676</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01882497109755125</v>
+        <v>0.0344552798584995</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08745680246034691</v>
+        <v>0.04333049151544659</v>
       </c>
       <c r="S10" t="n">
-        <v>0.07029321516692792</v>
+        <v>0.08880053524942419</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02089979803410919</v>
+        <v>0.03869389277596601</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08790575823643158</v>
+        <v>0.02074127374878805</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001212680639798851</v>
+        <v>0.0004920296761779826</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01436278132572027</v>
+        <v>0.09318040676435013</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03658369881227259</v>
+        <v>0.03716334170914558</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.09508021220229065</v>
+        <v>0.06819586442925353</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.09577603143432867</v>
+        <v>0.02144242150719376</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.002253718299558514</v>
+        <v>0.07661045643319102</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.07450550010098128</v>
+        <v>0.05525113822477078</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.03871236763991465</v>
+        <v>-0.05174645253037699</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3958317702046043</v>
+        <v>0.4127657281817779</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0478778925432527</v>
+        <v>0.006454483204380662</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02683546684425776</v>
+        <v>0.004852559738232841</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09221453687559759</v>
+        <v>0.001604615360700815</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0909798915985696</v>
+        <v>0.1126846487173274</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04382748984639272</v>
+        <v>0.01733080975944102</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0005222873716088756</v>
+        <v>0.001706497475036375</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07999530684101709</v>
+        <v>0.01560878368339565</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02479243563993344</v>
+        <v>0.005115074510557286</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05706136652815423</v>
+        <v>0.02770080415271742</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01347415163302032</v>
+        <v>0.05955159056656864</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04269765820732862</v>
+        <v>0.06938903660125571</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001855151486413486</v>
+        <v>0.003140232685981736</v>
       </c>
       <c r="R11" t="n">
-        <v>0.08965610921042555</v>
+        <v>0.1065933892582137</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04592714642179407</v>
+        <v>0.1107059941548697</v>
       </c>
       <c r="T11" t="n">
-        <v>0.007038543719719942</v>
+        <v>0.0338094707906385</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08095035148172236</v>
+        <v>0.0542214750132979</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1048624788560604</v>
+        <v>0.1174246077665448</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0692526402809764</v>
+        <v>0.01139808996499283</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03132103113377313</v>
+        <v>0.005546107294214613</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.007304541006627321</v>
+        <v>0.1008688779572486</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.03337184921554506</v>
+        <v>0.006206511502429538</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.005057865653994895</v>
+        <v>0.1111697897146248</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.003123807603814292</v>
+        <v>0.01691655012732968</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1024499995755935</v>
+        <v>0.04666627688234877</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2663720344155708</v>
+        <v>0.2620560703952424</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1013209855302458</v>
+        <v>0.0242435724893835</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005696212425205681</v>
+        <v>0.01773776413429528</v>
       </c>
       <c r="H12" t="n">
-        <v>0.007189435899630751</v>
+        <v>0.03253439264572105</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03118283816767037</v>
+        <v>0.08249409781399016</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02193702601568159</v>
+        <v>0.01244970750397416</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02064351543112431</v>
+        <v>0.007505986605487953</v>
       </c>
       <c r="L12" t="n">
-        <v>0.05763851340679063</v>
+        <v>0.02762597381886639</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01763956977184467</v>
+        <v>0.0009190689308398781</v>
       </c>
       <c r="N12" t="n">
-        <v>0.03584138730458827</v>
+        <v>0.01553785654336333</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005631981842805531</v>
+        <v>0.05319517039895542</v>
       </c>
       <c r="P12" t="n">
-        <v>0.09103143504228015</v>
+        <v>0.08219943468630088</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04543629892751937</v>
+        <v>0.06144384886159401</v>
       </c>
       <c r="R12" t="n">
-        <v>0.09167899040453077</v>
+        <v>0.08123420609787774</v>
       </c>
       <c r="S12" t="n">
-        <v>0.08089949765432293</v>
+        <v>0.03629645773816528</v>
       </c>
       <c r="T12" t="n">
-        <v>0.001935027700010154</v>
+        <v>0.05035655021788504</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0708678471291514</v>
+        <v>0.07510958437221815</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01932273848078142</v>
+        <v>0.0009311146447852387</v>
       </c>
       <c r="W12" t="n">
-        <v>0.03718625017470429</v>
+        <v>0.06423322702277406</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1070636859917715</v>
+        <v>0.08072223243851297</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.04286111628888822</v>
+        <v>0.03394282178799617</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.02078088218303622</v>
+        <v>0.05898904174961785</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.007747065501240754</v>
+        <v>0.02356492430009224</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.07846769872617514</v>
+        <v>0.07673296519730291</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2294762811821734</v>
+        <v>0.2399401539179316</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.3480181499624119</v>
+        <v>0.3657821997195612</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02804501402570166</v>
+        <v>0.08074489699602211</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03493337336075319</v>
+        <v>0.001707051431223747</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06167262418681921</v>
+        <v>0.03267858886652432</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03317752306588131</v>
+        <v>0.08199640107358926</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0633208981509614</v>
+        <v>0.06019900113931714</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01515351077673022</v>
+        <v>0.03215091203735014</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08542415603287853</v>
+        <v>0.06579879886851131</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02828649824869331</v>
+        <v>0.009222946987918923</v>
       </c>
       <c r="N13" t="n">
-        <v>0.09394535588283966</v>
+        <v>0.1309339482968178</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004132226698451777</v>
+        <v>0.001616089109050523</v>
       </c>
       <c r="P13" t="n">
-        <v>0.06374561412865784</v>
+        <v>0.01271219847026425</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.00684913424415375</v>
+        <v>0.0001489856796854181</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02349372360361451</v>
+        <v>0.01685869160279781</v>
       </c>
       <c r="S13" t="n">
-        <v>0.00360420497111902</v>
+        <v>0.03180206019672153</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01763492214877633</v>
+        <v>0.002569059458527357</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01108268094624217</v>
+        <v>0.002865138280677719</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1068233554010513</v>
+        <v>0.1098638617755931</v>
       </c>
       <c r="W13" t="n">
-        <v>0.03833070606275066</v>
+        <v>0.1061320726267126</v>
       </c>
       <c r="X13" t="n">
-        <v>0.06729250429327249</v>
+        <v>0.0133700457088936</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.005788116682232984</v>
+        <v>0.01066001861913986</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1086114784491649</v>
+        <v>0.07264562625199675</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.002444623100943866</v>
+        <v>0.1051824119324166</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.09620775553831011</v>
+        <v>0.01814119459024806</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2495538211982775</v>
+        <v>0.2395176471751634</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2658248691338698</v>
+        <v>0.2570595941917698</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04913833063595488</v>
+        <v>0.01970955553713823</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03430998468230226</v>
+        <v>0.01575812882716812</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06634637738135095</v>
+        <v>0.04904920838824962</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07395937617108411</v>
+        <v>0.05602787072689005</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01568167290985043</v>
+        <v>0.02177552963176715</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02093942079050858</v>
+        <v>0.03714739547408486</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006944864426774786</v>
+        <v>0.01992510318375946</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06521199111747132</v>
+        <v>0.04283181655559765</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02080184236775182</v>
+        <v>0.0006591173019987894</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02352566913322441</v>
+        <v>0.062055939159663</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01385861213044383</v>
+        <v>0.09544749279534669</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0272022297960319</v>
+        <v>0.04947797980867558</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07486556138108913</v>
+        <v>0.09582186411653988</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06795908768643293</v>
+        <v>0.0830769419798924</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02761144119314559</v>
+        <v>0.009787381688262122</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06045746608610107</v>
+        <v>0.05109808309592561</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0009633636618076731</v>
+        <v>0.006749538698277885</v>
       </c>
       <c r="W14" t="n">
-        <v>0.08430457380600692</v>
+        <v>0.05417436996234865</v>
       </c>
       <c r="X14" t="n">
-        <v>0.03175081661985123</v>
+        <v>0.04502597273417541</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.05670318476775844</v>
+        <v>0.01858259951565056</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.08271128932043262</v>
+        <v>0.07366556611381661</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.02048082365774263</v>
+        <v>0.004159737256601273</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.07427202027688237</v>
+        <v>0.08799280744817053</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.03017017207258434</v>
+        <v>-0.01098870542907599</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3269423546293942</v>
+        <v>0.3177864376155742</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05896840974364939</v>
+        <v>0.004098262601566688</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03080115195990375</v>
+        <v>0.01640817548788161</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02828278307141069</v>
+        <v>0.05501078820367183</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0007838169945322179</v>
+        <v>0.0823032039465334</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01973396489243293</v>
+        <v>0.07884929150950615</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09859195599788433</v>
+        <v>0.03445953401797847</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01346687551083169</v>
+        <v>0.01979153524040398</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03096609480364079</v>
+        <v>0.009749734383977327</v>
       </c>
       <c r="N15" t="n">
-        <v>0.07682530520253146</v>
+        <v>0.08868389539975255</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08483632296941028</v>
+        <v>0.02591894280911208</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01849403646664757</v>
+        <v>0.02572772262609011</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.005007799199527728</v>
+        <v>0.05100394030515829</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1181680539583749</v>
+        <v>0.06606927863110941</v>
       </c>
       <c r="S15" t="n">
-        <v>0.04841211198206948</v>
+        <v>0.01968634190729722</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02740315948414165</v>
+        <v>0.03703109891785396</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04829535648990394</v>
+        <v>0.07157321371637092</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1204740905475097</v>
+        <v>0.0960072825994565</v>
       </c>
       <c r="W15" t="n">
-        <v>0.006128012583326649</v>
+        <v>0.005590020692650411</v>
       </c>
       <c r="X15" t="n">
-        <v>0.04349570739509954</v>
+        <v>0.04285379151773433</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.006516789077232982</v>
+        <v>0.002880212677575491</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.04777054581551608</v>
+        <v>0.05995480069806167</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.01608387174267327</v>
+        <v>0.005335610599678272</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0504937841117492</v>
+        <v>0.1010133215105793</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.02778604058698072</v>
+        <v>-0.0007873914144341191</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.277706456140528</v>
+        <v>0.2753434978849704</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02366876926708508</v>
+        <v>0.001537926942058681</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1039297288803616</v>
+        <v>0.03670473152433475</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03809616720154394</v>
+        <v>0.01568637166926017</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1073518584161702</v>
+        <v>0.05287303798749707</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01637926980751512</v>
+        <v>0.00959971025513579</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03788728555532029</v>
+        <v>0.03616482694572115</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000844129661437433</v>
+        <v>0.05171641571547422</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05007507687397162</v>
+        <v>0.01505775990282505</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001596315577379639</v>
+        <v>0.01093265102890795</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02550453706332287</v>
+        <v>0.02781138620099351</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03036921632498026</v>
+        <v>0.07860423112786535</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.004309225787565287</v>
+        <v>0.07149878945518309</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0980079090476046</v>
+        <v>0.05236568146814413</v>
       </c>
       <c r="S16" t="n">
-        <v>0.03874800815436698</v>
+        <v>0.03366250048631091</v>
       </c>
       <c r="T16" t="n">
-        <v>0.009852421530513761</v>
+        <v>0.001996251729553436</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02395960972178567</v>
+        <v>0.07765539170600902</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01698862006481493</v>
+        <v>0.01062605313415864</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1014115115470619</v>
+        <v>0.09780599961912192</v>
       </c>
       <c r="X16" t="n">
-        <v>0.03780963035798949</v>
+        <v>0.05787301213409715</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.06126192550184514</v>
+        <v>0.06692620655805692</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.08827475250971997</v>
+        <v>0.08940236286249291</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.02462713086015191</v>
+        <v>0.03117271247987947</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.05904690028749229</v>
+        <v>0.07232598906691876</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1355966335908791</v>
+        <v>0.1292567780830718</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3199056365437734</v>
+        <v>0.3628444329823528</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09673762576431238</v>
+        <v>0.03646702237622917</v>
       </c>
       <c r="G17" t="n">
-        <v>0.009462505877558499</v>
+        <v>0.07724330506412704</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009678779424203821</v>
+        <v>0.006899705508153505</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02181016134366912</v>
+        <v>0.06456442348835718</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03069925411041944</v>
+        <v>0.08916694601171182</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01647679878989056</v>
+        <v>0.005124009809792902</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01598841552606413</v>
+        <v>0.09153903522145554</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002851011746202615</v>
+        <v>0.01015906628617315</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02130866257004149</v>
+        <v>0.009773989631957039</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004148426004774288</v>
+        <v>0.02870803429641155</v>
       </c>
       <c r="P17" t="n">
-        <v>0.07405541401990143</v>
+        <v>0.009454283930858721</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02583702342055996</v>
+        <v>0.001223771889141426</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0673011954840113</v>
+        <v>0.03617117623484834</v>
       </c>
       <c r="S17" t="n">
-        <v>0.04781604674745811</v>
+        <v>0.08414087984740914</v>
       </c>
       <c r="T17" t="n">
-        <v>0.03995222420378659</v>
+        <v>0.02996877456586996</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1233357216939406</v>
+        <v>0.07517644699799217</v>
       </c>
       <c r="V17" t="n">
-        <v>0.1184210060945455</v>
+        <v>0.1332152213854508</v>
       </c>
       <c r="W17" t="n">
-        <v>0.001065033022740486</v>
+        <v>0.03643065756186697</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1158649389633943</v>
+        <v>0.009039206948437664</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.03050240915946987</v>
+        <v>0.01865700346956605</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.005786578477528713</v>
+        <v>0.03429959873950203</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.008601783241305944</v>
+        <v>0.04715216136503924</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.1210098857960042</v>
+        <v>0.06542527936964873</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2117962621619358</v>
+        <v>0.2280166062613969</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.1751081896779382</v>
+        <v>0.1793236510851477</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03100408833021757</v>
+        <v>0.06992655106957794</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01057558901252189</v>
+        <v>0.0349847130903419</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02329329566558371</v>
+        <v>0.05022923280565601</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0851020013186525</v>
+        <v>0.07821204397564796</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01337442849675039</v>
+        <v>0.01796477946944362</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0002610257037588725</v>
+        <v>0.002390345790400911</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05999543843927151</v>
+        <v>0.008997551444550134</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002246935280290594</v>
+        <v>0.003650717401890101</v>
       </c>
       <c r="N18" t="n">
-        <v>0.05244371778741339</v>
+        <v>0.02382258246632829</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04178058524329241</v>
+        <v>0.02474922446914527</v>
       </c>
       <c r="P18" t="n">
-        <v>0.06116430487280466</v>
+        <v>0.09029702135698554</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04221667666368042</v>
+        <v>0.0963048177678467</v>
       </c>
       <c r="R18" t="n">
-        <v>0.08017271084239778</v>
+        <v>0.02562366257626524</v>
       </c>
       <c r="S18" t="n">
-        <v>0.08612772646020943</v>
+        <v>0.09003565450075779</v>
       </c>
       <c r="T18" t="n">
-        <v>0.04164113935157003</v>
+        <v>0.0002699863100524096</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07204236571202824</v>
+        <v>0.04598084661437862</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0115783011617335</v>
+        <v>0.04807559846821131</v>
       </c>
       <c r="W18" t="n">
-        <v>0.07763583688778428</v>
+        <v>0.08295025063076066</v>
       </c>
       <c r="X18" t="n">
-        <v>0.04268872743988091</v>
+        <v>0.03915543575698644</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.06859491029385756</v>
+        <v>0.06486982173018394</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.07850505406335057</v>
+        <v>0.0594083877874323</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0007117527097128233</v>
+        <v>0.02192585019585013</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01684338826323686</v>
+        <v>0.02017492432130689</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.04696762116437764</v>
+        <v>0.04634951415079622</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.2255276318642324</v>
+        <v>0.2107690199401685</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04104063511142043</v>
+        <v>0.04055326318068776</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1125324446811835</v>
+        <v>0.00688050559768233</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07824278270493408</v>
+        <v>0.06141380628731481</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002500078599409327</v>
+        <v>0.05757485958982211</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07771953432904513</v>
+        <v>0.08168978525779233</v>
       </c>
       <c r="K19" t="n">
-        <v>0.007518782833767785</v>
+        <v>0.01511471861633014</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001643097062236558</v>
+        <v>0.04870437123450762</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03744107962169596</v>
+        <v>0.04871514177004242</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0003132495978329172</v>
+        <v>0.006659584904548665</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02839877630553988</v>
+        <v>0.007664269613618601</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0006021407963043152</v>
+        <v>0.0806550606285593</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.00300388508584991</v>
+        <v>0.03326417564517081</v>
       </c>
       <c r="R19" t="n">
-        <v>0.05871070041592297</v>
+        <v>0.05967855984028031</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1408413628267514</v>
+        <v>0.08847347611306554</v>
       </c>
       <c r="T19" t="n">
-        <v>0.008140583427442156</v>
+        <v>0.002080979654250936</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0620885259001118</v>
+        <v>0.01422087340758043</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1360233489852199</v>
+        <v>0.08803645670774389</v>
       </c>
       <c r="W19" t="n">
-        <v>0.03904446853340983</v>
+        <v>0.07638051800892379</v>
       </c>
       <c r="X19" t="n">
-        <v>0.03600452555379993</v>
+        <v>0.00365128092861715</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.004529070394034177</v>
+        <v>0.02853846865988442</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.03951663049733201</v>
+        <v>0.00956020560151959</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.04131728852442729</v>
+        <v>0.09439660716240883</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.04282700821232847</v>
+        <v>0.04609303158964841</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.09050917415670517</v>
+        <v>0.07526505416167774</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1461576388535602</v>
+        <v>0.1461714799566829</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03725835013364235</v>
+        <v>0.03934459984666128</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0433877033966269</v>
+        <v>0.001206881829908808</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05341247610208621</v>
+        <v>0.01477172499763813</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03325639663759211</v>
+        <v>0.04911494543277246</v>
       </c>
       <c r="J20" t="n">
-        <v>0.007831155143577857</v>
+        <v>0.0009658240247641144</v>
       </c>
       <c r="K20" t="n">
-        <v>0.004799707260444501</v>
+        <v>0.03985197842960313</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02364212717186987</v>
+        <v>0.05353335253795252</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01645033987849219</v>
+        <v>0.02354288403596952</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02608332458354709</v>
+        <v>0.002304133486778508</v>
       </c>
       <c r="O20" t="n">
-        <v>0.05346083164170305</v>
+        <v>0.05400656716791177</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03616475572020272</v>
+        <v>0.01463586202884285</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02427523006384238</v>
+        <v>0.01863386219571621</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1021633166088968</v>
+        <v>0.09165707905038914</v>
       </c>
       <c r="S20" t="n">
-        <v>0.08762353649817813</v>
+        <v>0.09277686897479269</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01790790918450125</v>
+        <v>0.02228012457587105</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04150745145965045</v>
+        <v>0.09043362568746642</v>
       </c>
       <c r="V20" t="n">
-        <v>0.04301498427851436</v>
+        <v>0.008406055757948516</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07349435727957102</v>
+        <v>0.09314793172109476</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1018168071582698</v>
+        <v>0.07974399079691087</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.06622728459340441</v>
+        <v>0.07271746510630339</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.09088789356799531</v>
+        <v>0.07994791961652449</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.009138168543337061</v>
+        <v>0.03028132108307521</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.006195893094054292</v>
+        <v>0.02669500161510419</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.1347105740814278</v>
+        <v>-0.1326812428403808</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.1824331585755122</v>
+        <v>0.1777230723289449</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1179559265959038</v>
+        <v>0.09753949202254746</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02812991317001163</v>
+        <v>0.005500726545068735</v>
       </c>
       <c r="H21" t="n">
-        <v>0.006078512403904029</v>
+        <v>0.01366296396361176</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03617855107651518</v>
+        <v>0.0514167525912911</v>
       </c>
       <c r="J21" t="n">
-        <v>0.07371157595681005</v>
+        <v>0.08621578069046848</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07628805147261788</v>
+        <v>0.04560941480001866</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1182116098841005</v>
+        <v>0.08086790851082622</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01036986278017228</v>
+        <v>0.01768789759554398</v>
       </c>
       <c r="N21" t="n">
-        <v>0.002309331903413777</v>
+        <v>0.04930757925699619</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01411815539728167</v>
+        <v>0.04855166959685491</v>
       </c>
       <c r="P21" t="n">
-        <v>0.02060030770617089</v>
+        <v>0.01673575134636905</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.005134974811530899</v>
+        <v>0.000685633390342886</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07985084244324697</v>
+        <v>0.1058953138398768</v>
       </c>
       <c r="S21" t="n">
-        <v>0.04610164701640991</v>
+        <v>0.07989593324639177</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0008636659586538086</v>
+        <v>0.01126379369341885</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0007793640658761784</v>
+        <v>0.02377055582708422</v>
       </c>
       <c r="V21" t="n">
-        <v>0.04652471694820887</v>
+        <v>0.02138002131136506</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0576775755412897</v>
+        <v>0.01945003066623447</v>
       </c>
       <c r="X21" t="n">
-        <v>0.01693997444720647</v>
+        <v>0.002632644305222514</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01723833227327968</v>
+        <v>0.01584833812348367</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.1102379382620693</v>
+        <v>0.04134536053489625</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.02920216950037571</v>
+        <v>0.06814690117460397</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.08549700038495089</v>
+        <v>0.09658953696748313</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.1814274514808068</v>
+        <v>-0.1787817762352114</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1819780830072208</v>
+        <v>0.1860304639127472</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1050950697293083</v>
+        <v>0.05254317088347896</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01155088341921145</v>
+        <v>0.01979904982589802</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02392948723915081</v>
+        <v>0.08450586858697352</v>
       </c>
       <c r="I22" t="n">
-        <v>0.004724546239743453</v>
+        <v>0.03247902353580551</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0005815233275303562</v>
+        <v>0.03195508924349376</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03702532120266067</v>
+        <v>0.0293257740475628</v>
       </c>
       <c r="L22" t="n">
-        <v>0.008232777515624023</v>
+        <v>0.007948702375946056</v>
       </c>
       <c r="M22" t="n">
-        <v>0.007351088743196806</v>
+        <v>0.03904729496053781</v>
       </c>
       <c r="N22" t="n">
-        <v>0.005558608640454007</v>
+        <v>0.01233047439850683</v>
       </c>
       <c r="O22" t="n">
-        <v>0.06729767581797313</v>
+        <v>0.07060912632616273</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1060381943658419</v>
+        <v>0.08789968922063862</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.04915587176506359</v>
+        <v>0.03542813443915124</v>
       </c>
       <c r="R22" t="n">
-        <v>0.08401786871171997</v>
+        <v>0.07421478134346113</v>
       </c>
       <c r="S22" t="n">
-        <v>0.01211386823830618</v>
+        <v>0.08291341961038194</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02779213113205245</v>
+        <v>0.01069169040410874</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07891149847626698</v>
+        <v>0.01401987834765668</v>
       </c>
       <c r="V22" t="n">
-        <v>0.003879627156491022</v>
+        <v>0.02738106666041022</v>
       </c>
       <c r="W22" t="n">
-        <v>0.101042613829175</v>
+        <v>0.09019445183342824</v>
       </c>
       <c r="X22" t="n">
-        <v>0.06673184371755135</v>
+        <v>0.03374160640132525</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.03102985631238252</v>
+        <v>0.0222059176061879</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.08551369449387941</v>
+        <v>0.08946009073766348</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.07505851579333608</v>
+        <v>0.002534127848869147</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.007367434133080573</v>
+        <v>0.04877157136235147</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.05261901734284584</v>
+        <v>0.05175422858573275</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2080625529540479</v>
+        <v>0.2002508572067454</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1178601361505055</v>
+        <v>0.004716787380578815</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001057507413059189</v>
+        <v>0.06137692063868018</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05229366926375328</v>
+        <v>0.07921054057720178</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01243134499791892</v>
+        <v>0.05147992671065398</v>
       </c>
       <c r="J23" t="n">
-        <v>0.006122991711017513</v>
+        <v>0.05429360690810751</v>
       </c>
       <c r="K23" t="n">
-        <v>0.06834168942988714</v>
+        <v>0.07551420617929852</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01501157091426647</v>
+        <v>0.00695186927323661</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00870770344241141</v>
+        <v>0.005769926770970912</v>
       </c>
       <c r="N23" t="n">
-        <v>0.007585777544869782</v>
+        <v>0.02107999432720709</v>
       </c>
       <c r="O23" t="n">
-        <v>0.04606895021643514</v>
+        <v>0.007135742485357472</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01467539664840851</v>
+        <v>0.08699911243967862</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.001382034284902274</v>
+        <v>0.02540694480587099</v>
       </c>
       <c r="R23" t="n">
-        <v>0.005195467831497745</v>
+        <v>0.07474609336645067</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0668083402480833</v>
+        <v>0.0857955958357037</v>
       </c>
       <c r="T23" t="n">
-        <v>0.06017985096857307</v>
+        <v>0.00596909545291269</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09730991081938085</v>
+        <v>0.01606192666521664</v>
       </c>
       <c r="V23" t="n">
-        <v>0.09810278241791755</v>
+        <v>0.03747934710432721</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0787613964841435</v>
+        <v>0.09263529024680528</v>
       </c>
       <c r="X23" t="n">
-        <v>0.02647853240628899</v>
+        <v>0.00495169568010973</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02578315947248818</v>
+        <v>0.01399828585098343</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.1158349428004051</v>
+        <v>0.08706621971876161</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.01670392338390947</v>
+        <v>0.01644329283242475</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.05730292114987696</v>
+        <v>0.08491757874946153</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.06932501484196557</v>
+        <v>0.04933480619631943</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1828947346278395</v>
+        <v>0.1832961550513266</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07707835133427078</v>
+        <v>0.08671659901814957</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0006406785200034895</v>
+        <v>0.002644519592140294</v>
       </c>
       <c r="H24" t="n">
-        <v>0.05802990564180875</v>
+        <v>0.007712667186497413</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04824658690651393</v>
+        <v>0.08216430536383441</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00701005667033594</v>
+        <v>0.02385597663356253</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002787670616319662</v>
+        <v>0.004989544076581573</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01666617985487887</v>
+        <v>0.03519773073279329</v>
       </c>
       <c r="M24" t="n">
-        <v>0.06312383144819347</v>
+        <v>0.0697146256778535</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01714742262996899</v>
+        <v>0.0086795193698829</v>
       </c>
       <c r="O24" t="n">
-        <v>0.08038200799249202</v>
+        <v>0.07151955046012165</v>
       </c>
       <c r="P24" t="n">
-        <v>0.06388578468642227</v>
+        <v>0.03287070410495986</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.05364384928518523</v>
+        <v>0.03964572320181655</v>
       </c>
       <c r="R24" t="n">
-        <v>0.06129994359542527</v>
+        <v>0.09567482739732117</v>
       </c>
       <c r="S24" t="n">
-        <v>0.06439122856514294</v>
+        <v>0.08154129430004085</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01230252387357806</v>
+        <v>0.04950737661003489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03612353872762496</v>
+        <v>0.04164672469385879</v>
       </c>
       <c r="V24" t="n">
-        <v>0.03459653059362968</v>
+        <v>0.008373066093258257</v>
       </c>
       <c r="W24" t="n">
-        <v>0.07831755019241143</v>
+        <v>0.03326901689371262</v>
       </c>
       <c r="X24" t="n">
-        <v>0.06766176645086597</v>
+        <v>0.003960161960373449</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.02612867503517535</v>
+        <v>0.002157801781088517</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.07224586798705725</v>
+        <v>0.09244166281784871</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.04442023032075251</v>
+        <v>0.1006975364206224</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01386981907194331</v>
+        <v>0.02501906561364679</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1226723250289478</v>
+        <v>0.1287733868815848</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.1941739011472666</v>
+        <v>0.1995242356319972</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1013640399876424</v>
+        <v>0.05176792768104481</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03139422487497322</v>
+        <v>0.00343955244350042</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04541241187736338</v>
+        <v>0.04575118618607179</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03864079175485962</v>
+        <v>0.02413578164910889</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02756978837267822</v>
+        <v>0.05767657414540021</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08024080940443301</v>
+        <v>0.03946780289470565</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03621125554323722</v>
+        <v>0.03982630880033854</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03036933336045901</v>
+        <v>0.0032554015572043</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0008042112578141403</v>
+        <v>0.0478049316584605</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0375251957995887</v>
+        <v>0.05674870566732673</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0781901141339056</v>
+        <v>0.005825823568382869</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02170202907672878</v>
+        <v>0.01283682635759583</v>
       </c>
       <c r="R25" t="n">
-        <v>0.04382549707917695</v>
+        <v>0.09657090673674965</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1004920707022596</v>
+        <v>0.08531272721759074</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01420385655393414</v>
+        <v>0.04510019776311642</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09243171096864984</v>
+        <v>0.06523924206284801</v>
       </c>
       <c r="V25" t="n">
-        <v>0.01940277130525327</v>
+        <v>0.08094427413371638</v>
       </c>
       <c r="W25" t="n">
-        <v>0.07070932751128552</v>
+        <v>0.08866484029628907</v>
       </c>
       <c r="X25" t="n">
-        <v>0.07096080034684001</v>
+        <v>0.03724221820430753</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.002244918434390457</v>
+        <v>0.0005001711889262422</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.008207483682783323</v>
+        <v>0.06688686248878409</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.004363667284750837</v>
+        <v>0.007150687704356784</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.04373369068699264</v>
+        <v>0.03785104959417469</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1493077044021539</v>
+        <v>0.1511457619266983</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.1918214674302343</v>
+        <v>0.186524599060089</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03059985970969207</v>
+        <v>0.02272361101561795</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0005371603398685274</v>
+        <v>0.04066092168457678</v>
       </c>
       <c r="H26" t="n">
-        <v>0.009690889742788795</v>
+        <v>0.05720411541955548</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01122107546240016</v>
+        <v>0.04506029829761366</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01341750982743994</v>
+        <v>0.008387538344321462</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0353702186895467</v>
+        <v>0.001842663002968574</v>
       </c>
       <c r="L26" t="n">
-        <v>0.04043889156229015</v>
+        <v>0.03220454427886493</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06397913128841842</v>
+        <v>0.05920158244420776</v>
       </c>
       <c r="N26" t="n">
-        <v>0.07509478522142589</v>
+        <v>0.001917061726121452</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04597424342792251</v>
+        <v>0.04698455615513453</v>
       </c>
       <c r="P26" t="n">
-        <v>0.03549298051720541</v>
+        <v>0.03963051550196924</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01753293281061594</v>
+        <v>0.004359012372218828</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1061450992139303</v>
+        <v>0.056955393034301</v>
       </c>
       <c r="S26" t="n">
-        <v>0.08388133385867443</v>
+        <v>0.09676003996405415</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0003150584559706832</v>
+        <v>0.006324340324302035</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08351517040442787</v>
+        <v>0.09154027543691159</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01543889558295573</v>
+        <v>0.01417438460215231</v>
       </c>
       <c r="W26" t="n">
-        <v>0.04640863334868093</v>
+        <v>0.08924827932035051</v>
       </c>
       <c r="X26" t="n">
-        <v>0.02641785502701554</v>
+        <v>0.0619690604131471</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.06918925648925826</v>
+        <v>0.06183244159425685</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.09695099911076333</v>
+        <v>0.07571813390707893</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.06446931013286353</v>
+        <v>0.07580248081222672</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.02791870977584495</v>
+        <v>0.009498750348048222</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.01306939669855223</v>
+        <v>0.02983327101816859</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2181442187929341</v>
+        <v>0.2029307375934574</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0853503606579397</v>
+        <v>0.08887857194444453</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06375168492604856</v>
+        <v>0.00317719791050642</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02343197776187856</v>
+        <v>0.001046044012305652</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0249531739831391</v>
+        <v>0.07072472946799782</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0121429090968646</v>
+        <v>0.05012248365833413</v>
       </c>
       <c r="K27" t="n">
-        <v>0.08052677164101285</v>
+        <v>0.05691399781173391</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01675749937773063</v>
+        <v>0.008650699733680005</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01856302736429499</v>
+        <v>0.04701204922764702</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01257571515071033</v>
+        <v>0.007559883932798718</v>
       </c>
       <c r="O27" t="n">
-        <v>0.06975900931307337</v>
+        <v>0.09669823473600496</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03018191148644908</v>
+        <v>0.03333073429129808</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.006657950775583914</v>
+        <v>0.007550954227925294</v>
       </c>
       <c r="R27" t="n">
-        <v>0.0178283802752062</v>
+        <v>0.06192604735394796</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0161444784124034</v>
+        <v>0.001991170645960102</v>
       </c>
       <c r="T27" t="n">
-        <v>0.04208714329188205</v>
+        <v>0.01036008717942002</v>
       </c>
       <c r="U27" t="n">
-        <v>0.08282253056343271</v>
+        <v>0.05560936748952366</v>
       </c>
       <c r="V27" t="n">
-        <v>0.005424382560203076</v>
+        <v>0.01672768613770791</v>
       </c>
       <c r="W27" t="n">
-        <v>0.06838941820089194</v>
+        <v>0.09472468806430837</v>
       </c>
       <c r="X27" t="n">
-        <v>0.04809735161833253</v>
+        <v>0.09042937139279122</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.03375331778969467</v>
+        <v>0.02148404310462779</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.07857916004522308</v>
+        <v>0.06325545042607129</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.08395771083511411</v>
+        <v>0.07358803617188735</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.07826413487289051</v>
+        <v>0.03823847107907779</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.03943618632810681</v>
+        <v>0.05327939712502726</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1884578944397022</v>
+        <v>0.1906318987347699</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09089126133864903</v>
+        <v>0.0839055954521844</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01114521335516311</v>
+        <v>0.06220361884387153</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07652347123051861</v>
+        <v>0.01203927112022598</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03554280238281977</v>
+        <v>0.03075360377361776</v>
       </c>
       <c r="J28" t="n">
-        <v>0.04761917023613911</v>
+        <v>0.0007195732248896282</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0178852464712556</v>
+        <v>0.01812528641326068</v>
       </c>
       <c r="L28" t="n">
-        <v>0.001399589901084819</v>
+        <v>0.03444353696257046</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07212364894731556</v>
+        <v>0.02376137263371857</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01270394588245006</v>
+        <v>0.004564172895296563</v>
       </c>
       <c r="O28" t="n">
-        <v>0.06287401542447311</v>
+        <v>0.05893390453374515</v>
       </c>
       <c r="P28" t="n">
-        <v>0.08197304009913842</v>
+        <v>0.0592566984279143</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02284418108638568</v>
+        <v>0.0959398343489809</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06511725069050073</v>
+        <v>0.09130521287649168</v>
       </c>
       <c r="S28" t="n">
-        <v>0.06704644326146192</v>
+        <v>0.0853519896711467</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01502066925528255</v>
+        <v>0.004326910030729486</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03551827591488525</v>
+        <v>0.02116616656181136</v>
       </c>
       <c r="V28" t="n">
-        <v>0.001059388939467766</v>
+        <v>0.02993168079384015</v>
       </c>
       <c r="W28" t="n">
-        <v>0.08182757704328888</v>
+        <v>0.03136881166260122</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01684561812923838</v>
+        <v>0.009325487419623326</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.04131599174080228</v>
+        <v>0.04737889736923701</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.04835665949482356</v>
+        <v>0.107439965437398</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.08155440450990546</v>
+        <v>0.05800319787684948</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01281213466495036</v>
+        <v>0.02975521166999555</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1664323537527924</v>
+        <v>0.1565250412759756</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2161545292013436</v>
+        <v>0.219772408756185</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06244220529184848</v>
+        <v>0.06835400553982726</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06797323390673872</v>
+        <v>0.003343899840355739</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01680578950994877</v>
+        <v>0.07165293196620376</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0672725998541459</v>
+        <v>0.05651482342966382</v>
       </c>
       <c r="J29" t="n">
-        <v>0.04134219474390809</v>
+        <v>0.05447716290710515</v>
       </c>
       <c r="K29" t="n">
-        <v>0.09679875497707142</v>
+        <v>0.08709275310727013</v>
       </c>
       <c r="L29" t="n">
-        <v>0.005923429020230107</v>
+        <v>0.04195776654073884</v>
       </c>
       <c r="M29" t="n">
-        <v>0.005615874648953989</v>
+        <v>0.02364099933832991</v>
       </c>
       <c r="N29" t="n">
-        <v>0.04224314299288982</v>
+        <v>0.0002018066024702906</v>
       </c>
       <c r="O29" t="n">
-        <v>0.06863575052245792</v>
+        <v>0.07473081197929644</v>
       </c>
       <c r="P29" t="n">
-        <v>0.008225579941061972</v>
+        <v>0.02012604519769717</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.0116675338541637</v>
+        <v>0.003548903837754093</v>
       </c>
       <c r="R29" t="n">
-        <v>0.04215093551171318</v>
+        <v>0.03923942376822717</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1110211619415744</v>
+        <v>0.008506687025049071</v>
       </c>
       <c r="T29" t="n">
-        <v>0.05185755007626921</v>
+        <v>0.06457438403069397</v>
       </c>
       <c r="U29" t="n">
-        <v>0.006986863979671209</v>
+        <v>0.07226409605783016</v>
       </c>
       <c r="V29" t="n">
-        <v>0.009282697727491076</v>
+        <v>0.01576952541701267</v>
       </c>
       <c r="W29" t="n">
-        <v>0.09186842481094325</v>
+        <v>0.08468219966410855</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0584482727603255</v>
+        <v>0.07643061479002229</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.008167384331358923</v>
+        <v>0.02182966753000314</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.05059481795685646</v>
+        <v>0.02413259391757975</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.04478711326894061</v>
+        <v>0.04666686286740101</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.02988868837143738</v>
+        <v>0.0402620346453595</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.1787430016161869</v>
+        <v>0.1886110414476004</v>
       </c>
     </row>
     <row r="30">
@@ -3255,79 +3255,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1404082895556819</v>
+        <v>0.1410504248384952</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04064723775770091</v>
+        <v>0.07379297364177394</v>
       </c>
       <c r="G30" t="n">
-        <v>0.006918006589597985</v>
+        <v>0.01554790403255315</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05228314422359177</v>
+        <v>0.05906928256611176</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01892804246092684</v>
+        <v>0.027412530370267</v>
       </c>
       <c r="J30" t="n">
-        <v>0.02294468977206064</v>
+        <v>0.02576459228942257</v>
       </c>
       <c r="K30" t="n">
-        <v>0.00049126365551213</v>
+        <v>0.001417269149372546</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02728019824561296</v>
+        <v>0.06984370324220637</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0103572886576843</v>
+        <v>0.04396909255389972</v>
       </c>
       <c r="N30" t="n">
-        <v>0.03889157663352504</v>
+        <v>0.0009927699505454597</v>
       </c>
       <c r="O30" t="n">
-        <v>0.08474105727746518</v>
+        <v>0.0558227766994056</v>
       </c>
       <c r="P30" t="n">
-        <v>0.02192253071039006</v>
+        <v>0.04411841472825143</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.07155817719991106</v>
+        <v>0.01561321918214632</v>
       </c>
       <c r="R30" t="n">
-        <v>0.09581477688401746</v>
+        <v>0.09103891321317172</v>
       </c>
       <c r="S30" t="n">
-        <v>0.08685678401157802</v>
+        <v>0.04032991497594957</v>
       </c>
       <c r="T30" t="n">
-        <v>0.05044522728236662</v>
+        <v>0.02282987869950351</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07367936414243317</v>
+        <v>0.08423870490702789</v>
       </c>
       <c r="V30" t="n">
-        <v>0.03207275676547035</v>
+        <v>0.01504028139849724</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1101601356218165</v>
+        <v>0.08711952189184197</v>
       </c>
       <c r="X30" t="n">
-        <v>0.004720588781962055</v>
+        <v>0.03693292091015835</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.01681642496489759</v>
+        <v>0.02642966962441542</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.002185364626208236</v>
+        <v>0.09436374245991591</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.1247781574544873</v>
+        <v>0.03206982526285544</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.005507206280783824</v>
+        <v>0.03624209825070718</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.0175873875460136</v>
+        <v>0.006772946851218597</v>
       </c>
     </row>
     <row r="31">
@@ -3350,79 +3350,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.1524053823674601</v>
+        <v>0.1644942982051806</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09291668479828037</v>
+        <v>0.05864074204161018</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02738199292793578</v>
+        <v>0.03007952074271204</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01989854919151183</v>
+        <v>0.01852120836488868</v>
       </c>
       <c r="I31" t="n">
-        <v>0.08074946221237651</v>
+        <v>0.07204893367469191</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01693484454698976</v>
+        <v>0.05529341508498728</v>
       </c>
       <c r="K31" t="n">
-        <v>0.06542417362945695</v>
+        <v>0.09964936999090016</v>
       </c>
       <c r="L31" t="n">
-        <v>0.06091903359134744</v>
+        <v>0.05297745394989637</v>
       </c>
       <c r="M31" t="n">
-        <v>0.003351431481189091</v>
+        <v>0.02116981647026378</v>
       </c>
       <c r="N31" t="n">
-        <v>0.004246070058052464</v>
+        <v>0.003051031275269002</v>
       </c>
       <c r="O31" t="n">
-        <v>0.05745799663375189</v>
+        <v>0.1199513658140768</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0860085147745496</v>
+        <v>0.03790093702480652</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01086855434276926</v>
+        <v>0.005996724659172566</v>
       </c>
       <c r="R31" t="n">
-        <v>0.05816273396170482</v>
+        <v>0.07373662715059524</v>
       </c>
       <c r="S31" t="n">
-        <v>0.08671140773216388</v>
+        <v>0.04313836262247123</v>
       </c>
       <c r="T31" t="n">
-        <v>0.005321742687972169</v>
+        <v>0.01666010591217881</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05053766909092107</v>
+        <v>0.07564702017464243</v>
       </c>
       <c r="V31" t="n">
-        <v>0.02621309465172688</v>
+        <v>0.07688867162642016</v>
       </c>
       <c r="W31" t="n">
-        <v>0.07247522223917946</v>
+        <v>0.01315222960077415</v>
       </c>
       <c r="X31" t="n">
-        <v>0.05384795190494607</v>
+        <v>0.03224502570555899</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0004894945432441337</v>
+        <v>0.001521201848618254</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.04521387892593125</v>
+        <v>0.009263390680655166</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.04204300372556458</v>
+        <v>0.03031918356640316</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.03282649234843483</v>
+        <v>0.05214766201840721</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.005230933186639667</v>
+        <v>0.0293334441588024</v>
       </c>
     </row>
     <row r="32">
@@ -3445,79 +3445,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1256869053682919</v>
+        <v>0.1256589891809694</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01867868394926331</v>
+        <v>0.02627966054944666</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0001588712187954402</v>
+        <v>0.01159966771368275</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05341752726561633</v>
+        <v>0.02817837981313743</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01327283333422023</v>
+        <v>0.02182446324225124</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05084518844154994</v>
+        <v>0.02224103930758153</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0339626527803419</v>
+        <v>0.02728462920331902</v>
       </c>
       <c r="L32" t="n">
-        <v>0.002622849811705594</v>
+        <v>0.04357318482534923</v>
       </c>
       <c r="M32" t="n">
-        <v>0.06063678383600053</v>
+        <v>0.06319004000346609</v>
       </c>
       <c r="N32" t="n">
-        <v>0.05691165670348437</v>
+        <v>0.004874834789614844</v>
       </c>
       <c r="O32" t="n">
-        <v>0.001762568268416967</v>
+        <v>0.01774746728649538</v>
       </c>
       <c r="P32" t="n">
-        <v>0.08224740154958093</v>
+        <v>0.07198508808924686</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.09727239048475898</v>
+        <v>0.06586338065960899</v>
       </c>
       <c r="R32" t="n">
-        <v>0.09439500696348328</v>
+        <v>0.07644415112387917</v>
       </c>
       <c r="S32" t="n">
-        <v>0.08453596812106469</v>
+        <v>0.07120439989975599</v>
       </c>
       <c r="T32" t="n">
-        <v>0.02708759600240017</v>
+        <v>0.02195838192558537</v>
       </c>
       <c r="U32" t="n">
-        <v>0.02546228522748875</v>
+        <v>0.05158273992477067</v>
       </c>
       <c r="V32" t="n">
-        <v>0.002819571103575936</v>
+        <v>0.03829404734141983</v>
       </c>
       <c r="W32" t="n">
-        <v>0.04214259782388693</v>
+        <v>0.07510097541641282</v>
       </c>
       <c r="X32" t="n">
-        <v>0.05097335013742669</v>
+        <v>0.08237832038291376</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.07979881201149965</v>
+        <v>0.06639556228359424</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.0957081038353973</v>
+        <v>0.04305328236692282</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.01038098245855716</v>
+        <v>0.05846617557980688</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.01490631867148505</v>
+        <v>0.01048012827173848</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.01110160209664757</v>
+        <v>0.02168183125740182</v>
       </c>
     </row>
     <row r="33">
@@ -3540,79 +3540,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1396261302118292</v>
+        <v>0.1440111569789137</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01841419440294274</v>
+        <v>0.03465315883613454</v>
       </c>
       <c r="G33" t="n">
-        <v>0.003937854738486659</v>
+        <v>0.03397710101038101</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01887588128865568</v>
+        <v>0.05298691266005313</v>
       </c>
       <c r="I33" t="n">
-        <v>0.100860413467909</v>
+        <v>0.02749690930720418</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0349184048225142</v>
+        <v>0.07882496875317312</v>
       </c>
       <c r="K33" t="n">
-        <v>0.09944135354239179</v>
+        <v>0.08803928679344931</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02279545523978825</v>
+        <v>0.08298456139662513</v>
       </c>
       <c r="M33" t="n">
-        <v>0.07360600603799668</v>
+        <v>0.03591407502792286</v>
       </c>
       <c r="N33" t="n">
-        <v>0.01287718970717098</v>
+        <v>0.0007165067180477953</v>
       </c>
       <c r="O33" t="n">
-        <v>0.02218132869554344</v>
+        <v>0.01804902197841649</v>
       </c>
       <c r="P33" t="n">
-        <v>0.06153014296483317</v>
+        <v>0.09137455174171942</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.05968460530608404</v>
+        <v>0.03342938703450071</v>
       </c>
       <c r="R33" t="n">
-        <v>0.03520901016313421</v>
+        <v>0.01295176564846457</v>
       </c>
       <c r="S33" t="n">
-        <v>0.09416946538132399</v>
+        <v>0.04611164399880732</v>
       </c>
       <c r="T33" t="n">
-        <v>0.07274676845339619</v>
+        <v>0.06622550660648438</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1052883328476107</v>
+        <v>0.0880221724267746</v>
       </c>
       <c r="V33" t="n">
-        <v>0.007101247223335874</v>
+        <v>0.0465283371124417</v>
       </c>
       <c r="W33" t="n">
-        <v>0.06113343323846569</v>
+        <v>0.08641748706936872</v>
       </c>
       <c r="X33" t="n">
-        <v>0.02077017589754895</v>
+        <v>0.01679293272145645</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.000895508555609256</v>
+        <v>0.006575751364511933</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.01615828567623092</v>
+        <v>0.006088747609480284</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.02440801287221378</v>
+        <v>0.03553464380067187</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.03299692947681354</v>
+        <v>0.01030457038391057</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.0361957371914133</v>
+        <v>0.01112141651027694</v>
       </c>
     </row>
     <row r="34">
@@ -3635,79 +3635,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1343116529568051</v>
+        <v>0.1338834392504309</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07160954976596223</v>
+        <v>0.04100628766446902</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01822087938439977</v>
+        <v>0.03378920118802008</v>
       </c>
       <c r="H34" t="n">
-        <v>0.02390283653930491</v>
+        <v>0.09051009277871042</v>
       </c>
       <c r="I34" t="n">
-        <v>0.006714602330833336</v>
+        <v>0.01161722891278445</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02179467364765014</v>
+        <v>0.03369264573919475</v>
       </c>
       <c r="K34" t="n">
-        <v>0.003268839235317656</v>
+        <v>0.03546088476096691</v>
       </c>
       <c r="L34" t="n">
-        <v>0.05759150936979779</v>
+        <v>0.009201096349016122</v>
       </c>
       <c r="M34" t="n">
-        <v>0.07998666324976765</v>
+        <v>0.0334702100553716</v>
       </c>
       <c r="N34" t="n">
-        <v>0.007655526990587134</v>
+        <v>0.05478601960020167</v>
       </c>
       <c r="O34" t="n">
-        <v>0.03450182609990121</v>
+        <v>0.04357229683521287</v>
       </c>
       <c r="P34" t="n">
-        <v>0.01564949581786513</v>
+        <v>0.01199197686161638</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.07977731919779529</v>
+        <v>0.07470978720387643</v>
       </c>
       <c r="R34" t="n">
-        <v>0.07898149934940288</v>
+        <v>0.09338387838588605</v>
       </c>
       <c r="S34" t="n">
-        <v>0.04151008369143347</v>
+        <v>0.01409602379671538</v>
       </c>
       <c r="T34" t="n">
-        <v>0.05614167187612026</v>
+        <v>0.01147355788107342</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05497131766023335</v>
+        <v>0.0905382194411474</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0496325855475145</v>
+        <v>0.04260570116955151</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01940365128523189</v>
+        <v>0.01304766815808672</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0716561707940908</v>
+        <v>0.03321807457928398</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.05198331458591518</v>
+        <v>0.04690161717136294</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.06107703895688898</v>
+        <v>0.081372673732376</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.06633816909318273</v>
+        <v>0.03718696276941285</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.02763077553080383</v>
+        <v>0.06236789496566313</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.1045133421858203</v>
+        <v>0.09955773566323552</v>
       </c>
     </row>
     <row r="35">
@@ -3730,79 +3730,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.1557176298683254</v>
+        <v>0.1520658760725819</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001936801089025938</v>
+        <v>0.01720427425813722</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09606738969528068</v>
+        <v>0.04888312769447387</v>
       </c>
       <c r="H35" t="n">
-        <v>0.06610115548759894</v>
+        <v>0.05480952463711632</v>
       </c>
       <c r="I35" t="n">
-        <v>0.08571507920843431</v>
+        <v>0.09295945852780513</v>
       </c>
       <c r="J35" t="n">
-        <v>0.05679956589782824</v>
+        <v>0.03003738225359965</v>
       </c>
       <c r="K35" t="n">
-        <v>0.08042429354478532</v>
+        <v>0.08814035429929197</v>
       </c>
       <c r="L35" t="n">
-        <v>0.06117963069508583</v>
+        <v>0.005252346772297022</v>
       </c>
       <c r="M35" t="n">
-        <v>0.01391914819123934</v>
+        <v>0.08235855546597137</v>
       </c>
       <c r="N35" t="n">
-        <v>0.01169774618395768</v>
+        <v>0.01275502252632429</v>
       </c>
       <c r="O35" t="n">
-        <v>0.03890862046985226</v>
+        <v>0.01320795375552593</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0004055343564546574</v>
+        <v>0.03000165675350629</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.04245988416587113</v>
+        <v>0.02797579005500271</v>
       </c>
       <c r="R35" t="n">
-        <v>0.06538441231155805</v>
+        <v>0.07850763184446449</v>
       </c>
       <c r="S35" t="n">
-        <v>0.09911988464945087</v>
+        <v>0.08731520694915465</v>
       </c>
       <c r="T35" t="n">
-        <v>0.03959187725292748</v>
+        <v>0.03926181309708192</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02962402191420392</v>
+        <v>0.08104380227628752</v>
       </c>
       <c r="V35" t="n">
-        <v>0.05053651235088827</v>
+        <v>0.03916464685385931</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0680812919731949</v>
+        <v>0.08195286368120697</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0002183028715803935</v>
+        <v>0.02519475092715497</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.00430228369486929</v>
+        <v>0.04655423854575372</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01904887838695501</v>
+        <v>0.01574973467598718</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.009091521312131666</v>
+        <v>0.0006099594151532027</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.05938616429682582</v>
+        <v>0.001059904734844108</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.1550642366618276</v>
+        <v>0.1514573519863638</v>
       </c>
     </row>
     <row r="36">
@@ -3825,79 +3825,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1430336475752194</v>
+        <v>0.1424842210353991</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01315323800903525</v>
+        <v>0.05209930656357294</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04510468553775928</v>
+        <v>0.0134362962326805</v>
       </c>
       <c r="H36" t="n">
-        <v>0.001915702398355942</v>
+        <v>0.05295507536506355</v>
       </c>
       <c r="I36" t="n">
-        <v>0.007484014848190826</v>
+        <v>0.00689607592021789</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01329045940066668</v>
+        <v>0.02760957594926938</v>
       </c>
       <c r="K36" t="n">
-        <v>0.001111085790454408</v>
+        <v>0.01278335403162699</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03802617118258915</v>
+        <v>0.005499696618665382</v>
       </c>
       <c r="M36" t="n">
-        <v>0.04857264964342441</v>
+        <v>0.09560374810999567</v>
       </c>
       <c r="N36" t="n">
-        <v>0.08614799666970961</v>
+        <v>0.05525859194949458</v>
       </c>
       <c r="O36" t="n">
-        <v>0.09649559487516153</v>
+        <v>0.009447237265000961</v>
       </c>
       <c r="P36" t="n">
-        <v>0.001300371773933741</v>
+        <v>0.03779016163914512</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.06483808976430097</v>
+        <v>0.09107035565362723</v>
       </c>
       <c r="R36" t="n">
-        <v>0.09763367596875826</v>
+        <v>0.05747155439609027</v>
       </c>
       <c r="S36" t="n">
-        <v>0.08996262218775955</v>
+        <v>0.09174876060537823</v>
       </c>
       <c r="T36" t="n">
-        <v>0.05768912472679149</v>
+        <v>0.005088370830592315</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06190207444121025</v>
+        <v>0.07636776437553558</v>
       </c>
       <c r="V36" t="n">
-        <v>0.004508000084647733</v>
+        <v>0.04504355003197768</v>
       </c>
       <c r="W36" t="n">
-        <v>0.04849992631242485</v>
+        <v>0.02542723824998493</v>
       </c>
       <c r="X36" t="n">
-        <v>0.08156231809157168</v>
+        <v>0.05875955825238613</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.009036752962809641</v>
+        <v>0.03769713793695775</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.023090575707525</v>
+        <v>0.08050871042423152</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.07303199508313592</v>
+        <v>0.05728371173228832</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.03564287453978374</v>
+        <v>0.004154167866217079</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.02455152958931067</v>
+        <v>-0.006401564910383272</v>
       </c>
     </row>
     <row r="37">
@@ -3920,79 +3920,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1608000509915114</v>
+        <v>0.1644330710512442</v>
       </c>
       <c r="F37" t="n">
-        <v>8.520222229803968e-05</v>
+        <v>0.002066020554301189</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07468593465975595</v>
+        <v>0.06442130358436446</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01682233099604153</v>
+        <v>0.01687459639199363</v>
       </c>
       <c r="I37" t="n">
-        <v>0.07582816491257356</v>
+        <v>0.07735998351758867</v>
       </c>
       <c r="J37" t="n">
-        <v>0.006257431142388549</v>
+        <v>0.001500158773884492</v>
       </c>
       <c r="K37" t="n">
-        <v>0.003293334380988236</v>
+        <v>0.07631146420082539</v>
       </c>
       <c r="L37" t="n">
-        <v>0.06509572691219075</v>
+        <v>0.1169989331152019</v>
       </c>
       <c r="M37" t="n">
-        <v>0.08356076813907681</v>
+        <v>0.001767776205200471</v>
       </c>
       <c r="N37" t="n">
-        <v>0.04161408545008411</v>
+        <v>0.01451468138708982</v>
       </c>
       <c r="O37" t="n">
-        <v>0.02783373204774719</v>
+        <v>0.03996136356323853</v>
       </c>
       <c r="P37" t="n">
-        <v>0.08835047425760863</v>
+        <v>0.03011192784895697</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02250210051739253</v>
+        <v>0.004234752536661765</v>
       </c>
       <c r="R37" t="n">
-        <v>0.08314814820954612</v>
+        <v>0.0293821820989889</v>
       </c>
       <c r="S37" t="n">
-        <v>0.08668577934220738</v>
+        <v>0.1386324741862166</v>
       </c>
       <c r="T37" t="n">
-        <v>0.08887129185969893</v>
+        <v>0.07521615459443695</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009824573466222872</v>
+        <v>0.007363929813089853</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0694063077860782</v>
+        <v>0.1072780904109833</v>
       </c>
       <c r="W37" t="n">
-        <v>0.03233657249439619</v>
+        <v>0.08098383650667552</v>
       </c>
       <c r="X37" t="n">
-        <v>0.00216135926790783</v>
+        <v>0.02425918426854251</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.04673060423605946</v>
+        <v>0.04177437976762215</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01653197390257908</v>
+        <v>0.01189986525013751</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.05467526313456553</v>
+        <v>0.03114126130381861</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.003698840662592564</v>
+        <v>0.005945680120180716</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.005798861160164953</v>
+        <v>0.005124345175291234</v>
       </c>
     </row>
     <row r="38">
@@ -4015,79 +4015,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1717276360747435</v>
+        <v>0.171637362490368</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07898808167489345</v>
+        <v>0.07845839322085896</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07321843187131798</v>
+        <v>0.0829273749385037</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01348688969895697</v>
+        <v>0.03069009597747773</v>
       </c>
       <c r="I38" t="n">
-        <v>0.001610008423878113</v>
+        <v>0.001704800952287506</v>
       </c>
       <c r="J38" t="n">
-        <v>0.03309956802758379</v>
+        <v>0.07850730204290576</v>
       </c>
       <c r="K38" t="n">
-        <v>0.03985523844233823</v>
+        <v>0.003993814701153681</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02919051540754044</v>
+        <v>0.002732254846685542</v>
       </c>
       <c r="M38" t="n">
-        <v>0.06530412025099545</v>
+        <v>0.04486985182498149</v>
       </c>
       <c r="N38" t="n">
-        <v>0.05216078325033042</v>
+        <v>0.02687380021575009</v>
       </c>
       <c r="O38" t="n">
-        <v>0.03964369880826589</v>
+        <v>0.03060237384897184</v>
       </c>
       <c r="P38" t="n">
-        <v>0.05357337499517855</v>
+        <v>0.02741519879855573</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01390429218594529</v>
+        <v>0.006353266189225128</v>
       </c>
       <c r="R38" t="n">
-        <v>0.07758215278214993</v>
+        <v>0.07078685148111689</v>
       </c>
       <c r="S38" t="n">
-        <v>0.07830837438929382</v>
+        <v>0.02789275180036807</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01373346825462956</v>
+        <v>0.0926202855121598</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06771097642010936</v>
+        <v>0.0646883981497441</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0278859874773456</v>
+        <v>0.04194983490694473</v>
       </c>
       <c r="W38" t="n">
-        <v>0.05108926949208805</v>
+        <v>0.02514515323676864</v>
       </c>
       <c r="X38" t="n">
-        <v>0.07002450542067799</v>
+        <v>0.07154467462923915</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.01803029558089171</v>
+        <v>0.007438333671953902</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.01299145878438902</v>
+        <v>0.09126815920680939</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.07058250875040059</v>
+        <v>0.06631349214112879</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.01802599961079975</v>
+        <v>0.0252235377064094</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.03111867945447207</v>
+        <v>-0.03547773085368686</v>
       </c>
     </row>
     <row r="39">
@@ -4110,79 +4110,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.181869276857337</v>
+        <v>0.1811108082766398</v>
       </c>
       <c r="F39" t="n">
-        <v>0.07697476911688959</v>
+        <v>0.07688033206549037</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05261545696357522</v>
+        <v>0.0007503204596668741</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02173544264306196</v>
+        <v>0.03068837041071337</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01393404968608021</v>
+        <v>0.02958533754616816</v>
       </c>
       <c r="J39" t="n">
-        <v>0.09868428315145852</v>
+        <v>0.07465208412273946</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0815572932877206</v>
+        <v>0.04798408696073694</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0006221937233273899</v>
+        <v>0.01303327514549242</v>
       </c>
       <c r="M39" t="n">
-        <v>0.08827256305000945</v>
+        <v>0.06730218526218897</v>
       </c>
       <c r="N39" t="n">
-        <v>0.03801803444829262</v>
+        <v>0.0268734907150481</v>
       </c>
       <c r="O39" t="n">
-        <v>0.008290231896248819</v>
+        <v>0.0312702277606432</v>
       </c>
       <c r="P39" t="n">
-        <v>0.05386610285642601</v>
+        <v>0.08496380204527139</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.004380078031567774</v>
+        <v>0.002328675207834163</v>
       </c>
       <c r="R39" t="n">
-        <v>0.09038472523311501</v>
+        <v>0.02610986184429175</v>
       </c>
       <c r="S39" t="n">
-        <v>0.09889770449572623</v>
+        <v>0.08558663995370236</v>
       </c>
       <c r="T39" t="n">
-        <v>0.03150588330018735</v>
+        <v>0.01656623928199777</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06435874119328686</v>
+        <v>0.08424848348702513</v>
       </c>
       <c r="V39" t="n">
-        <v>0.07298865653967757</v>
+        <v>0.08028867788285618</v>
       </c>
       <c r="W39" t="n">
-        <v>0.03470784727887845</v>
+        <v>0.04530866028865964</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0100683290609524</v>
+        <v>0.04926905695433244</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.02462063403392198</v>
+        <v>0.009431902974006165</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.01895558045682388</v>
+        <v>0.08106011468141765</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.004222284906744395</v>
+        <v>0.03300697738763508</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.01033911464602779</v>
+        <v>0.0028111975620826</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.0394331035231104</v>
+        <v>-0.02552474354254478</v>
       </c>
     </row>
     <row r="40">
@@ -4205,79 +4205,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1977937898610522</v>
+        <v>0.1929549817201867</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01644815915917325</v>
+        <v>0.03324489801147355</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06548027477983905</v>
+        <v>0.09938320024672505</v>
       </c>
       <c r="H40" t="n">
-        <v>0.003015924015323428</v>
+        <v>0.04664358433960188</v>
       </c>
       <c r="I40" t="n">
-        <v>0.06132330290073361</v>
+        <v>0.04467322698932931</v>
       </c>
       <c r="J40" t="n">
-        <v>0.004206602349824466</v>
+        <v>0.002914282714678872</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0002286831741290672</v>
+        <v>0.007231813220259784</v>
       </c>
       <c r="L40" t="n">
-        <v>0.006073655233550209</v>
+        <v>0.004327598949632163</v>
       </c>
       <c r="M40" t="n">
-        <v>0.07419189480648195</v>
+        <v>0.008978538858435926</v>
       </c>
       <c r="N40" t="n">
-        <v>0.01546656856449767</v>
+        <v>0.006067983859036151</v>
       </c>
       <c r="O40" t="n">
-        <v>0.03972778882436932</v>
+        <v>0.1329614221193083</v>
       </c>
       <c r="P40" t="n">
-        <v>0.01102865802863652</v>
+        <v>0.005161628433031189</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.004182435923288262</v>
+        <v>0.006172438570166441</v>
       </c>
       <c r="R40" t="n">
-        <v>0.08508605416755753</v>
+        <v>0.01273470300586552</v>
       </c>
       <c r="S40" t="n">
-        <v>0.05488424074034828</v>
+        <v>0.05372059261550882</v>
       </c>
       <c r="T40" t="n">
-        <v>0.04013168182206155</v>
+        <v>0.001149247466540304</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05293656129732244</v>
+        <v>0.08475015850573474</v>
       </c>
       <c r="V40" t="n">
-        <v>0.04652025876489793</v>
+        <v>0.0443311946917757</v>
       </c>
       <c r="W40" t="n">
-        <v>0.06844459724289276</v>
+        <v>0.1257039188264298</v>
       </c>
       <c r="X40" t="n">
-        <v>0.08139642792070008</v>
+        <v>0.1209874600090917</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.08812457860091642</v>
+        <v>0.003332863279188455</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.08677618821629586</v>
+        <v>0.06323543391204302</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.07764496361323904</v>
+        <v>0.06961540376259355</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.01668049985392119</v>
+        <v>0.02267840761354957</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.1134933648714189</v>
+        <v>0.1546745746402088</v>
       </c>
     </row>
     <row r="41">
@@ -4300,79 +4300,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2026935304704136</v>
+        <v>0.2103638138903968</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08507381965016571</v>
+        <v>0.09419174707688138</v>
       </c>
       <c r="G41" t="n">
-        <v>0.006348310484116903</v>
+        <v>0.02960206957963293</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03161644462165927</v>
+        <v>0.01665535040125677</v>
       </c>
       <c r="I41" t="n">
-        <v>0.004260766405134897</v>
+        <v>0.01918151602836006</v>
       </c>
       <c r="J41" t="n">
-        <v>0.01194585845505176</v>
+        <v>0.001621831984741704</v>
       </c>
       <c r="K41" t="n">
-        <v>0.05242620707560423</v>
+        <v>0.08629276371090676</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0220804922026654</v>
+        <v>0.07010053993252999</v>
       </c>
       <c r="M41" t="n">
-        <v>0.06879938430686183</v>
+        <v>0.07409603433459611</v>
       </c>
       <c r="N41" t="n">
-        <v>0.02002485539396903</v>
+        <v>0.005509769771209178</v>
       </c>
       <c r="O41" t="n">
-        <v>0.06784920951564495</v>
+        <v>0.008142769837203308</v>
       </c>
       <c r="P41" t="n">
-        <v>0.08242770617321719</v>
+        <v>0.001629356693933983</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01179034557075998</v>
+        <v>0.02545543371575615</v>
       </c>
       <c r="R41" t="n">
-        <v>0.0370730511759348</v>
+        <v>0.03232369160473431</v>
       </c>
       <c r="S41" t="n">
-        <v>0.09294978044823818</v>
+        <v>0.07691855305473567</v>
       </c>
       <c r="T41" t="n">
-        <v>0.09026060146273465</v>
+        <v>0.04788857492408018</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08067945482272688</v>
+        <v>0.04426216653695726</v>
       </c>
       <c r="V41" t="n">
-        <v>0.02403567943479854</v>
+        <v>0.07721737833357499</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01877203193578022</v>
+        <v>0.0117795759669504</v>
       </c>
       <c r="X41" t="n">
-        <v>0.09053796645059116</v>
+        <v>0.0961808031587148</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.001547354772145386</v>
+        <v>0.03861848263987681</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.06378857161476201</v>
+        <v>0.07483971268546293</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.03177696320848211</v>
+        <v>0.04957583405493147</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.003935144818954837</v>
+        <v>0.01791604397297298</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.1409621644333986</v>
+        <v>0.1312344590601114</v>
       </c>
     </row>
     <row r="42">
@@ -4395,79 +4395,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.1875283265354875</v>
+        <v>0.1886763793791319</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06125184411843297</v>
+        <v>0.0759304731296848</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07286859218368602</v>
+        <v>0.001846055449939358</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05882883616505329</v>
+        <v>0.03038882187453076</v>
       </c>
       <c r="I42" t="n">
-        <v>0.06062925445214242</v>
+        <v>0.00813428139321499</v>
       </c>
       <c r="J42" t="n">
-        <v>0.006852789379764542</v>
+        <v>0.02534055526531899</v>
       </c>
       <c r="K42" t="n">
-        <v>0.05206913147754232</v>
+        <v>0.08407273372570033</v>
       </c>
       <c r="L42" t="n">
-        <v>0.01825305224724723</v>
+        <v>0.004965826499803313</v>
       </c>
       <c r="M42" t="n">
-        <v>0.05062799631238488</v>
+        <v>0.0781777827080494</v>
       </c>
       <c r="N42" t="n">
-        <v>0.02090511678070043</v>
+        <v>0.001748544337007133</v>
       </c>
       <c r="O42" t="n">
-        <v>0.1069192156509311</v>
+        <v>0.03007283583383512</v>
       </c>
       <c r="P42" t="n">
-        <v>0.008627392226282825</v>
+        <v>0.07983264580207237</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.005525927909039908</v>
+        <v>0.05870418813139339</v>
       </c>
       <c r="R42" t="n">
-        <v>0.05613570694273174</v>
+        <v>0.09426650937396142</v>
       </c>
       <c r="S42" t="n">
-        <v>0.08160424692847211</v>
+        <v>0.01962386981635979</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0207059005616808</v>
+        <v>0.002278482332770611</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05293690273735979</v>
+        <v>0.05288108770786497</v>
       </c>
       <c r="V42" t="n">
-        <v>0.02861987688256288</v>
+        <v>0.003219648497048738</v>
       </c>
       <c r="W42" t="n">
-        <v>0.009511479384824995</v>
+        <v>0.08023344937597862</v>
       </c>
       <c r="X42" t="n">
-        <v>0.115130608617122</v>
+        <v>0.1052756683473492</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.009047698022967487</v>
+        <v>0.04871829280228784</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.08845153128330717</v>
+        <v>0.01842829852213729</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.01330773514059612</v>
+        <v>0.08591538626924634</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.001189164595167191</v>
+        <v>0.009944562804445098</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.04307247894072651</v>
+        <v>0.05454724696877319</v>
       </c>
     </row>
     <row r="43">
@@ -4490,79 +4490,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.1995699909725167</v>
+        <v>0.1957891688187234</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1137357549213965</v>
+        <v>0.0943319367785434</v>
       </c>
       <c r="G43" t="n">
-        <v>0.006575786536109325</v>
+        <v>0.02102530493490285</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05379757243585236</v>
+        <v>0.04745471739585199</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02664569942900994</v>
+        <v>0.05364211297953182</v>
       </c>
       <c r="J43" t="n">
-        <v>0.06144270571278186</v>
+        <v>0.003705754139400434</v>
       </c>
       <c r="K43" t="n">
-        <v>0.02913200243336979</v>
+        <v>0.03702925299761062</v>
       </c>
       <c r="L43" t="n">
-        <v>0.003714562501638128</v>
+        <v>0.007101640760551476</v>
       </c>
       <c r="M43" t="n">
-        <v>0.00779880880598327</v>
+        <v>0.004177596559719382</v>
       </c>
       <c r="N43" t="n">
-        <v>0.001984620621692656</v>
+        <v>0.03226670654220157</v>
       </c>
       <c r="O43" t="n">
-        <v>0.007391875576726641</v>
+        <v>0.09613613921630872</v>
       </c>
       <c r="P43" t="n">
-        <v>0.06203550863018881</v>
+        <v>0.0139549788722055</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.004459969007465169</v>
+        <v>0.01384416557806015</v>
       </c>
       <c r="R43" t="n">
-        <v>0.09466092311085772</v>
+        <v>0.06074358119719032</v>
       </c>
       <c r="S43" t="n">
-        <v>0.09482634797793853</v>
+        <v>0.047519829869397</v>
       </c>
       <c r="T43" t="n">
-        <v>0.05464905634859941</v>
+        <v>0.06629917223217506</v>
       </c>
       <c r="U43" t="n">
-        <v>0.008942513733277455</v>
+        <v>0.009503063023588052</v>
       </c>
       <c r="V43" t="n">
-        <v>0.05604278199060689</v>
+        <v>0.0738109392854743</v>
       </c>
       <c r="W43" t="n">
-        <v>0.07419625119431443</v>
+        <v>0.0860896619619706</v>
       </c>
       <c r="X43" t="n">
-        <v>0.001097461108652881</v>
+        <v>0.008293531276275553</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.08515748318625653</v>
+        <v>0.03236768706131304</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.01848587415956864</v>
+        <v>0.07876043284317671</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.1308277392333266</v>
+        <v>0.1070816014193612</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.002398701344386542</v>
+        <v>0.004860193075190363</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.04919240017730598</v>
+        <v>0.05109018977713883</v>
       </c>
     </row>
     <row r="44">
@@ -4585,79 +4585,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.1721996529097578</v>
+        <v>0.1724599723772852</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09310489615581503</v>
+        <v>0.07510749786847495</v>
       </c>
       <c r="G44" t="n">
-        <v>0.008304477789051485</v>
+        <v>0.06408777807029518</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03775051441392455</v>
+        <v>0.05249572442537449</v>
       </c>
       <c r="I44" t="n">
-        <v>0.04392074274143967</v>
+        <v>0.04387033689226823</v>
       </c>
       <c r="J44" t="n">
-        <v>0.004765909003013924</v>
+        <v>0.00972582306917584</v>
       </c>
       <c r="K44" t="n">
-        <v>0.05488597449825882</v>
+        <v>0.01087140435821302</v>
       </c>
       <c r="L44" t="n">
-        <v>0.005517443588283581</v>
+        <v>0.02574262243491085</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04754055494077623</v>
+        <v>0.05361823321684277</v>
       </c>
       <c r="N44" t="n">
-        <v>0.02488906411182962</v>
+        <v>0.0077829225873959</v>
       </c>
       <c r="O44" t="n">
-        <v>0.08145516016578873</v>
+        <v>0.04358363054882591</v>
       </c>
       <c r="P44" t="n">
-        <v>0.1007096366419119</v>
+        <v>0.03712133713182426</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.02987689943267055</v>
+        <v>0.003074170463726663</v>
       </c>
       <c r="R44" t="n">
-        <v>0.08936181913098824</v>
+        <v>0.07730260638406347</v>
       </c>
       <c r="S44" t="n">
-        <v>0.08363754248578721</v>
+        <v>0.01813612153779324</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0377952337593451</v>
+        <v>0.05625203198370242</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08897121082522512</v>
+        <v>0.07433699058470114</v>
       </c>
       <c r="V44" t="n">
-        <v>0.01021273330167728</v>
+        <v>0.0184094262750462</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01189774711513808</v>
+        <v>0.07984672396775291</v>
       </c>
       <c r="X44" t="n">
-        <v>0.05918760570180082</v>
+        <v>0.05987156800664342</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0006578562727489957</v>
+        <v>0.01855053906322399</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.02466453134461158</v>
+        <v>0.08165385629104538</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.04633055263970416</v>
+        <v>0.04208175967424625</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.0145618939402095</v>
+        <v>0.04647689516445345</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.007254000188639382</v>
+        <v>0.01435164219241896</v>
       </c>
     </row>
     <row r="45">
@@ -4680,79 +4680,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.1882357730780445</v>
+        <v>0.1856487505695796</v>
       </c>
       <c r="F45" t="n">
-        <v>0.09052578217843955</v>
+        <v>0.07331870203038568</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02425247768982754</v>
+        <v>0.07292038195217442</v>
       </c>
       <c r="H45" t="n">
-        <v>0.09755549676246883</v>
+        <v>0.04637696453486224</v>
       </c>
       <c r="I45" t="n">
-        <v>0.05877462416847217</v>
+        <v>0.0852437591963618</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0275428955175811</v>
+        <v>0.01743728555422216</v>
       </c>
       <c r="K45" t="n">
-        <v>0.00784430165554998</v>
+        <v>0.002716189738026339</v>
       </c>
       <c r="L45" t="n">
-        <v>0.004881643989518051</v>
+        <v>0.008592135947938789</v>
       </c>
       <c r="M45" t="n">
-        <v>0.001147460985752846</v>
+        <v>0.02434717641738483</v>
       </c>
       <c r="N45" t="n">
-        <v>0.009060239417023958</v>
+        <v>0.0009337334561728402</v>
       </c>
       <c r="O45" t="n">
-        <v>0.08140465772692539</v>
+        <v>0.07974661067194781</v>
       </c>
       <c r="P45" t="n">
-        <v>0.02317698184830938</v>
+        <v>0.009476198280433589</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.01297766012521205</v>
+        <v>0.0307178698216236</v>
       </c>
       <c r="R45" t="n">
-        <v>0.05387575501503635</v>
+        <v>0.04132276484027107</v>
       </c>
       <c r="S45" t="n">
-        <v>0.005376509238517651</v>
+        <v>0.01610130869456167</v>
       </c>
       <c r="T45" t="n">
-        <v>0.04326322071826069</v>
+        <v>0.08404793802311765</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05579364051915231</v>
+        <v>0.02550507237994357</v>
       </c>
       <c r="V45" t="n">
-        <v>0.08065783020708255</v>
+        <v>0.0375710620468416</v>
       </c>
       <c r="W45" t="n">
-        <v>0.008989719477530734</v>
+        <v>0.02840535354702163</v>
       </c>
       <c r="X45" t="n">
-        <v>0.01558194875101233</v>
+        <v>0.02621099007047475</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1002130992018167</v>
+        <v>0.09401185714511372</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.07418352893123011</v>
+        <v>0.0994110380168073</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.1035379452580436</v>
+        <v>0.0867898720302018</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.0193825806172363</v>
+        <v>0.00879573560411114</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.03211203376219979</v>
+        <v>0.02124831308924308</v>
       </c>
     </row>
     <row r="46">
@@ -4775,79 +4775,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.1362961238521452</v>
+        <v>0.1381443131444857</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07799460106889657</v>
+        <v>0.07855861546963305</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06843463863308354</v>
+        <v>0.06971262202660337</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04791156289239788</v>
+        <v>0.002904581951641315</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0400690011865197</v>
+        <v>0.001364629646769164</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01347396569532313</v>
+        <v>0.03884691278422752</v>
       </c>
       <c r="K46" t="n">
-        <v>0.01447589529248364</v>
+        <v>0.06677556722123523</v>
       </c>
       <c r="L46" t="n">
-        <v>0.04720682573537335</v>
+        <v>0.00519882240938173</v>
       </c>
       <c r="M46" t="n">
-        <v>0.06011531579127522</v>
+        <v>0.08359827749228618</v>
       </c>
       <c r="N46" t="n">
-        <v>0.02606630242114734</v>
+        <v>0.0132155611386393</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0323172575966342</v>
+        <v>0.03610975772720749</v>
       </c>
       <c r="P46" t="n">
-        <v>0.09347671768027967</v>
+        <v>0.05703918006842504</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.01070675781104004</v>
+        <v>0.003180283872680593</v>
       </c>
       <c r="R46" t="n">
-        <v>0.05256071124488046</v>
+        <v>0.08877180139390312</v>
       </c>
       <c r="S46" t="n">
-        <v>0.06930021941403475</v>
+        <v>0.02916058005923346</v>
       </c>
       <c r="T46" t="n">
-        <v>0.002121507439434516</v>
+        <v>0.003722503317166795</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08909676909572946</v>
+        <v>0.07910081458910813</v>
       </c>
       <c r="V46" t="n">
-        <v>0.00072284305728689</v>
+        <v>0.05067757671102521</v>
       </c>
       <c r="W46" t="n">
-        <v>0.05839817029828891</v>
+        <v>0.07588196333863066</v>
       </c>
       <c r="X46" t="n">
-        <v>0.09149769150457661</v>
+        <v>0.07994751891661787</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.01675410881258487</v>
+        <v>0.005639898599185409</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.06205009274025407</v>
+        <v>0.07358540235458023</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.02021040565475151</v>
+        <v>0.04306154135695464</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.005038638933723572</v>
+        <v>0.01394558755486467</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.04015776746095814</v>
+        <v>-0.02827203165444766</v>
       </c>
     </row>
     <row r="47">
@@ -4870,79 +4870,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.154757643054842</v>
+        <v>0.1528290062440417</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1100534644375484</v>
+        <v>0.10349592827977</v>
       </c>
       <c r="G47" t="n">
-        <v>0.028914960711083</v>
+        <v>0.08130227611709155</v>
       </c>
       <c r="H47" t="n">
-        <v>0.00150084473053192</v>
+        <v>0.05408357558068369</v>
       </c>
       <c r="I47" t="n">
-        <v>0.006964317262583403</v>
+        <v>0.005904856785703696</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0568768507256399</v>
+        <v>0.02854914906205568</v>
       </c>
       <c r="K47" t="n">
-        <v>0.06013560051928997</v>
+        <v>0.08384748313603084</v>
       </c>
       <c r="L47" t="n">
-        <v>0.03553768785630704</v>
+        <v>0.001856805534701372</v>
       </c>
       <c r="M47" t="n">
-        <v>0.08535321315720577</v>
+        <v>0.06501395827206286</v>
       </c>
       <c r="N47" t="n">
-        <v>3.929552177515429e-05</v>
+        <v>0.01679473600485454</v>
       </c>
       <c r="O47" t="n">
-        <v>0.05508433970513233</v>
+        <v>0.000801416191384957</v>
       </c>
       <c r="P47" t="n">
-        <v>0.02706578790482923</v>
+        <v>0.05612139589562477</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.1262660950524002</v>
+        <v>0.0643862926959623</v>
       </c>
       <c r="R47" t="n">
-        <v>0.02129605008886377</v>
+        <v>0.03487300778751014</v>
       </c>
       <c r="S47" t="n">
-        <v>0.01179485165357323</v>
+        <v>0.01381040316941175</v>
       </c>
       <c r="T47" t="n">
-        <v>0.002245690670531235</v>
+        <v>0.002408355969826606</v>
       </c>
       <c r="U47" t="n">
-        <v>0.01393220442024299</v>
+        <v>0.02290395922717403</v>
       </c>
       <c r="V47" t="n">
-        <v>0.1122210201282901</v>
+        <v>0.07300126898096823</v>
       </c>
       <c r="W47" t="n">
-        <v>0.03018496683548347</v>
+        <v>0.007990436207548428</v>
       </c>
       <c r="X47" t="n">
-        <v>0.04206192483571907</v>
+        <v>0.02160538170424252</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.05476941911544631</v>
+        <v>0.09961160759740972</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.05168911190606305</v>
+        <v>0.08124287603254465</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.05682270738169214</v>
+        <v>0.05951899713240984</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.009189595379768104</v>
+        <v>0.02087583263502762</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.02065584211507861</v>
+        <v>-0.01197462943645966</v>
       </c>
     </row>
     <row r="48">
@@ -4965,79 +4965,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1112869183247465</v>
+        <v>0.1116095470507925</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07178094655987351</v>
+        <v>0.08040882351273922</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06644308602242908</v>
+        <v>0.005425931918350217</v>
       </c>
       <c r="H48" t="n">
-        <v>0.04310458277234695</v>
+        <v>0.005695449005296466</v>
       </c>
       <c r="I48" t="n">
-        <v>0.02688518124137623</v>
+        <v>0.02575214295851996</v>
       </c>
       <c r="J48" t="n">
-        <v>0.00842186291866753</v>
+        <v>0.07387400836795908</v>
       </c>
       <c r="K48" t="n">
-        <v>0.01343159226169597</v>
+        <v>0.07195928525666358</v>
       </c>
       <c r="L48" t="n">
-        <v>0.01496577131032215</v>
+        <v>0.009484247845480638</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1012014972429822</v>
+        <v>0.04473436168477599</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0004477008934100832</v>
+        <v>0.005145718283580188</v>
       </c>
       <c r="O48" t="n">
-        <v>0.02025428175921931</v>
+        <v>0.00307726285261147</v>
       </c>
       <c r="P48" t="n">
-        <v>0.08683237785534927</v>
+        <v>0.0947633024670916</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.01583951402932856</v>
+        <v>0.01883272936809533</v>
       </c>
       <c r="R48" t="n">
-        <v>0.05784063538286834</v>
+        <v>0.01054134240850086</v>
       </c>
       <c r="S48" t="n">
-        <v>0.05632863589692595</v>
+        <v>0.05024212531186624</v>
       </c>
       <c r="T48" t="n">
-        <v>0.01812759585901655</v>
+        <v>0.06348547606194245</v>
       </c>
       <c r="U48" t="n">
-        <v>0.04298406888617359</v>
+        <v>0.09929395611571754</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01488991808046658</v>
+        <v>0.00438802280169351</v>
       </c>
       <c r="W48" t="n">
-        <v>0.09861735196336556</v>
+        <v>0.0518815156868247</v>
       </c>
       <c r="X48" t="n">
-        <v>0.07294019710126774</v>
+        <v>0.07481374560035167</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.04167713340217657</v>
+        <v>0.05307049571060069</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.08581195984331151</v>
+        <v>0.05670894766521507</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.03718346459872354</v>
+        <v>0.09052055735143723</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.003990644118703391</v>
+        <v>0.00590055176468627</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.1084693622622364</v>
+        <v>-0.1265432889806382</v>
       </c>
     </row>
     <row r="49">
@@ -5060,79 +5060,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1189064334880289</v>
+        <v>0.1236998341714523</v>
       </c>
       <c r="F49" t="n">
-        <v>0.05437868079186186</v>
+        <v>0.02514952617481885</v>
       </c>
       <c r="G49" t="n">
-        <v>0.09927931571268635</v>
+        <v>0.01915084764911881</v>
       </c>
       <c r="H49" t="n">
-        <v>0.005402562503422887</v>
+        <v>0.007893760745067936</v>
       </c>
       <c r="I49" t="n">
-        <v>0.004643615104551403</v>
+        <v>0.04927166244211331</v>
       </c>
       <c r="J49" t="n">
-        <v>0.01719313261782583</v>
+        <v>0.03684595156555727</v>
       </c>
       <c r="K49" t="n">
-        <v>0.06972763229885169</v>
+        <v>0.0472406297379855</v>
       </c>
       <c r="L49" t="n">
-        <v>0.01837615870187402</v>
+        <v>0.0170899051967861</v>
       </c>
       <c r="M49" t="n">
-        <v>0.09592841830483001</v>
+        <v>0.05983736489232397</v>
       </c>
       <c r="N49" t="n">
-        <v>0.02800937319307348</v>
+        <v>0.01520943895663187</v>
       </c>
       <c r="O49" t="n">
-        <v>0.03812981357169545</v>
+        <v>0.06090332990008783</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0262001152123452</v>
+        <v>0.0001538569664677969</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.09009719621174234</v>
+        <v>0.07159396085908547</v>
       </c>
       <c r="R49" t="n">
-        <v>0.01860314878196081</v>
+        <v>0.09112390114536413</v>
       </c>
       <c r="S49" t="n">
-        <v>0.009957848812634966</v>
+        <v>0.008822550857164506</v>
       </c>
       <c r="T49" t="n">
-        <v>0.04355842365115947</v>
+        <v>0.0003175773166460468</v>
       </c>
       <c r="U49" t="n">
-        <v>0.03895720342939491</v>
+        <v>0.007937936536849575</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0140961793364496</v>
+        <v>0.08688577075134866</v>
       </c>
       <c r="W49" t="n">
-        <v>0.02291955928070993</v>
+        <v>0.05820406183587198</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0619743528382189</v>
+        <v>0.01384341629574827</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.1107803138031323</v>
+        <v>0.09962633468686652</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.04488897631970862</v>
+        <v>0.09260213382646168</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.05454424675129652</v>
+        <v>0.06219954215163118</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.03235373277057353</v>
+        <v>0.06809653951000293</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.1122169959382314</v>
+        <v>-0.1584548893929209</v>
       </c>
     </row>
     <row r="50">
@@ -5155,79 +5155,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1206609525164125</v>
+        <v>0.1208364080071257</v>
       </c>
       <c r="F50" t="n">
-        <v>0.07819437309695637</v>
+        <v>0.09434548535417632</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01553532472409436</v>
+        <v>0.002769658117353841</v>
       </c>
       <c r="H50" t="n">
-        <v>0.03400213920468537</v>
+        <v>0.05197489914373364</v>
       </c>
       <c r="I50" t="n">
-        <v>0.02681340588505488</v>
+        <v>0.008366364910761955</v>
       </c>
       <c r="J50" t="n">
-        <v>0.09014630144103784</v>
+        <v>0.09031454318050823</v>
       </c>
       <c r="K50" t="n">
-        <v>0.009203215683888105</v>
+        <v>0.01104475171438452</v>
       </c>
       <c r="L50" t="n">
-        <v>0.009964679589941603</v>
+        <v>0.03421299794376778</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0947622482548955</v>
+        <v>0.08355643652314972</v>
       </c>
       <c r="N50" t="n">
-        <v>0.001653515265176952</v>
+        <v>0.008448310267164142</v>
       </c>
       <c r="O50" t="n">
-        <v>0.06899246332637167</v>
+        <v>0.03637037168269107</v>
       </c>
       <c r="P50" t="n">
-        <v>0.09826430647638658</v>
+        <v>0.1028300358342032</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.09569424856457256</v>
+        <v>0.03584670565737579</v>
       </c>
       <c r="R50" t="n">
-        <v>0.002395018828304361</v>
+        <v>0.004627115469927454</v>
       </c>
       <c r="S50" t="n">
-        <v>0.03019321407368211</v>
+        <v>0.02214435751096556</v>
       </c>
       <c r="T50" t="n">
-        <v>0.009823989093189659</v>
+        <v>0.04208544578287206</v>
       </c>
       <c r="U50" t="n">
-        <v>0.03467153592587893</v>
+        <v>0.01493669953069052</v>
       </c>
       <c r="V50" t="n">
-        <v>0.01805568587636526</v>
+        <v>0.01834707141103105</v>
       </c>
       <c r="W50" t="n">
-        <v>0.06136418928012979</v>
+        <v>0.05651113871781517</v>
       </c>
       <c r="X50" t="n">
-        <v>0.04186522690367531</v>
+        <v>0.09091067365708654</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.001393859725249468</v>
+        <v>0.01015167244629392</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.03541197359161365</v>
+        <v>0.06971518338361976</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.05346631530311638</v>
+        <v>0.09834292974656841</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.08813276988573344</v>
+        <v>0.01214715201385949</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1088196670903853</v>
+        <v>0.1301788591129626</v>
       </c>
     </row>
     <row r="51">
@@ -5250,79 +5250,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1283224776448562</v>
+        <v>0.1224929922401327</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1046977985154228</v>
+        <v>0.07556557164667024</v>
       </c>
       <c r="G51" t="n">
-        <v>0.001682204983536067</v>
+        <v>0.07775810326517803</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03547757408077113</v>
+        <v>0.04135907725364343</v>
       </c>
       <c r="I51" t="n">
-        <v>0.002576434221504218</v>
+        <v>0.0159569022275121</v>
       </c>
       <c r="J51" t="n">
-        <v>0.09709704321472999</v>
+        <v>0.04943896325521739</v>
       </c>
       <c r="K51" t="n">
-        <v>0.01598478258071399</v>
+        <v>0.006155985747988214</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0115876633756769</v>
+        <v>0.05761975609008139</v>
       </c>
       <c r="M51" t="n">
-        <v>0.06557649662731992</v>
+        <v>0.0729351920127759</v>
       </c>
       <c r="N51" t="n">
-        <v>0.02112136780582758</v>
+        <v>0.0002868159624851351</v>
       </c>
       <c r="O51" t="n">
-        <v>0.02846820306962292</v>
+        <v>0.01082715423526722</v>
       </c>
       <c r="P51" t="n">
-        <v>0.002185411999217507</v>
+        <v>0.05014363143560348</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.05960114794886022</v>
+        <v>0.07426925668395132</v>
       </c>
       <c r="R51" t="n">
-        <v>0.06109243488345809</v>
+        <v>0.06439447847996001</v>
       </c>
       <c r="S51" t="n">
-        <v>0.02629417915976563</v>
+        <v>0.02537094699192505</v>
       </c>
       <c r="T51" t="n">
-        <v>0.01240021717974511</v>
+        <v>0.0271707812462269</v>
       </c>
       <c r="U51" t="n">
-        <v>0.02397600073749321</v>
+        <v>0.03996068538276567</v>
       </c>
       <c r="V51" t="n">
-        <v>0.03553590481765305</v>
+        <v>0.006234494567983391</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1351878690748265</v>
+        <v>0.06747994546769219</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0705456062350006</v>
+        <v>0.06873984856565718</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.1114301736928324</v>
+        <v>0.07183608893152488</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.02283781752158099</v>
+        <v>0.06724483178642035</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.005794682528295457</v>
+        <v>0.01985386813790692</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.0488489857461458</v>
+        <v>0.009397620625563709</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1185356089760428</v>
+        <v>0.1404532754250782</v>
       </c>
     </row>
     <row r="52">
@@ -5345,79 +5345,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1203257397044963</v>
+        <v>0.1187897905032018</v>
       </c>
       <c r="F52" t="n">
-        <v>0.003420636013351071</v>
+        <v>0.009285961706322119</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02897240795540123</v>
+        <v>0.02526622813625643</v>
       </c>
       <c r="H52" t="n">
-        <v>0.043242274911254</v>
+        <v>0.01051879018168276</v>
       </c>
       <c r="I52" t="n">
-        <v>0.03894218827632967</v>
+        <v>0.0441682229341356</v>
       </c>
       <c r="J52" t="n">
-        <v>0.04461055962234184</v>
+        <v>0.0281312926249285</v>
       </c>
       <c r="K52" t="n">
-        <v>0.01440597970841318</v>
+        <v>0.01483256198081601</v>
       </c>
       <c r="L52" t="n">
-        <v>0.02024056511668186</v>
+        <v>0.08617007803974634</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0544909610151196</v>
+        <v>0.05346863168458019</v>
       </c>
       <c r="N52" t="n">
-        <v>0.006017862038931858</v>
+        <v>0.01128496846149236</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0516996559422794</v>
+        <v>0.07311509038909789</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0577512939699553</v>
+        <v>0.07810310615321908</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.08081779957817017</v>
+        <v>0.09093850543755561</v>
       </c>
       <c r="R52" t="n">
-        <v>0.006432927028914305</v>
+        <v>0.01403591087934271</v>
       </c>
       <c r="S52" t="n">
-        <v>0.04654777326790342</v>
+        <v>0.01510066488587438</v>
       </c>
       <c r="T52" t="n">
-        <v>0.06189839134556228</v>
+        <v>0.05987666151524614</v>
       </c>
       <c r="U52" t="n">
-        <v>0.07674064933600044</v>
+        <v>0.07628874182242136</v>
       </c>
       <c r="V52" t="n">
-        <v>0.0324343175286274</v>
+        <v>0.03938677805697818</v>
       </c>
       <c r="W52" t="n">
-        <v>0.08649948410595121</v>
+        <v>0.09062686954837541</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0696391447836523</v>
+        <v>0.06194299062382486</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.05785806041616789</v>
+        <v>0.05042964154949853</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.03350620113611152</v>
+        <v>0.0183926125922379</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.02173586106612495</v>
+        <v>0.02046702842830377</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.06209500583675508</v>
+        <v>0.02816866236806382</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.07675877230262534</v>
+        <v>0.06976199292737169</v>
       </c>
     </row>
     <row r="53">
@@ -5440,79 +5440,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1352862600476086</v>
+        <v>0.1395936052466538</v>
       </c>
       <c r="F53" t="n">
-        <v>0.06968443591304491</v>
+        <v>0.08223371908144499</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01073100229691308</v>
+        <v>0.02367740194620046</v>
       </c>
       <c r="H53" t="n">
-        <v>0.06916429495881181</v>
+        <v>0.05276037120545302</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01571077193982538</v>
+        <v>0.009587929579750815</v>
       </c>
       <c r="J53" t="n">
-        <v>0.002701742301115254</v>
+        <v>0.01879154119463837</v>
       </c>
       <c r="K53" t="n">
-        <v>0.01740228534854995</v>
+        <v>0.008447438325654151</v>
       </c>
       <c r="L53" t="n">
-        <v>0.04035237796954834</v>
+        <v>0.02779375472886884</v>
       </c>
       <c r="M53" t="n">
-        <v>0.1024694727733093</v>
+        <v>0.1012472835942034</v>
       </c>
       <c r="N53" t="n">
-        <v>0.004080304658341408</v>
+        <v>0.06901503129578407</v>
       </c>
       <c r="O53" t="n">
-        <v>0.01096269418366637</v>
+        <v>0.01708664986696179</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0663303135670464</v>
+        <v>0.04732210803423188</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.05410534641561965</v>
+        <v>0.003432548177500938</v>
       </c>
       <c r="R53" t="n">
-        <v>0.08784163488596784</v>
+        <v>0.05567814457908587</v>
       </c>
       <c r="S53" t="n">
-        <v>0.01067508792039551</v>
+        <v>0.01352026789681997</v>
       </c>
       <c r="T53" t="n">
-        <v>0.03269117084482324</v>
+        <v>0.03181080401663455</v>
       </c>
       <c r="U53" t="n">
-        <v>0.03537303585655988</v>
+        <v>0.07109320461128328</v>
       </c>
       <c r="V53" t="n">
-        <v>0.0194299791922767</v>
+        <v>0.001500597762341718</v>
       </c>
       <c r="W53" t="n">
-        <v>0.06479459595118477</v>
+        <v>0.02260272115032539</v>
       </c>
       <c r="X53" t="n">
-        <v>0.05033293509355276</v>
+        <v>0.06593057563769725</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.08108008172841083</v>
+        <v>0.09340844734723606</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.09995809177379544</v>
+        <v>0.09850936439405743</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.001669288749341894</v>
+        <v>0.01083874437948221</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.0524590556778993</v>
+        <v>0.07371135119434347</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.05606922361620155</v>
+        <v>0.06682192648760603</v>
       </c>
     </row>
     <row r="54">
@@ -5535,79 +5535,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1225285117451796</v>
+        <v>0.1232998274102994</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0245082816678057</v>
+        <v>0.01834109443854301</v>
       </c>
       <c r="G54" t="n">
-        <v>0.002581194016443045</v>
+        <v>0.08829800718119979</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1029283666534669</v>
+        <v>0.0111230823574381</v>
       </c>
       <c r="I54" t="n">
-        <v>0.02526996388258787</v>
+        <v>0.01507718471344538</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0433577524814151</v>
+        <v>0.0424100824467594</v>
       </c>
       <c r="K54" t="n">
-        <v>0.005851272295652006</v>
+        <v>0.02777432869565949</v>
       </c>
       <c r="L54" t="n">
-        <v>0.03275921687784179</v>
+        <v>0.05970461804701617</v>
       </c>
       <c r="M54" t="n">
-        <v>0.07057976200723923</v>
+        <v>0.08999772035252696</v>
       </c>
       <c r="N54" t="n">
-        <v>0.009402923435788173</v>
+        <v>0.002420302863654363</v>
       </c>
       <c r="O54" t="n">
-        <v>0.01018040957650163</v>
+        <v>0.0186840582796771</v>
       </c>
       <c r="P54" t="n">
-        <v>0.1000700219779109</v>
+        <v>0.07941854488846736</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.108230981176037</v>
+        <v>0.08160287749871903</v>
       </c>
       <c r="R54" t="n">
-        <v>0.01523635850427854</v>
+        <v>0.001454452127766699</v>
       </c>
       <c r="S54" t="n">
-        <v>0.04010167144629416</v>
+        <v>0.04853788012327764</v>
       </c>
       <c r="T54" t="n">
-        <v>0.03031897129802635</v>
+        <v>0.0401681654539423</v>
       </c>
       <c r="U54" t="n">
-        <v>0.06621201255575865</v>
+        <v>0.08397452802304291</v>
       </c>
       <c r="V54" t="n">
-        <v>0.01923607787756144</v>
+        <v>0.006456842148347676</v>
       </c>
       <c r="W54" t="n">
-        <v>0.05687087195982553</v>
+        <v>0.05421879435630582</v>
       </c>
       <c r="X54" t="n">
-        <v>0.04099771608993284</v>
+        <v>0.06017619733819836</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.0560386468714728</v>
+        <v>0.01892985569604022</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.02197785774416451</v>
+        <v>0.09883406999307361</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.0872501314262807</v>
+        <v>0.03297977582862023</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.03003953817771518</v>
+        <v>0.01941753714827861</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.08980706975416811</v>
+        <v>-0.09505533539415029</v>
       </c>
     </row>
     <row r="55">
@@ -5630,79 +5630,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.1264389149453866</v>
+        <v>0.1403718862893404</v>
       </c>
       <c r="F55" t="n">
-        <v>0.04132955839032478</v>
+        <v>0.07358377181284252</v>
       </c>
       <c r="G55" t="n">
-        <v>0.001208230480234945</v>
+        <v>0.1070406750620016</v>
       </c>
       <c r="H55" t="n">
-        <v>0.03815985687537075</v>
+        <v>0.09220888108138915</v>
       </c>
       <c r="I55" t="n">
-        <v>0.04194671417445188</v>
+        <v>0.01723914943443089</v>
       </c>
       <c r="J55" t="n">
-        <v>0.009103614950159534</v>
+        <v>0.004274956943023099</v>
       </c>
       <c r="K55" t="n">
-        <v>0.002627516613853242</v>
+        <v>0.007082136763459075</v>
       </c>
       <c r="L55" t="n">
-        <v>0.01056395044859028</v>
+        <v>0.01468150346821178</v>
       </c>
       <c r="M55" t="n">
-        <v>0.07252112019701491</v>
+        <v>0.101550320924191</v>
       </c>
       <c r="N55" t="n">
-        <v>0.01660294857144754</v>
+        <v>0.003253468313135394</v>
       </c>
       <c r="O55" t="n">
-        <v>0.09000598894906094</v>
+        <v>0.07812914051466772</v>
       </c>
       <c r="P55" t="n">
-        <v>0.07491542068852862</v>
+        <v>0.01292107773394659</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.02191141564583807</v>
+        <v>0.007329099566060123</v>
       </c>
       <c r="R55" t="n">
-        <v>0.05637438943405073</v>
+        <v>5.662852195971744e-06</v>
       </c>
       <c r="S55" t="n">
-        <v>0.0263013128637863</v>
+        <v>0.01374963747787089</v>
       </c>
       <c r="T55" t="n">
-        <v>0.08747847084374451</v>
+        <v>0.06056864242017686</v>
       </c>
       <c r="U55" t="n">
-        <v>0.02128453646996017</v>
+        <v>0.01051488916920129</v>
       </c>
       <c r="V55" t="n">
-        <v>0.00156262600167717</v>
+        <v>0.01181229108160381</v>
       </c>
       <c r="W55" t="n">
-        <v>0.09146730718931552</v>
+        <v>0.03222918339131361</v>
       </c>
       <c r="X55" t="n">
-        <v>0.04808566269187377</v>
+        <v>0.1140365192169986</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.08854080013324576</v>
+        <v>0.05385948439461029</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.04203257310686756</v>
+        <v>0.1141046871094582</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.08019002871380167</v>
+        <v>0.03594579038156467</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.03578595656680141</v>
+        <v>0.03387903088764693</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.06639405042339429</v>
+        <v>-0.1147419412313216</v>
       </c>
     </row>
     <row r="56">
@@ -5725,79 +5725,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.1999231776456484</v>
+        <v>0.1990570292233553</v>
       </c>
       <c r="F56" t="n">
-        <v>0.08156821803801827</v>
+        <v>0.01218892863522182</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0718402122523967</v>
+        <v>0.08283014472294079</v>
       </c>
       <c r="H56" t="n">
-        <v>0.02220067240514276</v>
+        <v>0.03055122184128928</v>
       </c>
       <c r="I56" t="n">
-        <v>0.003682734281775303</v>
+        <v>0.004233251247042972</v>
       </c>
       <c r="J56" t="n">
-        <v>0.01893582405180505</v>
+        <v>0.05662019926789702</v>
       </c>
       <c r="K56" t="n">
-        <v>0.03699806059937769</v>
+        <v>0.07185342655270539</v>
       </c>
       <c r="L56" t="n">
-        <v>0.02297253995470855</v>
+        <v>0.01334712215880858</v>
       </c>
       <c r="M56" t="n">
-        <v>0.05033030034785078</v>
+        <v>0.07620666208111815</v>
       </c>
       <c r="N56" t="n">
-        <v>0.00340375713673805</v>
+        <v>0.01283365311717095</v>
       </c>
       <c r="O56" t="n">
-        <v>0.001679679158226101</v>
+        <v>0.0382828783398115</v>
       </c>
       <c r="P56" t="n">
-        <v>0.07536769537008947</v>
+        <v>0.09963691717901733</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.08829333027481215</v>
+        <v>0.09127055704742257</v>
       </c>
       <c r="R56" t="n">
-        <v>0.06310457122514901</v>
+        <v>0.09875527261714091</v>
       </c>
       <c r="S56" t="n">
-        <v>0.05609380894856696</v>
+        <v>0.04832703516805804</v>
       </c>
       <c r="T56" t="n">
-        <v>0.05260292614090759</v>
+        <v>0.007346265119888334</v>
       </c>
       <c r="U56" t="n">
-        <v>0.09116937797738245</v>
+        <v>0.02956098401664793</v>
       </c>
       <c r="V56" t="n">
-        <v>0.0007599759220132494</v>
+        <v>0.0003366538824298209</v>
       </c>
       <c r="W56" t="n">
-        <v>0.04773268346572089</v>
+        <v>0.075047062143673</v>
       </c>
       <c r="X56" t="n">
-        <v>0.05641737310789702</v>
+        <v>0.0100895276647471</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.05750081176247968</v>
+        <v>0.002716480667761464</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.0270382614735847</v>
+        <v>0.08900900391571527</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.06694160973810599</v>
+        <v>0.04791035697974191</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.003365576367251745</v>
+        <v>0.001046395633749618</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.08235434986677462</v>
+        <v>0.0563113151212511</v>
       </c>
     </row>
     <row r="57">
@@ -5820,82 +5820,82 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2140243913139787</v>
+        <v>0.2156483764245742</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0946508315782663</v>
+        <v>0.1128964116179648</v>
       </c>
       <c r="G57" t="n">
-        <v>0.006238435562673684</v>
+        <v>0.027946246076193</v>
       </c>
       <c r="H57" t="n">
-        <v>0.05632263942110952</v>
+        <v>0.01881434754823703</v>
       </c>
       <c r="I57" t="n">
-        <v>0.03337698838316661</v>
+        <v>0.01950559373415155</v>
       </c>
       <c r="J57" t="n">
-        <v>0.005595763761340274</v>
+        <v>0.004713012464520223</v>
       </c>
       <c r="K57" t="n">
-        <v>0.02075397807547517</v>
+        <v>0.05010713165749221</v>
       </c>
       <c r="L57" t="n">
-        <v>0.01991338233274953</v>
+        <v>0.01895727992357914</v>
       </c>
       <c r="M57" t="n">
-        <v>0.09186431917740383</v>
+        <v>0.01590125181072444</v>
       </c>
       <c r="N57" t="n">
-        <v>0.002363254621231765</v>
+        <v>0.03138289353440271</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0876130842917402</v>
+        <v>0.1111639997883006</v>
       </c>
       <c r="P57" t="n">
-        <v>0.05551038227867192</v>
+        <v>0.01570371722955786</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.02346193200406835</v>
+        <v>0.005014765750986683</v>
       </c>
       <c r="R57" t="n">
-        <v>0.03289142536965397</v>
+        <v>0.1026392998983218</v>
       </c>
       <c r="S57" t="n">
-        <v>0.05965706575856641</v>
+        <v>0.05173558102333216</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0721868784080015</v>
+        <v>0.09757738496709203</v>
       </c>
       <c r="U57" t="n">
-        <v>2.733681669811093e-05</v>
+        <v>0.002343973559257017</v>
       </c>
       <c r="V57" t="n">
-        <v>0.03002871083944508</v>
+        <v>0.001965393429236234</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0500957998736594</v>
+        <v>0.1113783721440057</v>
       </c>
       <c r="X57" t="n">
-        <v>0.08452022801223864</v>
+        <v>0.01310672933879384</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.09016795963421659</v>
+        <v>0.1038769779155067</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.03367599631740645</v>
+        <v>0.03925119079127114</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.04691033145484262</v>
+        <v>0.03005038654338182</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.00217327602737414</v>
+        <v>0.01396805925369127</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.100509991874999</v>
+        <v>0.1322624733189571</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>